--- a/MP LAUNCHPAD SPLIT DCAS.xlsx
+++ b/MP LAUNCHPAD SPLIT DCAS.xlsx
@@ -32,7 +32,7 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId13"/>
+    <pivotCache cacheId="1" r:id="rId13"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3453" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3515" uniqueCount="686">
   <si>
     <t>Scenario</t>
   </si>
@@ -2249,6 +2249,12 @@
   </si>
   <si>
     <t>Payoff Year</t>
+  </si>
+  <si>
+    <t>DCM MASTER LIST</t>
+  </si>
+  <si>
+    <t>See DCM Master List to right ------&gt;</t>
   </si>
 </sst>
 </file>
@@ -3634,7 +3640,7 @@
     <xf numFmtId="0" fontId="24" fillId="13" borderId="78"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="428">
+  <cellXfs count="430">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4505,6 +4511,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4693,6 +4706,8 @@
     <xf numFmtId="2" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4752,11 +4767,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="86">
@@ -5035,11 +5045,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="245974528"/>
-        <c:axId val="199910528"/>
+        <c:axId val="141279232"/>
+        <c:axId val="134630208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="245974528"/>
+        <c:axId val="141279232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5061,13 +5071,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199910528"/>
+        <c:crossAx val="134630208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5075,7 +5086,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199910528"/>
+        <c:axId val="134630208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5106,19 +5117,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245974528"/>
+        <c:crossAx val="141279232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:solidFill>
@@ -5574,11 +5587,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="245976576"/>
-        <c:axId val="199911680"/>
+        <c:axId val="134848512"/>
+        <c:axId val="134631360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="245976576"/>
+        <c:axId val="134848512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5600,13 +5613,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199911680"/>
+        <c:crossAx val="134631360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5614,7 +5628,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199911680"/>
+        <c:axId val="134631360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -5643,13 +5657,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245976576"/>
+        <c:crossAx val="134848512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -5657,6 +5672,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -5784,11 +5800,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="246264320"/>
-        <c:axId val="199913984"/>
+        <c:axId val="134849536"/>
+        <c:axId val="134633664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="246264320"/>
+        <c:axId val="134849536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5810,13 +5826,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199913984"/>
+        <c:crossAx val="134633664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5824,7 +5841,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199913984"/>
+        <c:axId val="134633664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5855,13 +5872,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="246264320"/>
+        <c:crossAx val="134849536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6063,11 +6081,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="246265856"/>
-        <c:axId val="199916288"/>
+        <c:axId val="134851072"/>
+        <c:axId val="135815744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="246265856"/>
+        <c:axId val="134851072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6078,7 +6096,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199916288"/>
+        <c:crossAx val="135815744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6086,7 +6104,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199916288"/>
+        <c:axId val="135815744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000000000"/>
@@ -6099,7 +6117,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="246265856"/>
+        <c:crossAx val="134851072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="100000000"/>
@@ -6439,58 +6457,58 @@
                   <c:v>269.64719753836937</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>274.75869219296987</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>280.04104623190625</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>285.50008601849652</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>291.14184073022972</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>296.97254956412195</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>302.99866920307022</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>309.22688155282788</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>315.66410175958475</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>322.31748651851109</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>329.19444268401071</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>336.30263619283295</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>343.65000131161185</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>351.24475022083374</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>359.09538294768714</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>367.2106976607152</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>375.59980133967787</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>384.27212083453497</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>393.23741432798437</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6610,58 +6628,58 @@
                   <c:v>700.20862331290846</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>750.59873334576412</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>803.50834888026259</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>859.06344519148604</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>917.39629631827063</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>978.6457900013944</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>1042.9577583686744</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>1110.4853251543184</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>1181.3892702792446</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>1255.8384126604171</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>1334.0100121606483</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>1416.090191635891</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>1502.2743800848959</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>1592.767777956351</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>1687.7858457213788</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>1787.5548168746582</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>1892.3122365856013</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>2002.3075272820918</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>2117.8025825134068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6678,11 +6696,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="258578944"/>
-        <c:axId val="251389056"/>
+        <c:axId val="136168448"/>
+        <c:axId val="136727936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="258578944"/>
+        <c:axId val="136168448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6703,7 +6721,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251389056"/>
+        <c:crossAx val="136727936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6711,7 +6729,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="251389056"/>
+        <c:axId val="136727936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6733,7 +6751,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258578944"/>
+        <c:crossAx val="136168448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="100"/>
@@ -8880,7 +8898,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="From DCM" colHeaderCaption="To DCM">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="From DCM" colHeaderCaption="To DCM">
   <location ref="A3:H10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField showAll="0">
@@ -9458,8 +9476,8 @@
   </sheetPr>
   <dimension ref="A1:CP236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9659,11 +9677,11 @@
         <v>59692.434433137103</v>
       </c>
       <c r="H5" s="113">
-        <f>SUMIFS($C$22:$C$181, $H$22:$H$181, "="&amp;$A5,$I$22:$I$181, "hard")</f>
-        <v>2.9192572187499999</v>
+        <f>SUMIFS($C$22:$C$236, $H$22:$H$236, "="&amp;$A5,$I$22:$I$236, "hard")</f>
+        <v>2.9841751875</v>
       </c>
       <c r="I5" s="113">
-        <f>SUMIFS($C$22:$C$181, $H$22:$H$181, "="&amp;$A5,$I$22:$I$181, "soft")</f>
+        <f>SUMIFS($C$22:$C$236, $H$22:$H$236, "="&amp;$A5,$I$22:$I$236, "soft")</f>
         <v>0.38078499999999998</v>
       </c>
       <c r="J5" s="261">
@@ -9703,11 +9721,11 @@
         <v>56608.750665878702</v>
       </c>
       <c r="H6" s="113">
-        <f>SUMIFS($C$22:$C$181, $H$22:$H$181, "="&amp;$A6,$I$22:$I$181, "hard")</f>
-        <v>1.2965774999999999</v>
+        <f t="shared" ref="H6:H9" si="0">SUMIFS($C$22:$C$236, $H$22:$H$236, "="&amp;$A6,$I$22:$I$236, "hard")</f>
+        <v>2.9832350000000001</v>
       </c>
       <c r="I6" s="113">
-        <f>SUMIFS($C$22:$C$181, $H$22:$H$181, "="&amp;$A6,$I$22:$I$181, "soft")</f>
+        <f t="shared" ref="I6:I9" si="1">SUMIFS($C$22:$C$236, $H$22:$H$236, "="&amp;$A6,$I$22:$I$236, "soft")</f>
         <v>1.2785421875000003</v>
       </c>
       <c r="J6" s="261">
@@ -9747,11 +9765,11 @@
         <v>53633.044233930748</v>
       </c>
       <c r="H7" s="113">
-        <f>SUMIFS($C$22:$C$181, $H$22:$H$181, "="&amp;$A7,$I$22:$I$181, "hard")</f>
-        <v>2.25982453125</v>
+        <f t="shared" si="0"/>
+        <v>2.9469065624999997</v>
       </c>
       <c r="I7" s="113">
-        <f>SUMIFS($C$22:$C$181, $H$22:$H$181, "="&amp;$A7,$I$22:$I$181, "soft")</f>
+        <f t="shared" si="1"/>
         <v>2.1378515624999999</v>
       </c>
       <c r="J7" s="261">
@@ -9787,11 +9805,11 @@
         <v>52352.474558188667</v>
       </c>
       <c r="H8" s="113">
-        <f>SUMIFS($C$22:$C$181, $H$22:$H$181, "="&amp;$A8,$I$22:$I$181, "hard")</f>
+        <f t="shared" si="0"/>
         <v>2.9815834374999999</v>
       </c>
       <c r="I8" s="113">
-        <f>SUMIFS($C$22:$C$181, $H$22:$H$181, "="&amp;$A8,$I$22:$I$181, "soft")</f>
+        <f>SUMIFS($C$22:$C$236, $H$22:$H$236, "="&amp;$A8,$I$22:$I$236, "soft")</f>
         <v>0.99125625000000006</v>
       </c>
       <c r="J8" s="261">
@@ -9827,11 +9845,11 @@
         <v>51375.193727803387</v>
       </c>
       <c r="H9" s="113">
-        <f>SUMIFS($C$22:$C$181, $H$22:$H$181, "="&amp;$A9,$I$22:$I$181, "hard")</f>
+        <f t="shared" si="0"/>
         <v>2.7599468750000002</v>
       </c>
       <c r="I9" s="113">
-        <f>SUMIFS($C$22:$C$181, $H$22:$H$181, "="&amp;$A9,$I$22:$I$181, "soft")</f>
+        <f t="shared" si="1"/>
         <v>1.3293573437500001</v>
       </c>
       <c r="J9" s="261">
@@ -9907,27 +9925,27 @@
         <v>11</v>
       </c>
       <c r="B12" s="122">
-        <f t="shared" ref="B12:G18" si="0">B3/B$3</f>
+        <f t="shared" ref="B12:G18" si="2">B3/B$3</f>
         <v>1</v>
       </c>
       <c r="C12" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D12" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E12" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F12" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G12" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H12" s="151">
@@ -9958,38 +9976,38 @@
         <v>0</v>
       </c>
       <c r="B13" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.1005477801387333</v>
       </c>
       <c r="C13" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.97824344759700355</v>
       </c>
       <c r="D13" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.99961756413569214</v>
       </c>
       <c r="E13" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.90639366309330827</v>
       </c>
       <c r="F13" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3860992059091843</v>
       </c>
       <c r="G13" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.88095670343155152</v>
       </c>
       <c r="H13" s="151">
-        <f t="shared" ref="H13:H18" si="1">$G3-$G4</f>
+        <f t="shared" ref="H13:H18" si="3">$G3-$G4</f>
         <v>8731.9448465922615</v>
       </c>
       <c r="I13" s="151">
         <v>0</v>
       </c>
       <c r="J13" s="151">
-        <f t="shared" ref="J13:J18" si="2">G3-(G4 -J4)</f>
+        <f t="shared" ref="J13:J18" si="4">G3-(G4 -J4)</f>
         <v>8731.9448465922615</v>
       </c>
       <c r="K13" s="151">
@@ -10007,31 +10025,31 @@
         <v>1</v>
       </c>
       <c r="B14" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.0785334641965729</v>
       </c>
       <c r="C14" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.9382694221923642</v>
       </c>
       <c r="D14" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0176368154509927</v>
       </c>
       <c r="E14" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.90000167824924227</v>
       </c>
       <c r="F14" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3400570388796187</v>
       </c>
       <c r="G14" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.81379169245323313</v>
       </c>
       <c r="H14" s="151">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4926.6207202706355</v>
       </c>
       <c r="I14" s="151">
@@ -10039,7 +10057,7 @@
         <v>4926.6207202706355</v>
       </c>
       <c r="J14" s="151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9926.6207202706355</v>
       </c>
       <c r="K14" s="151">
@@ -10058,31 +10076,31 @@
         <v>2</v>
       </c>
       <c r="B15" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.9058537118994825</v>
       </c>
       <c r="C15" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.90772370817979864</v>
       </c>
       <c r="D15" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.98151778507556697</v>
       </c>
       <c r="E15" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.89494757050711493</v>
       </c>
       <c r="F15" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0230894704281621</v>
       </c>
       <c r="G15" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.7717515871069065</v>
       </c>
       <c r="H15" s="151">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3083.6837672584006</v>
       </c>
       <c r="I15" s="151">
@@ -10090,7 +10108,7 @@
         <v>8010.3044875290361</v>
       </c>
       <c r="J15" s="151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12083.683767258401</v>
       </c>
       <c r="K15" s="151">
@@ -10109,31 +10127,31 @@
         <v>3</v>
       </c>
       <c r="B16" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.8335266463262627</v>
       </c>
       <c r="C16" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.90663862492688851</v>
       </c>
       <c r="D16" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0173323650976691</v>
       </c>
       <c r="E16" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.90024278427093529</v>
       </c>
       <c r="F16" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.90064842063125883</v>
       </c>
       <c r="G16" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.73118354533586116</v>
       </c>
       <c r="H16" s="151">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2975.7064319479541</v>
       </c>
       <c r="I16" s="151">
@@ -10141,7 +10159,7 @@
         <v>10986.01091947699</v>
       </c>
       <c r="J16" s="151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11975.706431947954</v>
       </c>
       <c r="K16" s="151">
@@ -10160,31 +10178,31 @@
         <v>4</v>
       </c>
       <c r="B17" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.8335266463262627</v>
       </c>
       <c r="C17" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.92848932854776189</v>
       </c>
       <c r="D17" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.97503475205132384</v>
       </c>
       <c r="E17" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.90089331569719711</v>
       </c>
       <c r="F17" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.90034646398425622</v>
       </c>
       <c r="G17" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.71372543739265537</v>
       </c>
       <c r="H17" s="151">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1280.569675742081</v>
       </c>
       <c r="I17" s="151">
@@ -10192,7 +10210,7 @@
         <v>12266.580595219071</v>
       </c>
       <c r="J17" s="151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10280.569675742081</v>
       </c>
       <c r="K17" s="151">
@@ -10211,31 +10229,31 @@
         <v>5</v>
       </c>
       <c r="B18" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.8335266463262627</v>
       </c>
       <c r="C18" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.90516774620740204</v>
       </c>
       <c r="D18" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.93654363024276988</v>
       </c>
       <c r="E18" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.90065957988852696</v>
       </c>
       <c r="F18" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.9000135069388242</v>
       </c>
       <c r="G18" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.70040209033010303</v>
       </c>
       <c r="H18" s="151">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>977.28083038527984</v>
       </c>
       <c r="I18" s="151">
@@ -10243,7 +10261,7 @@
         <v>13243.861425604351</v>
       </c>
       <c r="J18" s="151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9977.2808303852798</v>
       </c>
       <c r="K18" s="151">
@@ -10342,7 +10360,7 @@
         <v>133.06100000000001</v>
       </c>
       <c r="C22" s="266">
-        <f t="shared" ref="C22:C85" si="3">B22*0.0015625</f>
+        <f t="shared" ref="C22:C85" si="5">B22*0.0015625</f>
         <v>0.20790781250000001</v>
       </c>
       <c r="D22" s="267" t="s">
@@ -10373,7 +10391,7 @@
         <v>197.04400000000001</v>
       </c>
       <c r="C23" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.30788125000000005</v>
       </c>
       <c r="D23" s="267" t="s">
@@ -10404,7 +10422,7 @@
         <v>87.992699999999999</v>
       </c>
       <c r="C24" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.13748859375</v>
       </c>
       <c r="D24" s="267" t="s">
@@ -10435,7 +10453,7 @@
         <v>10.2622</v>
       </c>
       <c r="C25" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.6034687500000002E-2</v>
       </c>
       <c r="D25" s="267" t="s">
@@ -10466,7 +10484,7 @@
         <v>1246.4100000000001</v>
       </c>
       <c r="C26" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.9475156250000003</v>
       </c>
       <c r="D26" s="267" t="s">
@@ -10497,7 +10515,7 @@
         <v>34.382100000000001</v>
       </c>
       <c r="C27" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.3722031250000003E-2</v>
       </c>
       <c r="D27" s="267" t="s">
@@ -10528,7 +10546,7 @@
         <v>40.712400000000002</v>
       </c>
       <c r="C28" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.3613125000000006E-2</v>
       </c>
       <c r="D28" s="267" t="s">
@@ -10559,7 +10577,7 @@
         <v>241.96600000000001</v>
       </c>
       <c r="C29" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.37807187500000006</v>
       </c>
       <c r="D29" s="267" t="s">
@@ -10590,7 +10608,7 @@
         <v>165.672</v>
       </c>
       <c r="C30" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.2588625</v>
       </c>
       <c r="D30" s="267" t="s">
@@ -10621,7 +10639,7 @@
         <v>41.073999999999998</v>
       </c>
       <c r="C31" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.4178125000000003E-2</v>
       </c>
       <c r="D31" s="267" t="s">
@@ -10652,7 +10670,7 @@
         <v>201.041</v>
       </c>
       <c r="C32" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.31412656250000004</v>
       </c>
       <c r="D32" s="267" t="s">
@@ -10683,7 +10701,7 @@
         <v>698.01</v>
       </c>
       <c r="C33" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.090640625</v>
       </c>
       <c r="D33" s="267" t="s">
@@ -10714,7 +10732,7 @@
         <v>315.03300000000002</v>
       </c>
       <c r="C34" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.49223906250000005</v>
       </c>
       <c r="D34" s="267" t="s">
@@ -10745,7 +10763,7 @@
         <v>177.773</v>
       </c>
       <c r="C35" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.27777031250000001</v>
       </c>
       <c r="D35" s="267" t="s">
@@ -10776,7 +10794,7 @@
         <v>102.78400000000001</v>
       </c>
       <c r="C36" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.16060000000000002</v>
       </c>
       <c r="D36" s="267" t="s">
@@ -10807,7 +10825,7 @@
         <v>430.99700000000001</v>
       </c>
       <c r="C37" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.67343281250000009</v>
       </c>
       <c r="D37" s="267" t="s">
@@ -10838,7 +10856,7 @@
         <v>150.26900000000001</v>
       </c>
       <c r="C38" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.23479531250000002</v>
       </c>
       <c r="D38" s="267" t="s">
@@ -10869,7 +10887,7 @@
         <v>215.74700000000001</v>
       </c>
       <c r="C39" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.33710468750000006</v>
       </c>
       <c r="D39" s="267" t="s">
@@ -10900,7 +10918,7 @@
         <v>378.71</v>
       </c>
       <c r="C40" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.59173437500000003</v>
       </c>
       <c r="D40" s="267" t="s">
@@ -10931,7 +10949,7 @@
         <v>366.43400000000003</v>
       </c>
       <c r="C41" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.57255312500000011</v>
       </c>
       <c r="D41" s="267" t="s">
@@ -10962,7 +10980,7 @@
         <v>4.8337599999999998</v>
       </c>
       <c r="C42" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.5527500000000004E-3</v>
       </c>
       <c r="D42" s="267" t="s">
@@ -10993,7 +11011,7 @@
         <v>4.9456600000000002</v>
       </c>
       <c r="C43" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.727593750000001E-3</v>
       </c>
       <c r="D43" s="267" t="s">
@@ -11024,7 +11042,7 @@
         <v>50.131300000000003</v>
       </c>
       <c r="C44" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.8330156250000005E-2</v>
       </c>
       <c r="D44" s="267" t="s">
@@ -11055,7 +11073,7 @@
         <v>9.9264299999999999</v>
       </c>
       <c r="C45" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.5510046875000001E-2</v>
       </c>
       <c r="D45" s="267" t="s">
@@ -11086,7 +11104,7 @@
         <v>9.8941700000000008</v>
       </c>
       <c r="C46" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.5459640625000002E-2</v>
       </c>
       <c r="D46" s="267" t="s">
@@ -11117,7 +11135,7 @@
         <v>388.51</v>
       </c>
       <c r="C47" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.60704687499999999</v>
       </c>
       <c r="D47" s="267" t="s">
@@ -11148,7 +11166,7 @@
         <v>230.34299999999999</v>
       </c>
       <c r="C48" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.35991093750000003</v>
       </c>
       <c r="D48" s="267" t="s">
@@ -11179,7 +11197,7 @@
         <v>204.86</v>
       </c>
       <c r="C49" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.32009375000000007</v>
       </c>
       <c r="D49" s="267" t="s">
@@ -11210,7 +11228,7 @@
         <v>76.115099999999998</v>
       </c>
       <c r="C50" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.11892984375</v>
       </c>
       <c r="D50" s="267" t="s">
@@ -11241,7 +11259,7 @@
         <v>55.805700000000002</v>
       </c>
       <c r="C51" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.7196406250000011E-2</v>
       </c>
       <c r="D51" s="267" t="s">
@@ -11272,7 +11290,7 @@
         <v>307.18</v>
       </c>
       <c r="C52" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.47996875000000006</v>
       </c>
       <c r="D52" s="267" t="s">
@@ -11303,7 +11321,7 @@
         <v>150.66399999999999</v>
       </c>
       <c r="C53" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.2354125</v>
       </c>
       <c r="D53" s="267" t="s">
@@ -11334,7 +11352,7 @@
         <v>158.881</v>
       </c>
       <c r="C54" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.24825156250000002</v>
       </c>
       <c r="D54" s="267" t="s">
@@ -11365,7 +11383,7 @@
         <v>110.32299999999999</v>
       </c>
       <c r="C55" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.17237968749999999</v>
       </c>
       <c r="D55" s="267" t="s">
@@ -11396,7 +11414,7 @@
         <v>158.791</v>
       </c>
       <c r="C56" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.24811093750000002</v>
       </c>
       <c r="D56" s="267" t="s">
@@ -11427,7 +11445,7 @@
         <v>5.1974200000000002</v>
       </c>
       <c r="C57" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.1209687500000006E-3</v>
       </c>
       <c r="D57" s="267" t="s">
@@ -11458,7 +11476,7 @@
         <v>36.807899999999997</v>
       </c>
       <c r="C58" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.751234375E-2</v>
       </c>
       <c r="D58" s="267" t="s">
@@ -11496,7 +11514,7 @@
         <v>78.110399999999998</v>
       </c>
       <c r="C59" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.1220475</v>
       </c>
       <c r="D59" s="267" t="s">
@@ -11527,7 +11545,7 @@
         <v>521.04700000000003</v>
       </c>
       <c r="C60" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.81413593750000013</v>
       </c>
       <c r="D60" s="267" t="s">
@@ -11558,7 +11576,7 @@
         <v>600.79499999999996</v>
       </c>
       <c r="C61" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.93874218749999994</v>
       </c>
       <c r="D61" s="267" t="s">
@@ -11589,7 +11607,7 @@
         <v>341.51600000000002</v>
       </c>
       <c r="C62" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.53361875000000003</v>
       </c>
       <c r="D62" s="267" t="s">
@@ -11620,7 +11638,7 @@
         <v>544.51199999999994</v>
       </c>
       <c r="C63" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.8508</v>
       </c>
       <c r="D63" s="267" t="s">
@@ -11651,7 +11669,7 @@
         <v>21.306000000000001</v>
       </c>
       <c r="C64" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.3290625000000004E-2</v>
       </c>
       <c r="D64" s="267" t="s">
@@ -11682,7 +11700,7 @@
         <v>666.49099999999999</v>
       </c>
       <c r="C65" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0413921875000001</v>
       </c>
       <c r="D65" s="267" t="s">
@@ -11713,7 +11731,7 @@
         <v>488.51499999999999</v>
       </c>
       <c r="C66" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.76330468750000002</v>
       </c>
       <c r="D66" s="267" t="s">
@@ -11744,7 +11762,7 @@
         <v>248.417</v>
       </c>
       <c r="C67" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.38815156250000005</v>
       </c>
       <c r="D67" s="267" t="s">
@@ -11775,7 +11793,7 @@
         <v>444.238</v>
       </c>
       <c r="C68" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.694121875</v>
       </c>
       <c r="D68" s="267" t="s">
@@ -11806,7 +11824,7 @@
         <v>28.393799999999999</v>
       </c>
       <c r="C69" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.4365312500000004E-2</v>
       </c>
       <c r="D69" s="267" t="s">
@@ -11837,7 +11855,7 @@
         <v>1.19519</v>
       </c>
       <c r="C70" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.867484375E-3</v>
       </c>
       <c r="D70" s="267" t="s">
@@ -11868,7 +11886,7 @@
         <v>32.851500000000001</v>
       </c>
       <c r="C71" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.1330468750000004E-2</v>
       </c>
       <c r="D71" s="267" t="s">
@@ -11899,7 +11917,7 @@
         <v>193.80099999999999</v>
       </c>
       <c r="C72" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.30281406249999998</v>
       </c>
       <c r="D72" s="267" t="s">
@@ -11930,7 +11948,7 @@
         <v>302.54300000000001</v>
       </c>
       <c r="C73" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.47272343750000001</v>
       </c>
       <c r="D73" s="267" t="s">
@@ -11961,7 +11979,7 @@
         <v>161.84299999999999</v>
       </c>
       <c r="C74" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.25287968750000001</v>
       </c>
       <c r="D74" s="267" t="s">
@@ -11992,7 +12010,7 @@
         <v>41.770899999999997</v>
       </c>
       <c r="C75" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.5267031249999996E-2</v>
       </c>
       <c r="D75" s="267" t="s">
@@ -12023,7 +12041,7 @@
         <v>615.09900000000005</v>
       </c>
       <c r="C76" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.96109218750000014</v>
       </c>
       <c r="D76" s="267" t="s">
@@ -12054,7 +12072,7 @@
         <v>138.453</v>
       </c>
       <c r="C77" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.21633281250000003</v>
       </c>
       <c r="D77" s="267" t="s">
@@ -12085,7 +12103,7 @@
         <v>332.78800000000001</v>
       </c>
       <c r="C78" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.51998125000000006</v>
       </c>
       <c r="D78" s="267" t="s">
@@ -12116,7 +12134,7 @@
         <v>183.35400000000001</v>
       </c>
       <c r="C79" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.28649062500000005</v>
       </c>
       <c r="D79" s="267" t="s">
@@ -12147,7 +12165,7 @@
         <v>103.825</v>
       </c>
       <c r="C80" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.1622265625</v>
       </c>
       <c r="D80" s="267" t="s">
@@ -12178,7 +12196,7 @@
         <v>55.579099999999997</v>
       </c>
       <c r="C81" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.6842343749999995E-2</v>
       </c>
       <c r="D81" s="267" t="s">
@@ -12209,7 +12227,7 @@
         <v>50.171199999999999</v>
       </c>
       <c r="C82" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.8392500000000004E-2</v>
       </c>
       <c r="D82" s="267" t="s">
@@ -12240,7 +12258,7 @@
         <v>101.265</v>
       </c>
       <c r="C83" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.1582265625</v>
       </c>
       <c r="D83" s="267" t="s">
@@ -12271,7 +12289,7 @@
         <v>273.21899999999999</v>
       </c>
       <c r="C84" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.42690468749999999</v>
       </c>
       <c r="D84" s="267" t="s">
@@ -12302,7 +12320,7 @@
         <v>43.5593</v>
       </c>
       <c r="C85" s="266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.8061406249999998E-2</v>
       </c>
       <c r="D85" s="267" t="s">
@@ -12333,7 +12351,7 @@
         <v>366.03100000000001</v>
       </c>
       <c r="C86" s="266">
-        <f t="shared" ref="C86:C149" si="4">B86*0.0015625</f>
+        <f t="shared" ref="C86:C149" si="6">B86*0.0015625</f>
         <v>0.57192343750000008</v>
       </c>
       <c r="D86" s="267" t="s">
@@ -12364,7 +12382,7 @@
         <v>118.69</v>
       </c>
       <c r="C87" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.185453125</v>
       </c>
       <c r="D87" s="267" t="s">
@@ -12395,7 +12413,7 @@
         <v>14.3347</v>
       </c>
       <c r="C88" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.239796875E-2</v>
       </c>
       <c r="D88" s="267" t="s">
@@ -12426,7 +12444,7 @@
         <v>74.758499999999998</v>
       </c>
       <c r="C89" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.11681015625000001</v>
       </c>
       <c r="D89" s="267" t="s">
@@ -12457,7 +12475,7 @@
         <v>193.58099999999999</v>
       </c>
       <c r="C90" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.3024703125</v>
       </c>
       <c r="D90" s="267" t="s">
@@ -12488,7 +12506,7 @@
         <v>74.295000000000002</v>
       </c>
       <c r="C91" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.11608593750000001</v>
       </c>
       <c r="D91" s="267" t="s">
@@ -12519,7 +12537,7 @@
         <v>102.444</v>
       </c>
       <c r="C92" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.16006875000000001</v>
       </c>
       <c r="D92" s="267" t="s">
@@ -12550,7 +12568,7 @@
         <v>36.003500000000003</v>
       </c>
       <c r="C93" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.6255468750000009E-2</v>
       </c>
       <c r="D93" s="267" t="s">
@@ -12581,7 +12599,7 @@
         <v>38.617600000000003</v>
       </c>
       <c r="C94" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.0340000000000005E-2</v>
       </c>
       <c r="D94" s="267" t="s">
@@ -12612,7 +12630,7 @@
         <v>158.60499999999999</v>
       </c>
       <c r="C95" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.2478203125</v>
       </c>
       <c r="D95" s="267" t="s">
@@ -12643,7 +12661,7 @@
         <v>61.5092</v>
       </c>
       <c r="C96" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.6108125000000003E-2</v>
       </c>
       <c r="D96" s="267" t="s">
@@ -12674,7 +12692,7 @@
         <v>475.79899999999998</v>
       </c>
       <c r="C97" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.74343593750000003</v>
       </c>
       <c r="D97" s="267" t="s">
@@ -12705,7 +12723,7 @@
         <v>225.447</v>
       </c>
       <c r="C98" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.35226093750000004</v>
       </c>
       <c r="D98" s="267" t="s">
@@ -12736,7 +12754,7 @@
         <v>1019.6</v>
       </c>
       <c r="C99" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.5931250000000001</v>
       </c>
       <c r="D99" s="267" t="s">
@@ -12767,7 +12785,7 @@
         <v>80.073700000000002</v>
       </c>
       <c r="C100" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.12511515625</v>
       </c>
       <c r="D100" s="267" t="s">
@@ -12798,7 +12816,7 @@
         <v>92.308800000000005</v>
       </c>
       <c r="C101" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.14423250000000001</v>
       </c>
       <c r="D101" s="267" t="s">
@@ -12829,7 +12847,7 @@
         <v>56.974299999999999</v>
       </c>
       <c r="C102" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.902234375000001E-2</v>
       </c>
       <c r="D102" s="267" t="s">
@@ -12860,7 +12878,7 @@
         <v>30.932300000000001</v>
       </c>
       <c r="C103" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.8331718750000002E-2</v>
       </c>
       <c r="D103" s="267" t="s">
@@ -12891,7 +12909,7 @@
         <v>42.313899999999997</v>
       </c>
       <c r="C104" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.6115468750000003E-2</v>
       </c>
       <c r="D104" s="267" t="s">
@@ -12922,7 +12940,7 @@
         <v>65.225499999999997</v>
       </c>
       <c r="C105" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.10191484375</v>
       </c>
       <c r="D105" s="267" t="s">
@@ -12953,7 +12971,7 @@
         <v>160.523</v>
       </c>
       <c r="C106" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.25081718749999998</v>
       </c>
       <c r="D106" s="267" t="s">
@@ -12984,7 +13002,7 @@
         <v>257.315</v>
       </c>
       <c r="C107" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.40205468750000001</v>
       </c>
       <c r="D107" s="267" t="s">
@@ -13015,7 +13033,7 @@
         <v>818.26700000000005</v>
       </c>
       <c r="C108" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.2785421875000003</v>
       </c>
       <c r="D108" s="267" t="s">
@@ -13046,7 +13064,7 @@
         <v>489.274</v>
       </c>
       <c r="C109" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.76449062500000009</v>
       </c>
       <c r="D109" s="267" t="s">
@@ -13077,7 +13095,7 @@
         <v>361.964</v>
       </c>
       <c r="C110" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.56556875000000006</v>
       </c>
       <c r="D110" s="267" t="s">
@@ -13108,7 +13126,7 @@
         <v>50.363999999999997</v>
       </c>
       <c r="C111" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.8693750000000007E-2</v>
       </c>
       <c r="D111" s="267" t="s">
@@ -13139,7 +13157,7 @@
         <v>547.63</v>
       </c>
       <c r="C112" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.85567187500000008</v>
       </c>
       <c r="D112" s="267" t="s">
@@ -13170,7 +13188,7 @@
         <v>545.26800000000003</v>
       </c>
       <c r="C113" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.85198125000000013</v>
       </c>
       <c r="D113" s="267" t="s">
@@ -13201,7 +13219,7 @@
         <v>106.19499999999999</v>
       </c>
       <c r="C114" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.16592968750000001</v>
       </c>
       <c r="D114" s="267" t="s">
@@ -13232,7 +13250,7 @@
         <v>29.8415</v>
       </c>
       <c r="C115" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.6627343750000001E-2</v>
       </c>
       <c r="D115" s="267" t="s">
@@ -13263,7 +13281,7 @@
         <v>22.9087</v>
       </c>
       <c r="C116" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.5794843749999999E-2</v>
       </c>
       <c r="D116" s="267" t="s">
@@ -13294,7 +13312,7 @@
         <v>61.8416</v>
       </c>
       <c r="C117" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.6627500000000005E-2</v>
       </c>
       <c r="D117" s="267" t="s">
@@ -13325,7 +13343,7 @@
         <v>18.829799999999999</v>
       </c>
       <c r="C118" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.9421562499999998E-2</v>
       </c>
       <c r="D118" s="267" t="s">
@@ -13356,7 +13374,7 @@
         <v>11.348000000000001</v>
       </c>
       <c r="C119" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.773125E-2</v>
       </c>
       <c r="D119" s="267" t="s">
@@ -13387,7 +13405,7 @@
         <v>31.674299999999999</v>
       </c>
       <c r="C120" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.9491093749999999E-2</v>
       </c>
       <c r="D120" s="267" t="s">
@@ -13418,7 +13436,7 @@
         <v>13.2592</v>
       </c>
       <c r="C121" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.07175E-2</v>
       </c>
       <c r="D121" s="267" t="s">
@@ -13449,7 +13467,7 @@
         <v>157.34299999999999</v>
       </c>
       <c r="C122" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.24584843749999999</v>
       </c>
       <c r="D122" s="267" t="s">
@@ -13480,7 +13498,7 @@
         <v>186.256</v>
       </c>
       <c r="C123" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.29102500000000003</v>
       </c>
       <c r="D123" s="267" t="s">
@@ -13511,7 +13529,7 @@
         <v>38.566400000000002</v>
       </c>
       <c r="C124" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.0260000000000008E-2</v>
       </c>
       <c r="D124" s="267" t="s">
@@ -13542,7 +13560,7 @@
         <v>18.977499999999999</v>
       </c>
       <c r="C125" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.9652343750000001E-2</v>
       </c>
       <c r="D125" s="267" t="s">
@@ -13573,7 +13591,7 @@
         <v>56.467599999999997</v>
       </c>
       <c r="C126" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.8230625000000007E-2</v>
       </c>
       <c r="D126" s="267" t="s">
@@ -13604,7 +13622,7 @@
         <v>219.762</v>
       </c>
       <c r="C127" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.34337812500000003</v>
       </c>
       <c r="D127" s="267" t="s">
@@ -13635,7 +13653,7 @@
         <v>361.52</v>
       </c>
       <c r="C128" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.56487500000000002</v>
       </c>
       <c r="D128" s="267" t="s">
@@ -13666,7 +13684,7 @@
         <v>117.962</v>
       </c>
       <c r="C129" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.18431562500000001</v>
       </c>
       <c r="D129" s="267" t="s">
@@ -13697,7 +13715,7 @@
         <v>258.065</v>
       </c>
       <c r="C130" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.4032265625</v>
       </c>
       <c r="D130" s="267" t="s">
@@ -13728,7 +13746,7 @@
         <v>126.703</v>
       </c>
       <c r="C131" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.19797343750000002</v>
       </c>
       <c r="D131" s="267" t="s">
@@ -13759,7 +13777,7 @@
         <v>36.2119</v>
       </c>
       <c r="C132" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.6581093750000006E-2</v>
       </c>
       <c r="D132" s="267" t="s">
@@ -13790,7 +13808,7 @@
         <v>225.91900000000001</v>
       </c>
       <c r="C133" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.35299843750000004</v>
       </c>
       <c r="D133" s="267" t="s">
@@ -13821,7 +13839,7 @@
         <v>39.814399999999999</v>
       </c>
       <c r="C134" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.2210000000000001E-2</v>
       </c>
       <c r="D134" s="267" t="s">
@@ -13852,7 +13870,7 @@
         <v>420.721</v>
       </c>
       <c r="C135" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.65737656250000009</v>
       </c>
       <c r="D135" s="267" t="s">
@@ -13883,7 +13901,7 @@
         <v>316.91000000000003</v>
       </c>
       <c r="C136" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.49517187500000004</v>
       </c>
       <c r="D136" s="267" t="s">
@@ -13914,7 +13932,7 @@
         <v>172.84100000000001</v>
       </c>
       <c r="C137" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.27006406250000003</v>
       </c>
       <c r="D137" s="267" t="s">
@@ -13945,7 +13963,7 @@
         <v>74.203199999999995</v>
       </c>
       <c r="C138" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.1159425</v>
       </c>
       <c r="D138" s="267" t="s">
@@ -13976,7 +13994,7 @@
         <v>37.981000000000002</v>
       </c>
       <c r="C139" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.9345312500000004E-2</v>
       </c>
       <c r="D139" s="267" t="s">
@@ -14007,7 +14025,7 @@
         <v>601.28200000000004</v>
       </c>
       <c r="C140" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.93950312500000011</v>
       </c>
       <c r="D140" s="267" t="s">
@@ -14038,7 +14056,7 @@
         <v>67.309200000000004</v>
       </c>
       <c r="C141" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.10517062500000002</v>
       </c>
       <c r="D141" s="267" t="s">
@@ -14069,7 +14087,7 @@
         <v>91.233400000000003</v>
       </c>
       <c r="C142" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.14255218750000001</v>
       </c>
       <c r="D142" s="267" t="s">
@@ -14100,7 +14118,7 @@
         <v>30.9815</v>
       </c>
       <c r="C143" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.8408593750000006E-2</v>
       </c>
       <c r="D143" s="267" t="s">
@@ -14131,7 +14149,7 @@
         <v>160.672</v>
       </c>
       <c r="C144" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.25105</v>
       </c>
       <c r="D144" s="267" t="s">
@@ -14162,7 +14180,7 @@
         <v>127.68600000000001</v>
       </c>
       <c r="C145" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.19950937500000002</v>
       </c>
       <c r="D145" s="267" t="s">
@@ -14193,7 +14211,7 @@
         <v>180.88900000000001</v>
       </c>
       <c r="C146" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.28263906250000004</v>
       </c>
       <c r="D146" s="267" t="s">
@@ -14224,7 +14242,7 @@
         <v>176.31800000000001</v>
       </c>
       <c r="C147" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.27549687500000003</v>
       </c>
       <c r="D147" s="267" t="s">
@@ -14255,7 +14273,7 @@
         <v>273.57400000000001</v>
       </c>
       <c r="C148" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.42745937500000003</v>
       </c>
       <c r="D148" s="267" t="s">
@@ -14286,7 +14304,7 @@
         <v>247.52600000000001</v>
       </c>
       <c r="C149" s="266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.38675937500000002</v>
       </c>
       <c r="D149" s="267" t="s">
@@ -14317,7 +14335,7 @@
         <v>142.57400000000001</v>
       </c>
       <c r="C150" s="266">
-        <f t="shared" ref="C150:C213" si="5">B150*0.0015625</f>
+        <f t="shared" ref="C150:C213" si="7">B150*0.0015625</f>
         <v>0.22277187500000004</v>
       </c>
       <c r="D150" s="267" t="s">
@@ -14348,7 +14366,7 @@
         <v>22.7911</v>
       </c>
       <c r="C151" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.5611093750000003E-2</v>
       </c>
       <c r="D151" s="267" t="s">
@@ -14379,7 +14397,7 @@
         <v>138.88300000000001</v>
       </c>
       <c r="C152" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.21700468750000002</v>
       </c>
       <c r="D152" s="267" t="s">
@@ -14410,7 +14428,7 @@
         <v>78.093299999999999</v>
       </c>
       <c r="C153" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.12202078125</v>
       </c>
       <c r="D153" s="267" t="s">
@@ -14441,7 +14459,7 @@
         <v>137.33000000000001</v>
       </c>
       <c r="C154" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.21457812500000004</v>
       </c>
       <c r="D154" s="267" t="s">
@@ -14472,7 +14490,7 @@
         <v>115.625</v>
       </c>
       <c r="C155" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.1806640625</v>
       </c>
       <c r="D155" s="267" t="s">
@@ -14503,7 +14521,7 @@
         <v>286.99900000000002</v>
       </c>
       <c r="C156" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.44843593750000005</v>
       </c>
       <c r="D156" s="267" t="s">
@@ -14534,7 +14552,7 @@
         <v>17.8872</v>
       </c>
       <c r="C157" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.7948750000000001E-2</v>
       </c>
       <c r="D157" s="267" t="s">
@@ -14565,7 +14583,7 @@
         <v>72.891199999999998</v>
       </c>
       <c r="C158" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.11389250000000001</v>
       </c>
       <c r="D158" s="267" t="s">
@@ -14596,7 +14614,7 @@
         <v>116.251</v>
       </c>
       <c r="C159" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.18164218750000002</v>
       </c>
       <c r="D159" s="267" t="s">
@@ -14627,7 +14645,7 @@
         <v>41.566600000000001</v>
       </c>
       <c r="C160" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.4947812500000007E-2</v>
       </c>
       <c r="D160" s="267" t="s">
@@ -14658,7 +14676,7 @@
         <v>31.267700000000001</v>
       </c>
       <c r="C161" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.8855781250000008E-2</v>
       </c>
       <c r="D161" s="267" t="s">
@@ -14689,7 +14707,7 @@
         <v>120.051</v>
       </c>
       <c r="C162" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.18757968750000001</v>
       </c>
       <c r="D162" s="267" t="s">
@@ -14720,7 +14738,7 @@
         <v>108.49</v>
       </c>
       <c r="C163" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.169515625</v>
       </c>
       <c r="D163" s="267" t="s">
@@ -14751,7 +14769,7 @@
         <v>40.662399999999998</v>
       </c>
       <c r="C164" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.3534999999999994E-2</v>
       </c>
       <c r="D164" s="267" t="s">
@@ -14782,7 +14800,7 @@
         <v>318.72699999999998</v>
       </c>
       <c r="C165" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.49801093749999997</v>
       </c>
       <c r="D165" s="267" t="s">
@@ -14813,7 +14831,7 @@
         <v>77.535700000000006</v>
       </c>
       <c r="C166" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.12114953125000001</v>
       </c>
       <c r="D166" s="267" t="s">
@@ -14844,7 +14862,7 @@
         <v>386.56</v>
       </c>
       <c r="C167" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.60400000000000009</v>
       </c>
       <c r="D167" s="267" t="s">
@@ -14875,7 +14893,7 @@
         <v>149.37200000000001</v>
       </c>
       <c r="C168" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.23339375000000004</v>
       </c>
       <c r="D168" s="267" t="s">
@@ -14906,7 +14924,7 @@
         <v>87.415899999999993</v>
       </c>
       <c r="C169" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.13658734375000001</v>
       </c>
       <c r="D169" s="267" t="s">
@@ -14937,7 +14955,7 @@
         <v>161.54</v>
       </c>
       <c r="C170" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.25240625</v>
       </c>
       <c r="D170" s="267" t="s">
@@ -14968,7 +14986,7 @@
         <v>67.247500000000002</v>
       </c>
       <c r="C171" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.10507421875</v>
       </c>
       <c r="D171" s="267" t="s">
@@ -14999,7 +15017,7 @@
         <v>83.545000000000002</v>
       </c>
       <c r="C172" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.1305390625</v>
       </c>
       <c r="D172" s="267" t="s">
@@ -15030,7 +15048,7 @@
         <v>20.0505</v>
       </c>
       <c r="C173" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.1328906250000003E-2</v>
       </c>
       <c r="D173" s="267" t="s">
@@ -15061,7 +15079,7 @@
         <v>19.825600000000001</v>
       </c>
       <c r="C174" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.0977500000000005E-2</v>
       </c>
       <c r="D174" s="267" t="s">
@@ -15092,7 +15110,7 @@
         <v>138.755</v>
       </c>
       <c r="C175" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.21680468750000001</v>
       </c>
       <c r="D175" s="267" t="s">
@@ -15123,7 +15141,7 @@
         <v>80.697000000000003</v>
       </c>
       <c r="C176" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.12608906250000002</v>
       </c>
       <c r="D176" s="267" t="s">
@@ -15154,7 +15172,7 @@
         <v>39.981099999999998</v>
       </c>
       <c r="C177" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2470468750000001E-2</v>
       </c>
       <c r="D177" s="267" t="s">
@@ -15185,7 +15203,7 @@
         <v>19.7181</v>
       </c>
       <c r="C178" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.0809531250000001E-2</v>
       </c>
       <c r="D178" s="267" t="s">
@@ -15216,7 +15234,7 @@
         <v>43.415300000000002</v>
       </c>
       <c r="C179" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.7836406250000009E-2</v>
       </c>
       <c r="D179" s="267" t="s">
@@ -15247,7 +15265,7 @@
         <v>39.993000000000002</v>
       </c>
       <c r="C180" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2489062500000005E-2</v>
       </c>
       <c r="D180" s="267" t="s">
@@ -15278,7 +15296,7 @@
         <v>39.980699999999999</v>
       </c>
       <c r="C181" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2469843750000004E-2</v>
       </c>
       <c r="D181" s="267" t="s">
@@ -15309,7 +15327,7 @@
         <v>39.981999999999999</v>
       </c>
       <c r="C182" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2471875000000003E-2</v>
       </c>
       <c r="D182" s="267" t="s">
@@ -15340,7 +15358,7 @@
         <v>39.980699999999999</v>
       </c>
       <c r="C183" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2469843750000004E-2</v>
       </c>
       <c r="D183" s="267" t="s">
@@ -15371,7 +15389,7 @@
         <v>39.983899999999998</v>
       </c>
       <c r="C184" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2474843750000002E-2</v>
       </c>
       <c r="D184" s="267" t="s">
@@ -15402,7 +15420,7 @@
         <v>39.967799999999997</v>
       </c>
       <c r="C185" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2449687499999997E-2</v>
       </c>
       <c r="D185" s="267" t="s">
@@ -15433,7 +15451,7 @@
         <v>39.984000000000002</v>
       </c>
       <c r="C186" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2475000000000003E-2</v>
       </c>
       <c r="D186" s="267" t="s">
@@ -15464,7 +15482,7 @@
         <v>39.991700000000002</v>
       </c>
       <c r="C187" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2487031250000005E-2</v>
       </c>
       <c r="D187" s="267" t="s">
@@ -15495,7 +15513,7 @@
         <v>39.987299999999998</v>
       </c>
       <c r="C188" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2480156250000002E-2</v>
       </c>
       <c r="D188" s="267" t="s">
@@ -15526,7 +15544,7 @@
         <v>39.970100000000002</v>
       </c>
       <c r="C189" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2453281250000006E-2</v>
       </c>
       <c r="D189" s="267" t="s">
@@ -15557,7 +15575,7 @@
         <v>39.985599999999998</v>
       </c>
       <c r="C190" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2477499999999998E-2</v>
       </c>
       <c r="D190" s="267" t="s">
@@ -15588,7 +15606,7 @@
         <v>39.9559</v>
       </c>
       <c r="C191" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.243109375E-2</v>
       </c>
       <c r="D191" s="267" t="s">
@@ -15619,7 +15637,7 @@
         <v>39.976399999999998</v>
       </c>
       <c r="C192" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2463125000000001E-2</v>
       </c>
       <c r="D192" s="267" t="s">
@@ -15650,7 +15668,7 @@
         <v>39.989199999999997</v>
       </c>
       <c r="C193" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2483125E-2</v>
       </c>
       <c r="D193" s="267" t="s">
@@ -15681,7 +15699,7 @@
         <v>39.9831</v>
       </c>
       <c r="C194" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.247359375E-2</v>
       </c>
       <c r="D194" s="267" t="s">
@@ -15712,7 +15730,7 @@
         <v>39.966799999999999</v>
       </c>
       <c r="C195" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2448125E-2</v>
       </c>
       <c r="D195" s="267" t="s">
@@ -15743,7 +15761,7 @@
         <v>39.984099999999998</v>
       </c>
       <c r="C196" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2475156249999997E-2</v>
       </c>
       <c r="D196" s="267" t="s">
@@ -15774,7 +15792,7 @@
         <v>39.987099999999998</v>
       </c>
       <c r="C197" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.247984375E-2</v>
       </c>
       <c r="D197" s="267" t="s">
@@ -15805,7 +15823,7 @@
         <v>39.9709</v>
       </c>
       <c r="C198" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.245453125E-2</v>
       </c>
       <c r="D198" s="267" t="s">
@@ -15836,7 +15854,7 @@
         <v>39.965200000000003</v>
       </c>
       <c r="C199" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2445625000000005E-2</v>
       </c>
       <c r="D199" s="267" t="s">
@@ -15867,7 +15885,7 @@
         <v>39.984200000000001</v>
       </c>
       <c r="C200" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2475312500000005E-2</v>
       </c>
       <c r="D200" s="267" t="s">
@@ -15898,7 +15916,7 @@
         <v>39.990400000000001</v>
       </c>
       <c r="C201" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2485000000000006E-2</v>
       </c>
       <c r="D201" s="267" t="s">
@@ -15929,7 +15947,7 @@
         <v>39.974200000000003</v>
       </c>
       <c r="C202" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2459687500000007E-2</v>
       </c>
       <c r="D202" s="267" t="s">
@@ -15960,7 +15978,7 @@
         <v>39.965400000000002</v>
       </c>
       <c r="C203" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2445937500000007E-2</v>
       </c>
       <c r="D203" s="267" t="s">
@@ -15991,7 +16009,7 @@
         <v>39.962800000000001</v>
       </c>
       <c r="C204" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2441875000000008E-2</v>
       </c>
       <c r="D204" s="267" t="s">
@@ -16022,7 +16040,7 @@
         <v>39.968000000000004</v>
       </c>
       <c r="C205" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2450000000000006E-2</v>
       </c>
       <c r="D205" s="267" t="s">
@@ -16053,7 +16071,7 @@
         <v>40.000500000000002</v>
       </c>
       <c r="C206" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2500781250000012E-2</v>
       </c>
       <c r="D206" s="267" t="s">
@@ -16084,7 +16102,7 @@
         <v>39.977899999999998</v>
       </c>
       <c r="C207" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2465468750000003E-2</v>
       </c>
       <c r="D207" s="267" t="s">
@@ -16115,7 +16133,7 @@
         <v>39.996099999999998</v>
       </c>
       <c r="C208" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2493906250000002E-2</v>
       </c>
       <c r="D208" s="267" t="s">
@@ -16146,7 +16164,7 @@
         <v>39.997100000000003</v>
       </c>
       <c r="C209" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2495468750000005E-2</v>
       </c>
       <c r="D209" s="267" t="s">
@@ -16177,7 +16195,7 @@
         <v>39.979100000000003</v>
       </c>
       <c r="C210" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2467343750000008E-2</v>
       </c>
       <c r="D210" s="267" t="s">
@@ -16208,7 +16226,7 @@
         <v>39.980899999999998</v>
       </c>
       <c r="C211" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2470156249999999E-2</v>
       </c>
       <c r="D211" s="267" t="s">
@@ -16239,7 +16257,7 @@
         <v>39.999400000000001</v>
       </c>
       <c r="C212" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2499062500000008E-2</v>
       </c>
       <c r="D212" s="267" t="s">
@@ -16270,7 +16288,7 @@
         <v>39.982300000000002</v>
       </c>
       <c r="C213" s="266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2472343750000006E-2</v>
       </c>
       <c r="D213" s="267" t="s">
@@ -16301,7 +16319,7 @@
         <v>39.964300000000001</v>
       </c>
       <c r="C214" s="266">
-        <f t="shared" ref="C214:C236" si="6">B214*0.0015625</f>
+        <f t="shared" ref="C214:C236" si="8">B214*0.0015625</f>
         <v>6.2444218750000002E-2</v>
       </c>
       <c r="D214" s="267" t="s">
@@ -16332,7 +16350,7 @@
         <v>39.978400000000001</v>
       </c>
       <c r="C215" s="266">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.2466250000000001E-2</v>
       </c>
       <c r="D215" s="267" t="s">
@@ -16363,7 +16381,7 @@
         <v>39.996200000000002</v>
       </c>
       <c r="C216" s="266">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.2494062500000003E-2</v>
       </c>
       <c r="D216" s="267" t="s">
@@ -16394,7 +16412,7 @@
         <v>39.982799999999997</v>
       </c>
       <c r="C217" s="266">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.2473124999999997E-2</v>
       </c>
       <c r="D217" s="267" t="s">
@@ -16425,7 +16443,7 @@
         <v>39.961300000000001</v>
       </c>
       <c r="C218" s="266">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.2439531250000006E-2</v>
       </c>
       <c r="D218" s="267" t="s">
@@ -16456,7 +16474,7 @@
         <v>39.945099999999996</v>
       </c>
       <c r="C219" s="266">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.241421875E-2</v>
       </c>
       <c r="D219" s="267" t="s">
@@ -16487,7 +16505,7 @@
         <v>39.9602</v>
       </c>
       <c r="C220" s="266">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.2437812500000002E-2</v>
       </c>
       <c r="D220" s="267" t="s">
@@ -16518,7 +16536,7 @@
         <v>39.963900000000002</v>
       </c>
       <c r="C221" s="266">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.2443593750000005E-2</v>
       </c>
       <c r="D221" s="267" t="s">
@@ -16549,7 +16567,7 @@
         <v>39.668199999999999</v>
       </c>
       <c r="C222" s="266">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.1981562500000004E-2</v>
       </c>
       <c r="D222" s="267" t="s">
@@ -16580,7 +16598,7 @@
         <v>39.961799999999997</v>
       </c>
       <c r="C223" s="266">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.2440312499999998E-2</v>
       </c>
       <c r="D223" s="267" t="s">
@@ -16611,7 +16629,7 @@
         <v>39.966700000000003</v>
       </c>
       <c r="C224" s="266">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.2447968750000006E-2</v>
       </c>
       <c r="D224" s="267" t="s">
@@ -16642,7 +16660,7 @@
         <v>39.981699999999996</v>
       </c>
       <c r="C225" s="266">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.247140625E-2</v>
       </c>
       <c r="D225" s="267" t="s">
@@ -16673,7 +16691,7 @@
         <v>40.383899999999997</v>
       </c>
       <c r="C226" s="266">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.3099843749999995E-2</v>
       </c>
       <c r="D226" s="267" t="s">
@@ -16704,7 +16722,7 @@
         <v>39.737000000000002</v>
       </c>
       <c r="C227" s="266">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.2089062500000007E-2</v>
       </c>
       <c r="D227" s="267" t="s">
@@ -16735,7 +16753,7 @@
         <v>39.976500000000001</v>
       </c>
       <c r="C228" s="266">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.2463281250000002E-2</v>
       </c>
       <c r="D228" s="267" t="s">
@@ -16766,7 +16784,7 @@
         <v>39.9756</v>
       </c>
       <c r="C229" s="266">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.2461875E-2</v>
       </c>
       <c r="D229" s="267" t="s">
@@ -16797,7 +16815,7 @@
         <v>39.999299999999998</v>
       </c>
       <c r="C230" s="266">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.249890625E-2</v>
       </c>
       <c r="D230" s="267" t="s">
@@ -16828,7 +16846,7 @@
         <v>39.984499999999997</v>
       </c>
       <c r="C231" s="266">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.2475781250000001E-2</v>
       </c>
       <c r="D231" s="267" t="s">
@@ -16859,7 +16877,7 @@
         <v>39.961100000000002</v>
       </c>
       <c r="C232" s="266">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.2439218750000004E-2</v>
       </c>
       <c r="D232" s="267" t="s">
@@ -16890,7 +16908,7 @@
         <v>41.547499999999999</v>
       </c>
       <c r="C233" s="266">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.4917968749999999E-2</v>
       </c>
       <c r="D233" s="267" t="s">
@@ -16921,7 +16939,7 @@
         <v>43.018300000000004</v>
       </c>
       <c r="C234" s="266">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.7216093750000011E-2</v>
       </c>
       <c r="D234" s="267" t="s">
@@ -16952,7 +16970,7 @@
         <v>124.575</v>
       </c>
       <c r="C235" s="266">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.19464843750000002</v>
       </c>
       <c r="D235" s="267" t="s">
@@ -16983,7 +17001,7 @@
         <v>292.51900000000001</v>
       </c>
       <c r="C236" s="266">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.45706093750000004</v>
       </c>
       <c r="D236" s="267" t="s">
@@ -17654,16 +17672,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="364" t="s">
+      <c r="A1" s="367" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="365"/>
+      <c r="B1" s="368"/>
     </row>
     <row r="2" spans="1:40" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="366" t="s">
+      <c r="A2" s="369" t="s">
         <v>263</v>
       </c>
-      <c r="B2" s="367"/>
+      <c r="B2" s="370"/>
     </row>
     <row r="3" spans="1:40" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="X3" s="251" t="s">
@@ -17671,33 +17689,33 @@
       </c>
     </row>
     <row r="4" spans="1:40" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="371" t="s">
+      <c r="A4" s="374" t="s">
         <v>265</v>
       </c>
-      <c r="B4" s="372"/>
+      <c r="B4" s="375"/>
       <c r="C4" s="68"/>
-      <c r="D4" s="375" t="s">
+      <c r="D4" s="378" t="s">
         <v>266</v>
       </c>
-      <c r="E4" s="368" t="s">
+      <c r="E4" s="371" t="s">
         <v>267</v>
       </c>
-      <c r="F4" s="369"/>
-      <c r="G4" s="369"/>
-      <c r="H4" s="369"/>
-      <c r="I4" s="369"/>
-      <c r="J4" s="369"/>
-      <c r="K4" s="369"/>
-      <c r="L4" s="369"/>
-      <c r="M4" s="369"/>
-      <c r="N4" s="369"/>
-      <c r="O4" s="369"/>
-      <c r="P4" s="369"/>
-      <c r="Q4" s="369"/>
-      <c r="R4" s="369"/>
-      <c r="S4" s="369"/>
-      <c r="T4" s="369"/>
-      <c r="U4" s="370"/>
+      <c r="F4" s="372"/>
+      <c r="G4" s="372"/>
+      <c r="H4" s="372"/>
+      <c r="I4" s="372"/>
+      <c r="J4" s="372"/>
+      <c r="K4" s="372"/>
+      <c r="L4" s="372"/>
+      <c r="M4" s="372"/>
+      <c r="N4" s="372"/>
+      <c r="O4" s="372"/>
+      <c r="P4" s="372"/>
+      <c r="Q4" s="372"/>
+      <c r="R4" s="372"/>
+      <c r="S4" s="372"/>
+      <c r="T4" s="372"/>
+      <c r="U4" s="373"/>
       <c r="Y4" s="251">
         <f t="shared" ref="Y4:AN4" si="0">E5</f>
         <v>2018</v>
@@ -17764,12 +17782,12 @@
       </c>
     </row>
     <row r="5" spans="1:40" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="373"/>
-      <c r="B5" s="374"/>
+      <c r="A5" s="376"/>
+      <c r="B5" s="377"/>
       <c r="C5" s="69" t="s">
         <v>268</v>
       </c>
-      <c r="D5" s="376"/>
+      <c r="D5" s="379"/>
       <c r="E5" s="70">
         <f>'Step Analysis'!E5</f>
         <v>2018</v>
@@ -17907,10 +17925,10 @@
       </c>
     </row>
     <row r="6" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="343" t="s">
+      <c r="A6" s="346" t="s">
         <v>270</v>
       </c>
-      <c r="B6" s="344"/>
+      <c r="B6" s="347"/>
       <c r="C6" s="167">
         <v>10</v>
       </c>
@@ -18131,7 +18149,7 @@
       </c>
       <c r="B8" s="180">
         <f>MP_new!H5+MP_new!I5</f>
-        <v>3.3000422187499998</v>
+        <v>3.3649601874999999</v>
       </c>
       <c r="C8" s="173">
         <v>30</v>
@@ -18428,12 +18446,12 @@
       </c>
     </row>
     <row r="12" spans="1:40" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="358" t="s">
+      <c r="A12" s="361" t="s">
         <v>281</v>
       </c>
-      <c r="B12" s="359"/>
-      <c r="C12" s="359"/>
-      <c r="D12" s="360"/>
+      <c r="B12" s="362"/>
+      <c r="C12" s="362"/>
+      <c r="D12" s="363"/>
       <c r="E12" s="291">
         <f t="shared" ref="E12:T12" si="8">SUM(E6:E11)</f>
         <v>1500000</v>
@@ -18568,12 +18586,12 @@
       </c>
     </row>
     <row r="13" spans="1:40" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="358" t="s">
+      <c r="A13" s="361" t="s">
         <v>282</v>
       </c>
-      <c r="B13" s="359"/>
-      <c r="C13" s="359"/>
-      <c r="D13" s="360"/>
+      <c r="B13" s="362"/>
+      <c r="C13" s="362"/>
+      <c r="D13" s="363"/>
       <c r="E13" s="291"/>
       <c r="F13" s="291"/>
       <c r="G13" s="291"/>
@@ -18666,10 +18684,10 @@
       </c>
     </row>
     <row r="14" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="343" t="s">
+      <c r="A14" s="346" t="s">
         <v>283</v>
       </c>
-      <c r="B14" s="344"/>
+      <c r="B14" s="347"/>
       <c r="C14" s="169">
         <v>10</v>
       </c>
@@ -18890,7 +18908,7 @@
       </c>
       <c r="B16" s="180">
         <f>MP_new!H6+MP_new!I6</f>
-        <v>2.5751196875</v>
+        <v>4.2617771874999999</v>
       </c>
       <c r="C16" s="173">
         <v>30</v>
@@ -19184,12 +19202,12 @@
       </c>
     </row>
     <row r="20" spans="1:40" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="358" t="s">
+      <c r="A20" s="361" t="s">
         <v>286</v>
       </c>
-      <c r="B20" s="359"/>
-      <c r="C20" s="359"/>
-      <c r="D20" s="360"/>
+      <c r="B20" s="362"/>
+      <c r="C20" s="362"/>
+      <c r="D20" s="363"/>
       <c r="E20" s="291">
         <f t="shared" ref="E20:T20" si="15">SUM(E14:E19)</f>
         <v>0</v>
@@ -19260,12 +19278,12 @@
       </c>
     </row>
     <row r="21" spans="1:40" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="358" t="s">
+      <c r="A21" s="361" t="s">
         <v>287</v>
       </c>
-      <c r="B21" s="359"/>
-      <c r="C21" s="359"/>
-      <c r="D21" s="360"/>
+      <c r="B21" s="362"/>
+      <c r="C21" s="362"/>
+      <c r="D21" s="363"/>
       <c r="E21" s="291"/>
       <c r="F21" s="291"/>
       <c r="G21" s="291"/>
@@ -19291,10 +19309,10 @@
       </c>
     </row>
     <row r="22" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="343" t="s">
+      <c r="A22" s="346" t="s">
         <v>288</v>
       </c>
-      <c r="B22" s="344"/>
+      <c r="B22" s="347"/>
       <c r="C22" s="167">
         <v>10</v>
       </c>
@@ -19381,7 +19399,7 @@
       </c>
       <c r="B24" s="180">
         <f>MP_new!H7+MP_new!I7</f>
-        <v>4.3976760937500003</v>
+        <v>5.0847581249999996</v>
       </c>
       <c r="C24" s="173">
         <v>30</v>
@@ -19541,12 +19559,12 @@
       </c>
     </row>
     <row r="28" spans="1:40" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="358" t="s">
+      <c r="A28" s="361" t="s">
         <v>289</v>
       </c>
-      <c r="B28" s="359"/>
-      <c r="C28" s="359"/>
-      <c r="D28" s="360"/>
+      <c r="B28" s="362"/>
+      <c r="C28" s="362"/>
+      <c r="D28" s="363"/>
       <c r="E28" s="291">
         <f t="shared" ref="E28:T28" si="16">SUM(E22:E27)</f>
         <v>0</v>
@@ -19617,12 +19635,12 @@
       </c>
     </row>
     <row r="29" spans="1:40" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="358" t="s">
+      <c r="A29" s="361" t="s">
         <v>290</v>
       </c>
-      <c r="B29" s="359"/>
-      <c r="C29" s="359"/>
-      <c r="D29" s="360"/>
+      <c r="B29" s="362"/>
+      <c r="C29" s="362"/>
+      <c r="D29" s="363"/>
       <c r="E29" s="291"/>
       <c r="F29" s="291"/>
       <c r="G29" s="291"/>
@@ -19648,10 +19666,10 @@
       </c>
     </row>
     <row r="30" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="343" t="s">
+      <c r="A30" s="346" t="s">
         <v>291</v>
       </c>
-      <c r="B30" s="344"/>
+      <c r="B30" s="347"/>
       <c r="C30" s="167">
         <v>10</v>
       </c>
@@ -19898,12 +19916,12 @@
       </c>
     </row>
     <row r="36" spans="1:22" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="358" t="s">
+      <c r="A36" s="361" t="s">
         <v>292</v>
       </c>
-      <c r="B36" s="359"/>
-      <c r="C36" s="359"/>
-      <c r="D36" s="360"/>
+      <c r="B36" s="362"/>
+      <c r="C36" s="362"/>
+      <c r="D36" s="363"/>
       <c r="E36" s="291">
         <f t="shared" ref="E36:T36" si="17">SUM(E30:E35)</f>
         <v>0</v>
@@ -19974,12 +19992,12 @@
       </c>
     </row>
     <row r="37" spans="1:22" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="358" t="s">
+      <c r="A37" s="361" t="s">
         <v>293</v>
       </c>
-      <c r="B37" s="359"/>
-      <c r="C37" s="359"/>
-      <c r="D37" s="360"/>
+      <c r="B37" s="362"/>
+      <c r="C37" s="362"/>
+      <c r="D37" s="363"/>
       <c r="E37" s="291"/>
       <c r="F37" s="291"/>
       <c r="G37" s="291"/>
@@ -20005,10 +20023,10 @@
       </c>
     </row>
     <row r="38" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="343" t="s">
+      <c r="A38" s="346" t="s">
         <v>294</v>
       </c>
-      <c r="B38" s="344"/>
+      <c r="B38" s="347"/>
       <c r="C38" s="167">
         <v>10</v>
       </c>
@@ -20255,12 +20273,12 @@
       </c>
     </row>
     <row r="44" spans="1:22" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="358" t="s">
+      <c r="A44" s="361" t="s">
         <v>295</v>
       </c>
-      <c r="B44" s="359"/>
-      <c r="C44" s="359"/>
-      <c r="D44" s="360"/>
+      <c r="B44" s="362"/>
+      <c r="C44" s="362"/>
+      <c r="D44" s="363"/>
       <c r="E44" s="291">
         <f t="shared" ref="E44:T44" si="18">SUM(E38:E43)</f>
         <v>0</v>
@@ -20331,12 +20349,12 @@
       </c>
     </row>
     <row r="45" spans="1:22" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="358" t="s">
+      <c r="A45" s="361" t="s">
         <v>296</v>
       </c>
-      <c r="B45" s="359"/>
-      <c r="C45" s="359"/>
-      <c r="D45" s="360"/>
+      <c r="B45" s="362"/>
+      <c r="C45" s="362"/>
+      <c r="D45" s="363"/>
       <c r="E45" s="291"/>
       <c r="F45" s="291"/>
       <c r="G45" s="291"/>
@@ -20362,11 +20380,11 @@
       </c>
     </row>
     <row r="46" spans="1:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="345" t="s">
+      <c r="A46" s="348" t="s">
         <v>297</v>
       </c>
-      <c r="B46" s="346"/>
-      <c r="C46" s="347"/>
+      <c r="B46" s="349"/>
+      <c r="C46" s="350"/>
       <c r="D46" s="177"/>
       <c r="E46" s="299">
         <f t="shared" ref="E46:U46" si="19">SUM(E6:E11,E14:E19,E22:E27,E30:E35,E38:E43)</f>
@@ -20439,12 +20457,12 @@
       <c r="V46" s="252"/>
     </row>
     <row r="47" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="353" t="s">
+      <c r="A47" s="356" t="s">
         <v>298</v>
       </c>
-      <c r="B47" s="354"/>
-      <c r="C47" s="354"/>
-      <c r="D47" s="355"/>
+      <c r="B47" s="357"/>
+      <c r="C47" s="357"/>
+      <c r="D47" s="358"/>
       <c r="E47" s="300">
         <f>E46</f>
         <v>1500000</v>
@@ -20515,7 +20533,7 @@
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="178"/>
       <c r="B48" s="178"/>
-      <c r="C48" s="356" t="s">
+      <c r="C48" s="359" t="s">
         <v>299</v>
       </c>
       <c r="D48" s="179">
@@ -20590,7 +20608,7 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="178"/>
-      <c r="C49" s="357"/>
+      <c r="C49" s="360"/>
       <c r="D49" s="254">
         <v>37</v>
       </c>
@@ -20661,7 +20679,7 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="178"/>
-      <c r="C50" s="357"/>
+      <c r="C50" s="360"/>
       <c r="D50" s="254">
         <v>30</v>
       </c>
@@ -20732,7 +20750,7 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="178"/>
-      <c r="C51" s="357"/>
+      <c r="C51" s="360"/>
       <c r="D51" s="254">
         <v>41</v>
       </c>
@@ -20802,38 +20820,38 @@
       </c>
     </row>
     <row r="52" spans="1:24" ht="22.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="348" t="s">
+      <c r="A52" s="351" t="s">
         <v>300</v>
       </c>
-      <c r="B52" s="349"/>
-      <c r="C52" s="349"/>
-      <c r="D52" s="349"/>
-      <c r="E52" s="349"/>
-      <c r="F52" s="349"/>
-      <c r="G52" s="349"/>
-      <c r="H52" s="349"/>
-      <c r="I52" s="349"/>
-      <c r="J52" s="349"/>
-      <c r="K52" s="349"/>
-      <c r="L52" s="349"/>
-      <c r="M52" s="349"/>
-      <c r="N52" s="349"/>
-      <c r="O52" s="349"/>
-      <c r="P52" s="349"/>
-      <c r="Q52" s="349"/>
-      <c r="R52" s="349"/>
-      <c r="S52" s="349"/>
-      <c r="T52" s="349"/>
-      <c r="U52" s="349"/>
-      <c r="V52" s="349"/>
-      <c r="W52" s="350"/>
+      <c r="B52" s="352"/>
+      <c r="C52" s="352"/>
+      <c r="D52" s="352"/>
+      <c r="E52" s="352"/>
+      <c r="F52" s="352"/>
+      <c r="G52" s="352"/>
+      <c r="H52" s="352"/>
+      <c r="I52" s="352"/>
+      <c r="J52" s="352"/>
+      <c r="K52" s="352"/>
+      <c r="L52" s="352"/>
+      <c r="M52" s="352"/>
+      <c r="N52" s="352"/>
+      <c r="O52" s="352"/>
+      <c r="P52" s="352"/>
+      <c r="Q52" s="352"/>
+      <c r="R52" s="352"/>
+      <c r="S52" s="352"/>
+      <c r="T52" s="352"/>
+      <c r="U52" s="352"/>
+      <c r="V52" s="352"/>
+      <c r="W52" s="353"/>
       <c r="X52" s="252"/>
     </row>
     <row r="53" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="351" t="s">
+      <c r="A53" s="354" t="s">
         <v>301</v>
       </c>
-      <c r="B53" s="352"/>
+      <c r="B53" s="355"/>
       <c r="C53" s="77">
         <v>10</v>
       </c>
@@ -21010,10 +21028,10 @@
       <c r="X57" s="252"/>
     </row>
     <row r="58" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="341" t="s">
+      <c r="A58" s="344" t="s">
         <v>303</v>
       </c>
-      <c r="B58" s="342"/>
+      <c r="B58" s="345"/>
       <c r="C58" s="77">
         <v>10</v>
       </c>
@@ -21195,10 +21213,10 @@
       <c r="X62" s="252"/>
     </row>
     <row r="63" spans="1:24" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="341" t="s">
+      <c r="A63" s="344" t="s">
         <v>304</v>
       </c>
-      <c r="B63" s="342"/>
+      <c r="B63" s="345"/>
       <c r="C63" s="77">
         <v>10</v>
       </c>
@@ -21388,10 +21406,10 @@
       <c r="X67" s="252"/>
     </row>
     <row r="68" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="341" t="s">
+      <c r="A68" s="344" t="s">
         <v>305</v>
       </c>
-      <c r="B68" s="342"/>
+      <c r="B68" s="345"/>
       <c r="C68" s="77">
         <v>10</v>
       </c>
@@ -21569,10 +21587,10 @@
       <c r="X72" s="252"/>
     </row>
     <row r="73" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="341" t="s">
+      <c r="A73" s="344" t="s">
         <v>306</v>
       </c>
-      <c r="B73" s="342"/>
+      <c r="B73" s="345"/>
       <c r="C73" s="77">
         <v>10</v>
       </c>
@@ -21798,10 +21816,10 @@
       <c r="X77" s="252"/>
     </row>
     <row r="78" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="341" t="s">
+      <c r="A78" s="344" t="s">
         <v>308</v>
       </c>
-      <c r="B78" s="342"/>
+      <c r="B78" s="345"/>
       <c r="C78" s="77">
         <v>10</v>
       </c>
@@ -21973,10 +21991,10 @@
       <c r="X82" s="252"/>
     </row>
     <row r="83" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="341" t="s">
+      <c r="A83" s="344" t="s">
         <v>310</v>
       </c>
-      <c r="B83" s="342"/>
+      <c r="B83" s="345"/>
       <c r="C83" s="77">
         <v>10</v>
       </c>
@@ -22148,10 +22166,10 @@
       <c r="X87" s="252"/>
     </row>
     <row r="88" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="341" t="s">
+      <c r="A88" s="344" t="s">
         <v>80</v>
       </c>
-      <c r="B88" s="342"/>
+      <c r="B88" s="345"/>
       <c r="C88" s="77">
         <v>10</v>
       </c>
@@ -22323,10 +22341,10 @@
       <c r="X92" s="252"/>
     </row>
     <row r="93" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="341" t="s">
+      <c r="A93" s="344" t="s">
         <v>313</v>
       </c>
-      <c r="B93" s="342"/>
+      <c r="B93" s="345"/>
       <c r="C93" s="77">
         <v>10</v>
       </c>
@@ -22528,10 +22546,10 @@
       <c r="X97" s="252"/>
     </row>
     <row r="98" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="341" t="s">
+      <c r="A98" s="344" t="s">
         <v>315</v>
       </c>
-      <c r="B98" s="342"/>
+      <c r="B98" s="345"/>
       <c r="C98" s="77">
         <v>10</v>
       </c>
@@ -22723,10 +22741,10 @@
       <c r="X102" s="252"/>
     </row>
     <row r="103" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="341" t="s">
+      <c r="A103" s="344" t="s">
         <v>317</v>
       </c>
-      <c r="B103" s="342"/>
+      <c r="B103" s="345"/>
       <c r="C103" s="77">
         <v>10</v>
       </c>
@@ -22928,10 +22946,10 @@
       <c r="X107" s="252"/>
     </row>
     <row r="108" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="341" t="s">
+      <c r="A108" s="344" t="s">
         <v>318</v>
       </c>
-      <c r="B108" s="342"/>
+      <c r="B108" s="345"/>
       <c r="C108" s="77">
         <v>10</v>
       </c>
@@ -23133,10 +23151,10 @@
       <c r="X112" s="252"/>
     </row>
     <row r="113" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="341" t="s">
+      <c r="A113" s="344" t="s">
         <v>319</v>
       </c>
-      <c r="B113" s="342"/>
+      <c r="B113" s="345"/>
       <c r="C113" s="77">
         <v>10</v>
       </c>
@@ -23298,10 +23316,10 @@
       <c r="X117" s="252"/>
     </row>
     <row r="118" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="341" t="s">
+      <c r="A118" s="344" t="s">
         <v>320</v>
       </c>
-      <c r="B118" s="342"/>
+      <c r="B118" s="345"/>
       <c r="C118" s="77">
         <v>10</v>
       </c>
@@ -23503,10 +23521,10 @@
       <c r="X122" s="252"/>
     </row>
     <row r="123" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="341" t="s">
+      <c r="A123" s="344" t="s">
         <v>321</v>
       </c>
-      <c r="B123" s="342"/>
+      <c r="B123" s="345"/>
       <c r="C123" s="77">
         <v>10</v>
       </c>
@@ -23708,10 +23726,10 @@
       <c r="X127" s="252"/>
     </row>
     <row r="128" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="341" t="s">
+      <c r="A128" s="344" t="s">
         <v>322</v>
       </c>
-      <c r="B128" s="342"/>
+      <c r="B128" s="345"/>
       <c r="C128" s="77">
         <v>10</v>
       </c>
@@ -23913,10 +23931,10 @@
       <c r="X132" s="252"/>
     </row>
     <row r="133" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="341" t="s">
+      <c r="A133" s="344" t="s">
         <v>323</v>
       </c>
-      <c r="B133" s="342"/>
+      <c r="B133" s="345"/>
       <c r="C133" s="77">
         <v>10</v>
       </c>
@@ -24118,10 +24136,10 @@
       <c r="X137" s="252"/>
     </row>
     <row r="138" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="341" t="s">
+      <c r="A138" s="344" t="s">
         <v>324</v>
       </c>
-      <c r="B138" s="342"/>
+      <c r="B138" s="345"/>
       <c r="C138" s="81">
         <v>10</v>
       </c>
@@ -24331,10 +24349,10 @@
       <c r="X142" s="252"/>
     </row>
     <row r="143" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="341" t="s">
+      <c r="A143" s="344" t="s">
         <v>328</v>
       </c>
-      <c r="B143" s="342"/>
+      <c r="B143" s="345"/>
       <c r="C143" s="81">
         <v>10</v>
       </c>
@@ -24427,10 +24445,10 @@
       <c r="X144" s="252"/>
     </row>
     <row r="145" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="351" t="s">
+      <c r="A145" s="354" t="s">
         <v>330</v>
       </c>
-      <c r="B145" s="352"/>
+      <c r="B145" s="355"/>
       <c r="C145" s="77">
         <v>10</v>
       </c>
@@ -24503,10 +24521,10 @@
       <c r="X146" s="252"/>
     </row>
     <row r="147" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="351" t="s">
+      <c r="A147" s="354" t="s">
         <v>331</v>
       </c>
-      <c r="B147" s="352"/>
+      <c r="B147" s="355"/>
       <c r="C147" s="77">
         <v>10</v>
       </c>
@@ -24604,10 +24622,10 @@
       <c r="X148" s="252"/>
     </row>
     <row r="149" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="351" t="s">
+      <c r="A149" s="354" t="s">
         <v>332</v>
       </c>
-      <c r="B149" s="352"/>
+      <c r="B149" s="355"/>
       <c r="C149" s="77">
         <v>10</v>
       </c>
@@ -24729,12 +24747,12 @@
       <c r="X151" s="252"/>
     </row>
     <row r="152" spans="1:24" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="361" t="s">
+      <c r="A152" s="364" t="s">
         <v>333</v>
       </c>
-      <c r="B152" s="362"/>
-      <c r="C152" s="362"/>
-      <c r="D152" s="363"/>
+      <c r="B152" s="365"/>
+      <c r="C152" s="365"/>
+      <c r="D152" s="366"/>
       <c r="E152" s="323">
         <f t="shared" ref="E152:T152" si="25">SUM(E53:E151)</f>
         <v>5075324</v>
@@ -25425,10 +25443,10 @@
       <c r="E1" s="109"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="377" t="s">
+      <c r="A3" s="380" t="s">
         <v>334</v>
       </c>
-      <c r="B3" s="378"/>
+      <c r="B3" s="381"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="147" t="s">
@@ -25453,10 +25471,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="377" t="s">
+      <c r="A7" s="380" t="s">
         <v>338</v>
       </c>
-      <c r="B7" s="378"/>
+      <c r="B7" s="381"/>
       <c r="C7" s="116" t="s">
         <v>339</v>
       </c>
@@ -25561,10 +25579,10 @@
       <c r="C21" s="124"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="379" t="s">
+      <c r="A23" s="382" t="s">
         <v>346</v>
       </c>
-      <c r="B23" s="378"/>
+      <c r="B23" s="381"/>
       <c r="C23" t="s">
         <v>347</v>
       </c>
@@ -25630,108 +25648,172 @@
   </sheetPr>
   <dimension ref="A1:AK190"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" style="248" customWidth="1"/>
     <col min="2" max="14" width="13.28515625" style="248" customWidth="1"/>
     <col min="16" max="16" width="24.42578125" style="248" customWidth="1"/>
+    <col min="21" max="21" width="40.7109375" customWidth="1"/>
+    <col min="22" max="22" width="63.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="161" t="s">
         <v>357</v>
       </c>
+      <c r="G1" s="248" t="s">
+        <v>685</v>
+      </c>
       <c r="AK1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>359</v>
+      </c>
+      <c r="U2" s="162" t="s">
+        <v>684</v>
       </c>
       <c r="AK2" t="str">
         <f>'Generic HV &amp; WD'!A4</f>
         <v>SFP</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>360</v>
+      </c>
+      <c r="U3" s="342" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="343" t="s">
+        <v>463</v>
       </c>
       <c r="AK3" t="str">
         <f>'Generic HV &amp; WD'!A5</f>
         <v>Veg 08</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>361</v>
+      </c>
+      <c r="U4" s="342" t="s">
+        <v>198</v>
+      </c>
+      <c r="V4" s="343" t="s">
+        <v>466</v>
       </c>
       <c r="AK4" t="str">
         <f>'Generic HV &amp; WD'!A6</f>
         <v>Veg 11</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>362</v>
+      </c>
+      <c r="U5" s="342" t="s">
+        <v>105</v>
+      </c>
+      <c r="V5" s="343" t="s">
+        <v>469</v>
       </c>
       <c r="AK5" t="str">
         <f>'Generic HV &amp; WD'!A7</f>
         <v>ENV</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>363</v>
+      </c>
+      <c r="U6" s="342" t="s">
+        <v>31</v>
+      </c>
+      <c r="V6" s="343" t="s">
+        <v>471</v>
       </c>
       <c r="AK6" t="str">
         <f>'Generic HV &amp; WD'!A8</f>
         <v>SFL</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>364</v>
+      </c>
+      <c r="U7" s="342" t="s">
+        <v>48</v>
+      </c>
+      <c r="V7" s="343" t="s">
+        <v>464</v>
       </c>
       <c r="AK7" t="str">
         <f>'Generic HV &amp; WD'!A9</f>
         <v>DWM_Jan</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>365</v>
+      </c>
+      <c r="U8" s="342" t="s">
+        <v>42</v>
+      </c>
+      <c r="V8" s="343" t="s">
+        <v>476</v>
       </c>
       <c r="AK8" t="str">
         <f>'Generic HV &amp; WD'!A10</f>
         <v>DWM_Oct</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>366</v>
+      </c>
+      <c r="U9" s="342" t="s">
+        <v>100</v>
+      </c>
+      <c r="V9" s="343" t="s">
+        <v>478</v>
       </c>
       <c r="AK9" t="str">
         <f>'Generic HV &amp; WD'!A11</f>
         <v>DWM_Dec</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U10" s="342" t="s">
+        <v>41</v>
+      </c>
+      <c r="V10" s="343" t="s">
+        <v>481</v>
+      </c>
       <c r="AK10" t="str">
         <f>'Generic HV &amp; WD'!A12</f>
         <v>BWF</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U11" s="342" t="s">
+        <v>1</v>
+      </c>
+      <c r="V11" s="343" t="s">
+        <v>482</v>
+      </c>
       <c r="AK11" t="str">
         <f>'Generic HV &amp; WD'!A13</f>
         <v>MWF</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="162" t="s">
         <v>367</v>
       </c>
@@ -25740,13 +25822,19 @@
       </c>
       <c r="P12" s="162" t="s">
         <v>369</v>
+      </c>
+      <c r="U12" s="342" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="343" t="s">
+        <v>483</v>
       </c>
       <c r="AK12" t="str">
         <f>'Generic HV &amp; WD'!A14</f>
         <v>SNPL_realistic</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -25779,12 +25867,18 @@
       <c r="Q13" t="s">
         <v>371</v>
       </c>
+      <c r="U13" s="342" t="s">
+        <v>484</v>
+      </c>
+      <c r="V13" s="343" t="s">
+        <v>485</v>
+      </c>
       <c r="AK13" t="str">
         <f>'Generic HV &amp; WD'!A15</f>
         <v>SNPL_with gravel</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -25811,8 +25905,14 @@
       <c r="L14" s="240"/>
       <c r="M14" s="240"/>
       <c r="N14" s="240"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="U14" s="342" t="s">
+        <v>486</v>
+      </c>
+      <c r="V14" s="343" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -25839,8 +25939,14 @@
       <c r="L15" s="240"/>
       <c r="M15" s="240"/>
       <c r="N15" s="240"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="U15" s="342" t="s">
+        <v>4</v>
+      </c>
+      <c r="V15" s="343" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="240" t="s">
         <v>45</v>
       </c>
@@ -25875,12 +25981,18 @@
       <c r="Q16" t="s">
         <v>373</v>
       </c>
+      <c r="U16" s="342" t="s">
+        <v>5</v>
+      </c>
+      <c r="V16" s="343" t="s">
+        <v>5</v>
+      </c>
       <c r="AK16" t="str">
         <f>'Generic HV &amp; WD'!A16</f>
         <v>MSB</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="240" t="s">
         <v>46</v>
       </c>
@@ -25907,12 +26019,18 @@
       <c r="Q17" t="s">
         <v>375</v>
       </c>
+      <c r="U17" s="342" t="s">
+        <v>55</v>
+      </c>
+      <c r="V17" s="343" t="s">
+        <v>489</v>
+      </c>
       <c r="AK17" t="str">
         <f>'Generic HV &amp; WD'!A17</f>
         <v>Meadow</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="240" t="s">
         <v>47</v>
       </c>
@@ -25933,12 +26051,18 @@
       <c r="L18" s="240"/>
       <c r="M18" s="240"/>
       <c r="N18" s="240"/>
+      <c r="U18" s="342" t="s">
+        <v>490</v>
+      </c>
+      <c r="V18" s="343" t="s">
+        <v>491</v>
+      </c>
       <c r="AK18" t="str">
         <f>'Generic HV &amp; WD'!A18</f>
         <v>MWF and MSB</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="240" t="s">
         <v>50</v>
       </c>
@@ -25965,12 +26089,18 @@
       <c r="Q19" t="s">
         <v>375</v>
       </c>
+      <c r="U19" s="342" t="s">
+        <v>492</v>
+      </c>
+      <c r="V19" s="343" t="s">
+        <v>493</v>
+      </c>
       <c r="AK19" t="str">
         <f>'Generic HV &amp; WD'!A19</f>
         <v>MSB and SNPL</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="240" t="s">
         <v>51</v>
       </c>
@@ -25997,12 +26127,18 @@
       <c r="Q20" t="s">
         <v>375</v>
       </c>
+      <c r="U20" s="342" t="s">
+        <v>494</v>
+      </c>
+      <c r="V20" s="343" t="s">
+        <v>495</v>
+      </c>
       <c r="AK20" t="str">
         <f>'Generic HV &amp; WD'!A20</f>
         <v>MSB and SNPL_gravel</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="240" t="s">
         <v>53</v>
       </c>
@@ -26029,12 +26165,18 @@
       <c r="Q21" t="s">
         <v>375</v>
       </c>
+      <c r="U21" s="342" t="s">
+        <v>496</v>
+      </c>
+      <c r="V21" s="343" t="s">
+        <v>497</v>
+      </c>
       <c r="AK21" t="str">
         <f>'Generic HV &amp; WD'!A21</f>
         <v>MSB and SNPL_gravel_MWF</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -26050,6 +26192,8 @@
       <c r="E22" s="240" t="s">
         <v>52</v>
       </c>
+      <c r="F22" s="240"/>
+      <c r="G22" s="240"/>
       <c r="H22" s="240"/>
       <c r="I22" s="240"/>
       <c r="J22" s="240"/>
@@ -26063,12 +26207,18 @@
       <c r="Q22" t="s">
         <v>379</v>
       </c>
+      <c r="U22" s="342" t="s">
+        <v>498</v>
+      </c>
+      <c r="V22" s="343" t="s">
+        <v>499</v>
+      </c>
       <c r="AK22" t="str">
         <f>'Generic HV &amp; WD'!A22</f>
         <v>MWF and SNPL</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -26084,6 +26234,8 @@
       <c r="E23" s="240" t="s">
         <v>52</v>
       </c>
+      <c r="F23" s="240"/>
+      <c r="G23" s="240"/>
       <c r="H23" s="240"/>
       <c r="I23" s="240"/>
       <c r="J23" s="240"/>
@@ -26091,8 +26243,14 @@
       <c r="L23" s="240"/>
       <c r="M23" s="240"/>
       <c r="N23" s="240"/>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="U23" s="342" t="s">
+        <v>500</v>
+      </c>
+      <c r="V23" s="343" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -26108,6 +26266,8 @@
       <c r="E24" s="240" t="s">
         <v>52</v>
       </c>
+      <c r="F24" s="240"/>
+      <c r="G24" s="240"/>
       <c r="H24" s="240"/>
       <c r="I24" s="240"/>
       <c r="J24" s="240"/>
@@ -26115,8 +26275,14 @@
       <c r="L24" s="240"/>
       <c r="M24" s="240"/>
       <c r="N24" s="240"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="U24" s="342" t="s">
+        <v>79</v>
+      </c>
+      <c r="V24" s="343" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -26132,6 +26298,8 @@
       <c r="E25" s="240" t="s">
         <v>52</v>
       </c>
+      <c r="F25" s="240"/>
+      <c r="G25" s="240"/>
       <c r="H25" s="240"/>
       <c r="I25" s="240"/>
       <c r="J25" s="240"/>
@@ -26139,8 +26307,14 @@
       <c r="L25" s="240"/>
       <c r="M25" s="240"/>
       <c r="N25" s="240"/>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="U25" s="342" t="s">
+        <v>502</v>
+      </c>
+      <c r="V25" s="343" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -26156,6 +26330,8 @@
       <c r="E26" s="240" t="s">
         <v>52</v>
       </c>
+      <c r="F26" s="240"/>
+      <c r="G26" s="240"/>
       <c r="H26" s="240"/>
       <c r="I26" s="240"/>
       <c r="J26" s="240"/>
@@ -26163,8 +26339,14 @@
       <c r="L26" s="240"/>
       <c r="M26" s="240"/>
       <c r="N26" s="240"/>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="U26" s="342" t="s">
+        <v>97</v>
+      </c>
+      <c r="V26" s="343" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -26191,12 +26373,18 @@
       <c r="Q27" t="s">
         <v>381</v>
       </c>
+      <c r="U27" s="342" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="343" t="s">
+        <v>34</v>
+      </c>
       <c r="AK27" t="str">
         <f>'Generic HV &amp; WD'!A23</f>
         <v>MWF and SNPL_with gravel</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -26223,12 +26411,18 @@
       <c r="Q28" t="s">
         <v>381</v>
       </c>
+      <c r="U28" s="342" t="s">
+        <v>57</v>
+      </c>
+      <c r="V28" s="343" t="s">
+        <v>57</v>
+      </c>
       <c r="AK28" t="str">
         <f>'Generic HV &amp; WD'!A24</f>
         <v>DWM_Dust Control</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -26255,12 +26449,18 @@
       <c r="Q29" t="s">
         <v>375</v>
       </c>
+      <c r="U29" s="342" t="s">
+        <v>354</v>
+      </c>
+      <c r="V29" s="343" t="s">
+        <v>354</v>
+      </c>
       <c r="AK29" t="str">
         <f>'Generic HV &amp; WD'!A25</f>
         <v>DWM_Plovers</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -26281,8 +26481,14 @@
       <c r="L30" s="240"/>
       <c r="M30" s="240"/>
       <c r="N30" s="240"/>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="U30" s="342" t="s">
+        <v>87</v>
+      </c>
+      <c r="V30" s="343" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -26303,8 +26509,14 @@
       <c r="L31" s="240"/>
       <c r="M31" s="240"/>
       <c r="N31" s="240"/>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="U31" s="342" t="s">
+        <v>52</v>
+      </c>
+      <c r="V31" s="343" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -26325,8 +26537,14 @@
       <c r="L32" s="240"/>
       <c r="M32" s="240"/>
       <c r="N32" s="240"/>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="U32" s="342" t="s">
+        <v>157</v>
+      </c>
+      <c r="V32" s="343" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -26348,7 +26566,7 @@
       <c r="M33" s="240"/>
       <c r="N33" s="240"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -26370,7 +26588,7 @@
       <c r="M34" s="240"/>
       <c r="N34" s="240"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -26392,7 +26610,7 @@
       <c r="M35" s="240"/>
       <c r="N35" s="240"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -26414,7 +26632,7 @@
       <c r="M36" s="240"/>
       <c r="N36" s="240"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -26436,7 +26654,7 @@
       <c r="M37" s="240"/>
       <c r="N37" s="240"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="240" t="s">
         <v>78</v>
       </c>
@@ -26476,7 +26694,7 @@
         <v>DWM_Spring_only</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="240" t="s">
         <v>80</v>
       </c>
@@ -26510,7 +26728,7 @@
         <v>SFLS</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -26544,7 +26762,7 @@
         <v>Gravel</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -26568,7 +26786,7 @@
       <c r="M41" s="240"/>
       <c r="N41" s="240"/>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="240" t="s">
         <v>96</v>
       </c>
@@ -26600,7 +26818,7 @@
         <v>Tillage</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="240" t="s">
         <v>113</v>
       </c>
@@ -26634,7 +26852,7 @@
         <v>Till-Brine</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>114</v>
       </c>
@@ -26666,7 +26884,7 @@
         <v>Sand Fences</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>115</v>
       </c>
@@ -26688,7 +26906,7 @@
       <c r="M45" s="240"/>
       <c r="N45" s="240"/>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>116</v>
       </c>
@@ -26710,7 +26928,7 @@
       <c r="M46" s="240"/>
       <c r="N46" s="240"/>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>117</v>
       </c>
@@ -26732,7 +26950,7 @@
       <c r="M47" s="240"/>
       <c r="N47" s="240"/>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>118</v>
       </c>
@@ -26754,7 +26972,7 @@
       <c r="M48" s="240"/>
       <c r="N48" s="240"/>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>119</v>
       </c>
@@ -26786,7 +27004,7 @@
         <v>Brine</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="240" t="s">
         <v>120</v>
       </c>
@@ -26812,7 +27030,7 @@
         <v>Breeding Waterfowl &amp; Meadow</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="240" t="s">
         <v>121</v>
       </c>
@@ -26838,7 +27056,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>124</v>
       </c>
@@ -26866,7 +27084,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>125</v>
       </c>
@@ -26888,7 +27106,7 @@
       <c r="M53" s="240"/>
       <c r="N53" s="240"/>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>126</v>
       </c>
@@ -26910,7 +27128,7 @@
       <c r="M54" s="240"/>
       <c r="N54" s="240"/>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="240" t="s">
         <v>128</v>
       </c>
@@ -26940,7 +27158,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="240" t="s">
         <v>129</v>
       </c>
@@ -26968,7 +27186,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="240" t="s">
         <v>130</v>
       </c>
@@ -26996,7 +27214,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="240" t="s">
         <v>131</v>
       </c>
@@ -27018,7 +27236,7 @@
       <c r="M58" s="240"/>
       <c r="N58" s="240"/>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>132</v>
       </c>
@@ -27044,7 +27262,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>133</v>
       </c>
@@ -27064,7 +27282,7 @@
       <c r="M60" s="240"/>
       <c r="N60" s="240"/>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="240" t="s">
         <v>134</v>
       </c>
@@ -27100,7 +27318,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="240" t="s">
         <v>135</v>
       </c>
@@ -27128,7 +27346,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="240" t="s">
         <v>136</v>
       </c>
@@ -27150,7 +27368,7 @@
       <c r="M63" s="240"/>
       <c r="N63" s="240"/>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>137</v>
       </c>
@@ -27176,7 +27394,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>138</v>
       </c>
@@ -27196,7 +27414,7 @@
       <c r="M65" s="240"/>
       <c r="N65" s="240"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>139</v>
       </c>
@@ -27216,7 +27434,7 @@
       <c r="M66" s="240"/>
       <c r="N66" s="240"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>140</v>
       </c>
@@ -27236,7 +27454,7 @@
       <c r="M67" s="240"/>
       <c r="N67" s="240"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>141</v>
       </c>
@@ -27256,7 +27474,7 @@
       <c r="M68" s="240"/>
       <c r="N68" s="240"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>142</v>
       </c>
@@ -27276,7 +27494,7 @@
       <c r="M69" s="240"/>
       <c r="N69" s="240"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>143</v>
       </c>
@@ -27296,7 +27514,7 @@
       <c r="M70" s="240"/>
       <c r="N70" s="240"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>144</v>
       </c>
@@ -27316,7 +27534,7 @@
       <c r="M71" s="240"/>
       <c r="N71" s="240"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>145</v>
       </c>
@@ -27336,7 +27554,7 @@
       <c r="M72" s="240"/>
       <c r="N72" s="240"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>146</v>
       </c>
@@ -27362,7 +27580,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -27382,7 +27600,7 @@
       <c r="M74" s="240"/>
       <c r="N74" s="240"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>148</v>
       </c>
@@ -27402,7 +27620,7 @@
       <c r="M75" s="240"/>
       <c r="N75" s="240"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>149</v>
       </c>
@@ -27422,7 +27640,7 @@
       <c r="M76" s="240"/>
       <c r="N76" s="240"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="240" t="s">
         <v>150</v>
       </c>
@@ -27448,7 +27666,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>151</v>
       </c>
@@ -27474,7 +27692,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>152</v>
       </c>
@@ -27494,7 +27712,7 @@
       <c r="M79" s="240"/>
       <c r="N79" s="240"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="240" t="s">
         <v>153</v>
       </c>
@@ -27524,7 +27742,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>154</v>
       </c>
@@ -27554,7 +27772,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>155</v>
       </c>
@@ -27574,7 +27792,7 @@
       <c r="M82" s="240"/>
       <c r="N82" s="240"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>156</v>
       </c>
@@ -27600,7 +27818,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>158</v>
       </c>
@@ -27620,7 +27838,7 @@
       <c r="M84" s="240"/>
       <c r="N84" s="240"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>159</v>
       </c>
@@ -27640,7 +27858,7 @@
       <c r="M85" s="240"/>
       <c r="N85" s="240"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="240" t="s">
         <v>160</v>
       </c>
@@ -27666,7 +27884,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="240" t="s">
         <v>161</v>
       </c>
@@ -27692,7 +27910,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>168</v>
       </c>
@@ -27718,7 +27936,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>169</v>
       </c>
@@ -27738,7 +27956,7 @@
       <c r="M89" s="240"/>
       <c r="N89" s="240"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>170</v>
       </c>
@@ -27764,7 +27982,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>171</v>
       </c>
@@ -27784,7 +28002,7 @@
       <c r="M91" s="240"/>
       <c r="N91" s="240"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="240" t="s">
         <v>172</v>
       </c>
@@ -27814,7 +28032,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>173</v>
       </c>
@@ -27844,7 +28062,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>174</v>
       </c>
@@ -27868,7 +28086,7 @@
       <c r="M94" s="240"/>
       <c r="N94" s="240"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="240" t="s">
         <v>176</v>
       </c>
@@ -27898,7 +28116,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="240" t="s">
         <v>175</v>
       </c>
@@ -27922,7 +28140,7 @@
       <c r="M96" s="240"/>
       <c r="N96" s="240"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="240" t="s">
         <v>177</v>
       </c>
@@ -27946,7 +28164,7 @@
       <c r="M97" s="240"/>
       <c r="N97" s="240"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>180</v>
       </c>
@@ -27978,7 +28196,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>181</v>
       </c>
@@ -28004,7 +28222,7 @@
       <c r="M99" s="240"/>
       <c r="N99" s="240"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>182</v>
       </c>
@@ -28030,7 +28248,7 @@
       <c r="M100" s="240"/>
       <c r="N100" s="240"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="240" t="s">
         <v>183</v>
       </c>
@@ -28062,7 +28280,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="240" t="s">
         <v>184</v>
       </c>
@@ -28096,7 +28314,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="240" t="s">
         <v>185</v>
       </c>
@@ -28130,7 +28348,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="240" t="s">
         <v>186</v>
       </c>
@@ -28162,7 +28380,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="240" t="s">
         <v>190</v>
       </c>
@@ -28196,7 +28414,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="240" t="s">
         <v>192</v>
       </c>
@@ -28230,7 +28448,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="240" t="s">
         <v>193</v>
       </c>
@@ -28264,7 +28482,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="240" t="s">
         <v>194</v>
       </c>
@@ -28298,7 +28516,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="240" t="s">
         <v>195</v>
       </c>
@@ -28332,7 +28550,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="240" t="s">
         <v>196</v>
       </c>
@@ -28362,7 +28580,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="240" t="s">
         <v>197</v>
       </c>
@@ -28402,7 +28620,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="240" t="s">
         <v>199</v>
       </c>
@@ -28430,7 +28648,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="240" t="s">
         <v>200</v>
       </c>
@@ -28460,7 +28678,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="240" t="s">
         <v>201</v>
       </c>
@@ -28484,7 +28702,7 @@
       <c r="M114" s="240"/>
       <c r="N114" s="240"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="240" t="s">
         <v>202</v>
       </c>
@@ -28516,7 +28734,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="240" t="s">
         <v>203</v>
       </c>
@@ -28548,7 +28766,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="240" t="s">
         <v>204</v>
       </c>
@@ -28576,7 +28794,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="240" t="s">
         <v>260</v>
       </c>
@@ -28604,7 +28822,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="240" t="s">
         <v>261</v>
       </c>
@@ -28636,7 +28854,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="240"/>
       <c r="B120" s="240"/>
       <c r="C120" s="240"/>
@@ -28652,7 +28870,7 @@
       <c r="M120" s="240"/>
       <c r="N120" s="240"/>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="240"/>
       <c r="B121" s="240"/>
       <c r="C121" s="240"/>
@@ -28668,7 +28886,7 @@
       <c r="M121" s="240"/>
       <c r="N121" s="240"/>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="240"/>
       <c r="B122" s="240"/>
       <c r="C122" s="240"/>
@@ -28684,7 +28902,7 @@
       <c r="M122" s="240"/>
       <c r="N122" s="240"/>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="240"/>
       <c r="B123" s="240"/>
       <c r="C123" s="240"/>
@@ -28700,7 +28918,7 @@
       <c r="M123" s="240"/>
       <c r="N123" s="240"/>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="240"/>
       <c r="B124" s="240"/>
       <c r="C124" s="240"/>
@@ -28716,7 +28934,7 @@
       <c r="M124" s="240"/>
       <c r="N124" s="240"/>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="240"/>
       <c r="B125" s="240"/>
       <c r="C125" s="240"/>
@@ -28732,7 +28950,7 @@
       <c r="M125" s="240"/>
       <c r="N125" s="240"/>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="240"/>
       <c r="B126" s="240"/>
       <c r="C126" s="240"/>
@@ -28748,7 +28966,8 @@
       <c r="M126" s="240"/>
       <c r="N126" s="240"/>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="162" t="s">
         <v>433</v>
       </c>
@@ -28756,7 +28975,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="240" t="s">
         <v>33</v>
       </c>
@@ -28772,7 +28991,7 @@
       <c r="E129" s="240"/>
       <c r="F129" s="240"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="240" t="s">
         <v>45</v>
       </c>
@@ -28791,7 +29010,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="240" t="s">
         <v>49</v>
       </c>
@@ -28810,7 +29029,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="240" t="s">
         <v>56</v>
       </c>
@@ -28826,7 +29045,7 @@
       <c r="E132" s="240"/>
       <c r="F132" s="240"/>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="240" t="s">
         <v>68</v>
       </c>
@@ -28842,20 +29061,17 @@
       <c r="E133" s="240"/>
       <c r="F133" s="240"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>84</v>
       </c>
       <c r="B134" s="240">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C134" s="240">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D134" s="240">
-        <v>4</v>
-      </c>
-      <c r="E134" s="240">
         <v>5</v>
       </c>
       <c r="F134" s="240"/>
@@ -28863,7 +29079,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>85</v>
       </c>
@@ -28881,87 +29097,87 @@
       </c>
       <c r="F135" s="240"/>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>88</v>
       </c>
       <c r="B136" s="240">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C136" s="240">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D136" s="240">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E136" s="240"/>
       <c r="F136" s="240"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>89</v>
       </c>
       <c r="B137" s="240">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C137" s="240">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D137" s="240">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E137" s="240"/>
       <c r="F137" s="240"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>90</v>
       </c>
       <c r="B138" s="240">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C138" s="240">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D138" s="240">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E138" s="240"/>
       <c r="F138" s="240"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>91</v>
       </c>
       <c r="B139" s="240">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C139" s="240">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D139" s="240">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E139" s="240"/>
       <c r="F139" s="240"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>92</v>
       </c>
       <c r="B140" s="240">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C140" s="240">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D140" s="240">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E140" s="240"/>
       <c r="F140" s="240"/>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>93</v>
       </c>
@@ -28977,7 +29193,7 @@
       <c r="E141" s="240"/>
       <c r="F141" s="240"/>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>94</v>
       </c>
@@ -28993,7 +29209,7 @@
       <c r="E142" s="240"/>
       <c r="F142" s="240"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>95</v>
       </c>
@@ -29009,7 +29225,7 @@
       <c r="E143" s="240"/>
       <c r="F143" s="240"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="240" t="s">
         <v>96</v>
       </c>
@@ -29025,7 +29241,7 @@
       <c r="E144" s="240"/>
       <c r="F144" s="240"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="240" t="s">
         <v>98</v>
       </c>
@@ -29041,7 +29257,7 @@
       <c r="E145" s="240"/>
       <c r="F145" s="240"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="240" t="s">
         <v>102</v>
       </c>
@@ -29057,7 +29273,7 @@
       <c r="E146" s="240"/>
       <c r="F146" s="240"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="240" t="s">
         <v>103</v>
       </c>
@@ -29073,7 +29289,7 @@
       <c r="E147" s="240"/>
       <c r="F147" s="240"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="240" t="s">
         <v>104</v>
       </c>
@@ -29089,7 +29305,7 @@
       <c r="E148" s="240"/>
       <c r="F148" s="240"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="240" t="s">
         <v>106</v>
       </c>
@@ -29105,7 +29321,7 @@
       <c r="E149" s="240"/>
       <c r="F149" s="240"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="240" t="s">
         <v>109</v>
       </c>
@@ -29121,7 +29337,7 @@
       <c r="E150" s="240"/>
       <c r="F150" s="240"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>137</v>
       </c>
@@ -29137,7 +29353,7 @@
       <c r="E151" s="240"/>
       <c r="F151" s="240"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>138</v>
       </c>
@@ -29153,7 +29369,7 @@
       <c r="E152" s="240"/>
       <c r="F152" s="240"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>139</v>
       </c>
@@ -29169,7 +29385,7 @@
       <c r="E153" s="240"/>
       <c r="F153" s="240"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>140</v>
       </c>
@@ -29185,7 +29401,7 @@
       <c r="E154" s="240"/>
       <c r="F154" s="240"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>141</v>
       </c>
@@ -29201,7 +29417,7 @@
       <c r="E155" s="240"/>
       <c r="F155" s="240"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>142</v>
       </c>
@@ -29217,7 +29433,7 @@
       <c r="E156" s="240"/>
       <c r="F156" s="240"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>143</v>
       </c>
@@ -29233,7 +29449,7 @@
       <c r="E157" s="240"/>
       <c r="F157" s="240"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>144</v>
       </c>
@@ -29249,7 +29465,7 @@
       <c r="E158" s="240"/>
       <c r="F158" s="240"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>145</v>
       </c>
@@ -29265,7 +29481,7 @@
       <c r="E159" s="240"/>
       <c r="F159" s="240"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>146</v>
       </c>
@@ -29281,7 +29497,7 @@
       <c r="E160" s="240"/>
       <c r="F160" s="240"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>147</v>
       </c>
@@ -29297,7 +29513,7 @@
       <c r="E161" s="240"/>
       <c r="F161" s="240"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>148</v>
       </c>
@@ -29313,7 +29529,7 @@
       <c r="E162" s="240"/>
       <c r="F162" s="240"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>149</v>
       </c>
@@ -29329,7 +29545,7 @@
       <c r="E163" s="240"/>
       <c r="F163" s="240"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>156</v>
       </c>
@@ -29345,7 +29561,7 @@
       <c r="E164" s="240"/>
       <c r="F164" s="240"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>158</v>
       </c>
@@ -29361,7 +29577,7 @@
       <c r="E165" s="240"/>
       <c r="F165" s="240"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>159</v>
       </c>
@@ -29377,7 +29593,7 @@
       <c r="E166" s="240"/>
       <c r="F166" s="240"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>162</v>
       </c>
@@ -29393,7 +29609,7 @@
       <c r="E167" s="240"/>
       <c r="F167" s="240"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>163</v>
       </c>
@@ -29409,7 +29625,7 @@
       <c r="E168" s="240"/>
       <c r="F168" s="240"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="240" t="s">
         <v>164</v>
       </c>
@@ -29425,7 +29641,7 @@
       <c r="E169" s="240"/>
       <c r="F169" s="240"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="240" t="s">
         <v>167</v>
       </c>
@@ -29441,7 +29657,7 @@
       <c r="E170" s="240"/>
       <c r="F170" s="240"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>168</v>
       </c>
@@ -29457,7 +29673,7 @@
       <c r="E171" s="240"/>
       <c r="F171" s="240"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>169</v>
       </c>
@@ -29473,7 +29689,7 @@
       <c r="E172" s="240"/>
       <c r="F172" s="240"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>170</v>
       </c>
@@ -29489,7 +29705,7 @@
       <c r="E173" s="240"/>
       <c r="F173" s="240"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>171</v>
       </c>
@@ -29505,7 +29721,7 @@
       <c r="E174" s="240"/>
       <c r="F174" s="240"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="240" t="s">
         <v>177</v>
       </c>
@@ -29521,7 +29737,7 @@
       <c r="E175" s="240"/>
       <c r="F175" s="240"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="240" t="s">
         <v>179</v>
       </c>
@@ -29537,79 +29753,91 @@
       <c r="E176" s="240"/>
       <c r="F176" s="240"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>180</v>
       </c>
       <c r="B177" s="240">
         <v>1</v>
       </c>
-      <c r="C177" s="240"/>
+      <c r="C177" s="240">
+        <v>2</v>
+      </c>
       <c r="D177" s="240"/>
       <c r="E177" s="240"/>
       <c r="F177" s="240"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>181</v>
       </c>
       <c r="B178" s="240">
         <v>1</v>
       </c>
-      <c r="C178" s="240"/>
+      <c r="C178" s="240">
+        <v>2</v>
+      </c>
       <c r="D178" s="240"/>
       <c r="E178" s="240"/>
       <c r="F178" s="240"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>182</v>
       </c>
       <c r="B179" s="240">
         <v>1</v>
       </c>
-      <c r="C179" s="240"/>
+      <c r="C179" s="240">
+        <v>2</v>
+      </c>
       <c r="D179" s="240"/>
       <c r="E179" s="240"/>
       <c r="F179" s="240"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="240" t="s">
         <v>183</v>
       </c>
       <c r="B180" s="240">
         <v>1</v>
       </c>
-      <c r="C180" s="240"/>
+      <c r="C180" s="240">
+        <v>2</v>
+      </c>
       <c r="D180" s="240"/>
       <c r="E180" s="240"/>
       <c r="F180" s="240"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="240" t="s">
         <v>185</v>
       </c>
       <c r="B181" s="240">
         <v>1</v>
       </c>
-      <c r="C181" s="240"/>
+      <c r="C181" s="240">
+        <v>2</v>
+      </c>
       <c r="D181" s="240"/>
       <c r="E181" s="240"/>
       <c r="F181" s="240"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="240" t="s">
         <v>186</v>
       </c>
       <c r="B182" s="240">
         <v>1</v>
       </c>
-      <c r="C182" s="240"/>
+      <c r="C182" s="240">
+        <v>2</v>
+      </c>
       <c r="D182" s="240"/>
       <c r="E182" s="240"/>
       <c r="F182" s="240"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="240"/>
       <c r="B183" s="240"/>
       <c r="C183" s="240"/>
@@ -29617,7 +29845,7 @@
       <c r="E183" s="240"/>
       <c r="F183" s="240"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="240"/>
       <c r="B184" s="240"/>
       <c r="C184" s="240"/>
@@ -29625,7 +29853,7 @@
       <c r="E184" s="240"/>
       <c r="F184" s="240"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="240"/>
       <c r="B185" s="240"/>
       <c r="C185" s="240"/>
@@ -29633,7 +29861,7 @@
       <c r="E185" s="240"/>
       <c r="F185" s="240"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="240"/>
       <c r="B186" s="240"/>
       <c r="C186" s="240"/>
@@ -29641,7 +29869,7 @@
       <c r="E186" s="240"/>
       <c r="F186" s="240"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="240"/>
       <c r="B187" s="240"/>
       <c r="C187" s="240"/>
@@ -29649,7 +29877,7 @@
       <c r="E187" s="240"/>
       <c r="F187" s="240"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="240"/>
       <c r="B188" s="240"/>
       <c r="C188" s="240"/>
@@ -29657,7 +29885,7 @@
       <c r="E188" s="240"/>
       <c r="F188" s="240"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="240"/>
       <c r="B189" s="240"/>
       <c r="C189" s="240"/>
@@ -29665,7 +29893,7 @@
       <c r="E189" s="240"/>
       <c r="F189" s="240"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="240"/>
       <c r="B190" s="240"/>
       <c r="C190" s="240"/>
@@ -29674,7 +29902,7 @@
       <c r="F190" s="240"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="P77:Q77 P81:Q92 P103:Q103 P105:Q106 P108:Q109 P111:Q111 P113:Q119 P95:Q101 H22:N26 A13:N21 A22:E26 P13:Q72 A27:N126 A129:F190">
+  <conditionalFormatting sqref="P77:Q77 P81:Q92 P103:Q103 P105:Q106 P108:Q109 P111:Q111 P113:Q119 P95:Q101 P13:Q72 A129:F133 A135:F190 F134 A134:D134 A13:N126">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
@@ -29686,12 +29914,12 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
       <formula1>$AK$2:$AK$51</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B129:F190">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B134:D134 B129:F133 B135:F190 F134">
       <formula1>"1, 2, 3, 4, 5"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -29740,14 +29968,14 @@
       <c r="I1" s="244" t="s">
         <v>444</v>
       </c>
-      <c r="S1" s="380" t="s">
+      <c r="S1" s="383" t="s">
         <v>445</v>
       </c>
-      <c r="T1" s="381"/>
-      <c r="U1" s="381"/>
-      <c r="V1" s="381"/>
-      <c r="W1" s="381"/>
-      <c r="X1" s="381"/>
+      <c r="T1" s="384"/>
+      <c r="U1" s="384"/>
+      <c r="V1" s="384"/>
+      <c r="W1" s="384"/>
+      <c r="X1" s="384"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="251" t="s">
@@ -29778,12 +30006,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="S2" s="381"/>
-      <c r="T2" s="381"/>
-      <c r="U2" s="381"/>
-      <c r="V2" s="381"/>
-      <c r="W2" s="381"/>
-      <c r="X2" s="381"/>
+      <c r="S2" s="384"/>
+      <c r="T2" s="384"/>
+      <c r="U2" s="384"/>
+      <c r="V2" s="384"/>
+      <c r="W2" s="384"/>
+      <c r="X2" s="384"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="251" t="s">
@@ -29814,12 +30042,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="S3" s="381"/>
-      <c r="T3" s="381"/>
-      <c r="U3" s="381"/>
-      <c r="V3" s="381"/>
-      <c r="W3" s="381"/>
-      <c r="X3" s="381"/>
+      <c r="S3" s="384"/>
+      <c r="T3" s="384"/>
+      <c r="U3" s="384"/>
+      <c r="V3" s="384"/>
+      <c r="W3" s="384"/>
+      <c r="X3" s="384"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="251" t="s">
@@ -29850,12 +30078,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="S4" s="381"/>
-      <c r="T4" s="381"/>
-      <c r="U4" s="381"/>
-      <c r="V4" s="381"/>
-      <c r="W4" s="381"/>
-      <c r="X4" s="381"/>
+      <c r="S4" s="384"/>
+      <c r="T4" s="384"/>
+      <c r="U4" s="384"/>
+      <c r="V4" s="384"/>
+      <c r="W4" s="384"/>
+      <c r="X4" s="384"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -29886,12 +30114,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="S5" s="381"/>
-      <c r="T5" s="381"/>
-      <c r="U5" s="381"/>
-      <c r="V5" s="381"/>
-      <c r="W5" s="381"/>
-      <c r="X5" s="381"/>
+      <c r="S5" s="384"/>
+      <c r="T5" s="384"/>
+      <c r="U5" s="384"/>
+      <c r="V5" s="384"/>
+      <c r="W5" s="384"/>
+      <c r="X5" s="384"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -29922,12 +30150,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="S6" s="381"/>
-      <c r="T6" s="381"/>
-      <c r="U6" s="381"/>
-      <c r="V6" s="381"/>
-      <c r="W6" s="381"/>
-      <c r="X6" s="381"/>
+      <c r="S6" s="384"/>
+      <c r="T6" s="384"/>
+      <c r="U6" s="384"/>
+      <c r="V6" s="384"/>
+      <c r="W6" s="384"/>
+      <c r="X6" s="384"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -29958,12 +30186,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="S7" s="381"/>
-      <c r="T7" s="381"/>
-      <c r="U7" s="381"/>
-      <c r="V7" s="381"/>
-      <c r="W7" s="381"/>
-      <c r="X7" s="381"/>
+      <c r="S7" s="384"/>
+      <c r="T7" s="384"/>
+      <c r="U7" s="384"/>
+      <c r="V7" s="384"/>
+      <c r="W7" s="384"/>
+      <c r="X7" s="384"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -29994,12 +30222,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="S8" s="381"/>
-      <c r="T8" s="381"/>
-      <c r="U8" s="381"/>
-      <c r="V8" s="381"/>
-      <c r="W8" s="381"/>
-      <c r="X8" s="381"/>
+      <c r="S8" s="384"/>
+      <c r="T8" s="384"/>
+      <c r="U8" s="384"/>
+      <c r="V8" s="384"/>
+      <c r="W8" s="384"/>
+      <c r="X8" s="384"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -30030,12 +30258,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="S9" s="381"/>
-      <c r="T9" s="381"/>
-      <c r="U9" s="381"/>
-      <c r="V9" s="381"/>
-      <c r="W9" s="381"/>
-      <c r="X9" s="381"/>
+      <c r="S9" s="384"/>
+      <c r="T9" s="384"/>
+      <c r="U9" s="384"/>
+      <c r="V9" s="384"/>
+      <c r="W9" s="384"/>
+      <c r="X9" s="384"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="251" t="s">
@@ -30066,12 +30294,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="S10" s="381"/>
-      <c r="T10" s="381"/>
-      <c r="U10" s="381"/>
-      <c r="V10" s="381"/>
-      <c r="W10" s="381"/>
-      <c r="X10" s="381"/>
+      <c r="S10" s="384"/>
+      <c r="T10" s="384"/>
+      <c r="U10" s="384"/>
+      <c r="V10" s="384"/>
+      <c r="W10" s="384"/>
+      <c r="X10" s="384"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="251" t="s">
@@ -30102,12 +30330,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="S11" s="381"/>
-      <c r="T11" s="381"/>
-      <c r="U11" s="381"/>
-      <c r="V11" s="381"/>
-      <c r="W11" s="381"/>
-      <c r="X11" s="381"/>
+      <c r="S11" s="384"/>
+      <c r="T11" s="384"/>
+      <c r="U11" s="384"/>
+      <c r="V11" s="384"/>
+      <c r="W11" s="384"/>
+      <c r="X11" s="384"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="251" t="s">
@@ -30138,12 +30366,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="S12" s="381"/>
-      <c r="T12" s="381"/>
-      <c r="U12" s="381"/>
-      <c r="V12" s="381"/>
-      <c r="W12" s="381"/>
-      <c r="X12" s="381"/>
+      <c r="S12" s="384"/>
+      <c r="T12" s="384"/>
+      <c r="U12" s="384"/>
+      <c r="V12" s="384"/>
+      <c r="W12" s="384"/>
+      <c r="X12" s="384"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="251" t="s">
@@ -38715,18 +38943,18 @@
       <c r="J297" s="250" t="s">
         <v>97</v>
       </c>
-      <c r="W297" s="382"/>
-      <c r="X297" s="382"/>
-      <c r="Y297" s="382"/>
-      <c r="Z297" s="382"/>
-      <c r="AA297" s="382"/>
-      <c r="AB297" s="382"/>
-      <c r="AC297" s="382"/>
-      <c r="AD297" s="382"/>
-      <c r="AE297" s="382"/>
-      <c r="AF297" s="382"/>
-      <c r="AG297" s="382"/>
-      <c r="AH297" s="382"/>
+      <c r="W297" s="385"/>
+      <c r="X297" s="385"/>
+      <c r="Y297" s="385"/>
+      <c r="Z297" s="385"/>
+      <c r="AA297" s="385"/>
+      <c r="AB297" s="385"/>
+      <c r="AC297" s="385"/>
+      <c r="AD297" s="385"/>
+      <c r="AE297" s="385"/>
+      <c r="AF297" s="385"/>
+      <c r="AG297" s="385"/>
+      <c r="AH297" s="385"/>
     </row>
     <row r="298" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
@@ -38759,18 +38987,18 @@
       <c r="J298" s="250" t="s">
         <v>97</v>
       </c>
-      <c r="W298" s="382"/>
-      <c r="X298" s="382"/>
-      <c r="Y298" s="382"/>
-      <c r="Z298" s="382"/>
-      <c r="AA298" s="382"/>
-      <c r="AB298" s="382"/>
-      <c r="AC298" s="382"/>
-      <c r="AD298" s="382"/>
-      <c r="AE298" s="382"/>
-      <c r="AF298" s="382"/>
-      <c r="AG298" s="382"/>
-      <c r="AH298" s="382"/>
+      <c r="W298" s="385"/>
+      <c r="X298" s="385"/>
+      <c r="Y298" s="385"/>
+      <c r="Z298" s="385"/>
+      <c r="AA298" s="385"/>
+      <c r="AB298" s="385"/>
+      <c r="AC298" s="385"/>
+      <c r="AD298" s="385"/>
+      <c r="AE298" s="385"/>
+      <c r="AF298" s="385"/>
+      <c r="AG298" s="385"/>
+      <c r="AH298" s="385"/>
     </row>
     <row r="299" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
@@ -39892,7 +40120,9 @@
   </sheetPr>
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -39908,27 +40138,27 @@
       </c>
     </row>
     <row r="2" spans="1:27" s="251" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="383" t="s">
+      <c r="C2" s="386" t="s">
         <v>457</v>
       </c>
-      <c r="D2" s="384"/>
-      <c r="E2" s="384"/>
-      <c r="F2" s="384"/>
-      <c r="G2" s="384"/>
+      <c r="D2" s="387"/>
+      <c r="E2" s="387"/>
+      <c r="F2" s="387"/>
+      <c r="G2" s="387"/>
       <c r="H2" s="253" t="s">
         <v>458</v>
       </c>
-      <c r="J2" s="385" t="s">
+      <c r="J2" s="388" t="s">
         <v>459</v>
       </c>
-      <c r="K2" s="386"/>
-      <c r="L2" s="386"/>
-      <c r="M2" s="386"/>
-      <c r="N2" s="386"/>
-      <c r="R2" s="387" t="s">
+      <c r="K2" s="389"/>
+      <c r="L2" s="389"/>
+      <c r="M2" s="389"/>
+      <c r="N2" s="389"/>
+      <c r="R2" s="390" t="s">
         <v>460</v>
       </c>
-      <c r="S2" s="387"/>
+      <c r="S2" s="390"/>
     </row>
     <row r="3" spans="1:27" s="251" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="142" t="s">
@@ -42934,10 +43164,10 @@
       </c>
     </row>
     <row r="35" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F35" s="381" t="s">
+      <c r="F35" s="384" t="s">
         <v>460</v>
       </c>
-      <c r="G35" s="378"/>
+      <c r="G35" s="381"/>
     </row>
     <row r="36" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F36" s="251"/>
@@ -43080,46 +43310,46 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="390" t="s">
+      <c r="A3" s="393" t="s">
         <v>518</v>
       </c>
-      <c r="B3" s="388" t="s">
+      <c r="B3" s="391" t="s">
         <v>555</v>
       </c>
-      <c r="C3" s="388" t="s">
+      <c r="C3" s="391" t="s">
         <v>556</v>
       </c>
-      <c r="D3" s="388" t="s">
+      <c r="D3" s="391" t="s">
         <v>557</v>
       </c>
-      <c r="E3" s="388" t="s">
+      <c r="E3" s="391" t="s">
         <v>558</v>
       </c>
-      <c r="F3" s="388" t="s">
+      <c r="F3" s="391" t="s">
         <v>559</v>
       </c>
-      <c r="G3" s="388" t="s">
+      <c r="G3" s="391" t="s">
         <v>560</v>
       </c>
-      <c r="I3" s="390" t="s">
+      <c r="I3" s="393" t="s">
         <v>561</v>
       </c>
-      <c r="J3" s="388" t="s">
+      <c r="J3" s="391" t="s">
         <v>562</v>
       </c>
-      <c r="K3" s="388" t="s">
+      <c r="K3" s="391" t="s">
         <v>563</v>
       </c>
-      <c r="L3" s="388" t="s">
+      <c r="L3" s="391" t="s">
         <v>564</v>
       </c>
-      <c r="M3" s="388" t="s">
+      <c r="M3" s="391" t="s">
         <v>565</v>
       </c>
-      <c r="N3" s="388" t="s">
+      <c r="N3" s="391" t="s">
         <v>566</v>
       </c>
-      <c r="O3" s="388" t="s">
+      <c r="O3" s="391" t="s">
         <v>567</v>
       </c>
       <c r="Q3" s="109" t="s">
@@ -43132,20 +43362,20 @@
       <c r="V3" s="109"/>
     </row>
     <row r="4" spans="1:23" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="391"/>
-      <c r="B4" s="389"/>
-      <c r="C4" s="389"/>
-      <c r="D4" s="389"/>
-      <c r="E4" s="389"/>
-      <c r="F4" s="389"/>
-      <c r="G4" s="389"/>
-      <c r="I4" s="391"/>
-      <c r="J4" s="389"/>
-      <c r="K4" s="389"/>
-      <c r="L4" s="389"/>
-      <c r="M4" s="389"/>
-      <c r="N4" s="389"/>
-      <c r="O4" s="389"/>
+      <c r="A4" s="394"/>
+      <c r="B4" s="392"/>
+      <c r="C4" s="392"/>
+      <c r="D4" s="392"/>
+      <c r="E4" s="392"/>
+      <c r="F4" s="392"/>
+      <c r="G4" s="392"/>
+      <c r="I4" s="394"/>
+      <c r="J4" s="392"/>
+      <c r="K4" s="392"/>
+      <c r="L4" s="392"/>
+      <c r="M4" s="392"/>
+      <c r="N4" s="392"/>
+      <c r="O4" s="392"/>
       <c r="Q4" s="114" t="s">
         <v>16</v>
       </c>
@@ -43648,15 +43878,15 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="396" t="s">
+      <c r="A16" s="399" t="s">
         <v>569</v>
       </c>
-      <c r="B16" s="397"/>
-      <c r="C16" s="397"/>
-      <c r="D16" s="397"/>
-      <c r="E16" s="397"/>
-      <c r="F16" s="397"/>
-      <c r="G16" s="397"/>
+      <c r="B16" s="400"/>
+      <c r="C16" s="400"/>
+      <c r="D16" s="400"/>
+      <c r="E16" s="400"/>
+      <c r="F16" s="400"/>
+      <c r="G16" s="400"/>
       <c r="I16" s="65" t="s">
         <v>5</v>
       </c>
@@ -44252,10 +44482,10 @@
       </c>
     </row>
     <row r="28" spans="1:23" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="394" t="s">
+      <c r="A28" s="397" t="s">
         <v>577</v>
       </c>
-      <c r="B28" s="395"/>
+      <c r="B28" s="398"/>
       <c r="C28" s="219">
         <f>SUM(C18:C27)</f>
         <v>108.48299999999998</v>
@@ -44299,15 +44529,15 @@
       </c>
     </row>
     <row r="29" spans="1:23" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="396" t="s">
+      <c r="A29" s="399" t="s">
         <v>578</v>
       </c>
-      <c r="B29" s="397"/>
-      <c r="C29" s="397"/>
-      <c r="D29" s="397"/>
-      <c r="E29" s="397"/>
-      <c r="F29" s="397"/>
-      <c r="G29" s="397"/>
+      <c r="B29" s="400"/>
+      <c r="C29" s="400"/>
+      <c r="D29" s="400"/>
+      <c r="E29" s="400"/>
+      <c r="F29" s="400"/>
+      <c r="G29" s="400"/>
       <c r="I29" s="65" t="s">
         <v>484</v>
       </c>
@@ -44826,15 +45056,15 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="392" t="s">
+      <c r="A43" s="395" t="s">
         <v>587</v>
       </c>
-      <c r="B43" s="393"/>
-      <c r="C43" s="393"/>
-      <c r="D43" s="393"/>
-      <c r="E43" s="393"/>
-      <c r="F43" s="393"/>
-      <c r="G43" s="393"/>
+      <c r="B43" s="396"/>
+      <c r="C43" s="396"/>
+      <c r="D43" s="396"/>
+      <c r="E43" s="396"/>
+      <c r="F43" s="396"/>
+      <c r="G43" s="396"/>
     </row>
     <row r="44" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="99"/>
@@ -45008,7 +45238,7 @@
   <dimension ref="A1:BZ83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="A10" sqref="A10:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45069,69 +45299,69 @@
       <c r="BZ1" s="193"/>
     </row>
     <row r="2" spans="1:78" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="364" t="s">
+      <c r="A2" s="367" t="s">
         <v>262</v>
       </c>
-      <c r="B2" s="425"/>
-      <c r="C2" s="426"/>
-      <c r="D2" s="406" t="s">
+      <c r="B2" s="408"/>
+      <c r="C2" s="409"/>
+      <c r="D2" s="411" t="s">
         <v>592</v>
       </c>
-      <c r="E2" s="407"/>
-      <c r="F2" s="407"/>
-      <c r="G2" s="407"/>
-      <c r="H2" s="407"/>
-      <c r="I2" s="407"/>
-      <c r="J2" s="407"/>
-      <c r="K2" s="407"/>
-      <c r="L2" s="407"/>
-      <c r="M2" s="407"/>
-      <c r="N2" s="407"/>
-      <c r="O2" s="407"/>
-      <c r="P2" s="407"/>
-      <c r="Q2" s="407"/>
-      <c r="R2" s="407"/>
-      <c r="S2" s="407"/>
-      <c r="T2" s="407"/>
+      <c r="E2" s="412"/>
+      <c r="F2" s="412"/>
+      <c r="G2" s="412"/>
+      <c r="H2" s="412"/>
+      <c r="I2" s="412"/>
+      <c r="J2" s="412"/>
+      <c r="K2" s="412"/>
+      <c r="L2" s="412"/>
+      <c r="M2" s="412"/>
+      <c r="N2" s="412"/>
+      <c r="O2" s="412"/>
+      <c r="P2" s="412"/>
+      <c r="Q2" s="412"/>
+      <c r="R2" s="412"/>
+      <c r="S2" s="412"/>
+      <c r="T2" s="412"/>
       <c r="AA2" s="133"/>
       <c r="BY2" s="193"/>
       <c r="BZ2" s="193"/>
     </row>
     <row r="3" spans="1:78" s="20" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="366" t="s">
+      <c r="A3" s="369" t="s">
         <v>263</v>
       </c>
-      <c r="B3" s="425"/>
-      <c r="C3" s="426"/>
+      <c r="B3" s="408"/>
+      <c r="C3" s="409"/>
       <c r="D3" s="52"/>
       <c r="E3" s="53"/>
-      <c r="F3" s="408" t="s">
+      <c r="F3" s="413" t="s">
         <v>593</v>
       </c>
-      <c r="G3" s="409"/>
-      <c r="H3" s="410" t="s">
+      <c r="G3" s="414"/>
+      <c r="H3" s="415" t="s">
         <v>594</v>
       </c>
-      <c r="I3" s="410"/>
-      <c r="J3" s="411"/>
-      <c r="K3" s="412" t="s">
+      <c r="I3" s="415"/>
+      <c r="J3" s="416"/>
+      <c r="K3" s="417" t="s">
         <v>595</v>
       </c>
-      <c r="L3" s="413"/>
-      <c r="M3" s="414"/>
-      <c r="N3" s="411" t="s">
+      <c r="L3" s="418"/>
+      <c r="M3" s="419"/>
+      <c r="N3" s="416" t="s">
         <v>596</v>
       </c>
-      <c r="O3" s="415"/>
-      <c r="P3" s="416"/>
-      <c r="Q3" s="417" t="s">
+      <c r="O3" s="420"/>
+      <c r="P3" s="421"/>
+      <c r="Q3" s="422" t="s">
         <v>597</v>
       </c>
-      <c r="R3" s="418"/>
-      <c r="S3" s="419" t="s">
+      <c r="R3" s="423"/>
+      <c r="S3" s="424" t="s">
         <v>598</v>
       </c>
-      <c r="T3" s="420"/>
+      <c r="T3" s="425"/>
       <c r="AA3" s="134"/>
     </row>
     <row r="4" spans="1:78" s="20" customFormat="1" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -45201,17 +45431,17 @@
       </c>
     </row>
     <row r="5" spans="1:78" s="20" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="427">
+      <c r="A5" s="341">
         <f>MAX(AA9:AA51)</f>
         <v>2030</v>
       </c>
       <c r="B5" s="335">
         <f>Y52-Q52</f>
-        <v>175.91879670186</v>
+        <v>486.46850573342277</v>
       </c>
       <c r="C5" s="335">
         <f>MAX(R9:R51)*1000000/U52</f>
-        <v>838.63145815954203</v>
+        <v>687.22378750697419</v>
       </c>
       <c r="D5" s="196">
         <v>2018</v>
@@ -45295,7 +45525,7 @@
       <c r="AC6" s="135"/>
     </row>
     <row r="7" spans="1:78" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="399" t="str">
+      <c r="C7" s="402" t="str">
         <f>"Projected Annual Cost
 "&amp;D5&amp;" Dollar Year" &amp;"
 ($Million)"</f>
@@ -45303,81 +45533,81 @@
 2018 Dollar Year
 ($Million)</v>
       </c>
-      <c r="D7" s="400"/>
-      <c r="E7" s="401"/>
-      <c r="F7" s="400" t="s">
+      <c r="D7" s="403"/>
+      <c r="E7" s="404"/>
+      <c r="F7" s="403" t="s">
         <v>622</v>
       </c>
-      <c r="G7" s="400"/>
-      <c r="H7" s="401"/>
-      <c r="I7" s="402" t="str">
+      <c r="G7" s="403"/>
+      <c r="H7" s="404"/>
+      <c r="I7" s="405" t="str">
         <f>"Projected Annual Cost with Financing
 ($Million; NPV=$"&amp;ROUND(Q52,3)&amp;")"</f>
         <v>Projected Annual Cost with Financing
-($Million; NPV=$212.188)</v>
-      </c>
-      <c r="J7" s="403"/>
-      <c r="K7" s="403"/>
-      <c r="L7" s="403"/>
-      <c r="M7" s="403"/>
-      <c r="N7" s="403"/>
-      <c r="O7" s="403"/>
-      <c r="P7" s="403"/>
-      <c r="Q7" s="403"/>
-      <c r="R7" s="404"/>
-      <c r="S7" s="399" t="str">
+($Million; NPV=$242.422)</v>
+      </c>
+      <c r="J7" s="406"/>
+      <c r="K7" s="406"/>
+      <c r="L7" s="406"/>
+      <c r="M7" s="406"/>
+      <c r="N7" s="406"/>
+      <c r="O7" s="406"/>
+      <c r="P7" s="406"/>
+      <c r="Q7" s="406"/>
+      <c r="R7" s="407"/>
+      <c r="S7" s="402" t="str">
         <f>"Avoided MWD Purchase 
  ($Million; NPV=$"&amp;ROUND(Y52,3)&amp;")"</f>
         <v>Avoided MWD Purchase 
- ($Million; NPV=$388.107)</v>
-      </c>
-      <c r="T7" s="400"/>
-      <c r="U7" s="400"/>
-      <c r="V7" s="400"/>
-      <c r="W7" s="400"/>
-      <c r="X7" s="401"/>
-      <c r="Y7" s="399" t="s">
+ ($Million; NPV=$728.891)</v>
+      </c>
+      <c r="T7" s="403"/>
+      <c r="U7" s="403"/>
+      <c r="V7" s="403"/>
+      <c r="W7" s="403"/>
+      <c r="X7" s="404"/>
+      <c r="Y7" s="402" t="s">
         <v>623</v>
       </c>
-      <c r="Z7" s="401"/>
+      <c r="Z7" s="404"/>
       <c r="AA7" s="136"/>
-      <c r="AH7" s="421" t="s">
+      <c r="AH7" s="426" t="s">
         <v>624</v>
       </c>
-      <c r="AI7" s="422"/>
+      <c r="AI7" s="427"/>
       <c r="AJ7" s="13"/>
-      <c r="AK7" s="423" t="s">
+      <c r="AK7" s="428" t="s">
         <v>625</v>
       </c>
-      <c r="AL7" s="397"/>
-      <c r="AM7" s="397"/>
-      <c r="AN7" s="422"/>
-      <c r="AP7" s="424" t="s">
+      <c r="AL7" s="400"/>
+      <c r="AM7" s="400"/>
+      <c r="AN7" s="427"/>
+      <c r="AP7" s="429" t="s">
         <v>626</v>
       </c>
-      <c r="AQ7" s="370"/>
-      <c r="AS7" s="405" t="s">
+      <c r="AQ7" s="373"/>
+      <c r="AS7" s="410" t="s">
         <v>627</v>
       </c>
-      <c r="AT7" s="369"/>
-      <c r="AU7" s="369"/>
-      <c r="AV7" s="369"/>
-      <c r="AW7" s="369"/>
-      <c r="AX7" s="369"/>
-      <c r="AY7" s="369"/>
-      <c r="AZ7" s="369"/>
-      <c r="BA7" s="369"/>
-      <c r="BB7" s="370"/>
-      <c r="BD7" s="424" t="s">
+      <c r="AT7" s="372"/>
+      <c r="AU7" s="372"/>
+      <c r="AV7" s="372"/>
+      <c r="AW7" s="372"/>
+      <c r="AX7" s="372"/>
+      <c r="AY7" s="372"/>
+      <c r="AZ7" s="372"/>
+      <c r="BA7" s="372"/>
+      <c r="BB7" s="373"/>
+      <c r="BD7" s="429" t="s">
         <v>628</v>
       </c>
-      <c r="BE7" s="370"/>
+      <c r="BE7" s="373"/>
       <c r="BF7" s="193"/>
-      <c r="BG7" s="405" t="s">
+      <c r="BG7" s="410" t="s">
         <v>629</v>
       </c>
-      <c r="BH7" s="369"/>
-      <c r="BI7" s="369"/>
+      <c r="BH7" s="372"/>
+      <c r="BI7" s="372"/>
       <c r="BY7" s="193"/>
       <c r="BZ7" s="193"/>
     </row>
@@ -45748,7 +45978,7 @@
     </row>
     <row r="10" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A10" s="193" t="b">
-        <f>IF(B9+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
+        <f>IF(B9+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="B10" s="40">
@@ -45976,7 +46206,7 @@
     </row>
     <row r="11" spans="1:78" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="193" t="b">
-        <f>IF(B10+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
+        <f>IF(B10+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="B11" s="41">
@@ -46199,7 +46429,7 @@
     </row>
     <row r="12" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A12" s="193" t="b">
-        <f>IF(B11+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
+        <f>IF(B11+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="B12" s="40">
@@ -46427,7 +46657,7 @@
     </row>
     <row r="13" spans="1:78" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="193" t="b">
-        <f>IF(B12+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
+        <f>IF(B12+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="B13" s="41">
@@ -46650,7 +46880,7 @@
     </row>
     <row r="14" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A14" s="193" t="b">
-        <f>IF(B13+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
+        <f>IF(B13+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="B14" s="40">
@@ -46878,7 +47108,7 @@
     </row>
     <row r="15" spans="1:78" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="193" t="b">
-        <f>IF(B14+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
+        <f>IF(B14+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="B15" s="41">
@@ -47101,7 +47331,7 @@
     </row>
     <row r="16" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A16" s="193" t="b">
-        <f>IF(B15+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
+        <f>IF(B15+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="B16" s="40">
@@ -47329,7 +47559,7 @@
     </row>
     <row r="17" spans="1:78" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="193" t="b">
-        <f>IF(B16+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
+        <f>IF(B16+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="B17" s="41">
@@ -47552,7 +47782,7 @@
     </row>
     <row r="18" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A18" s="193" t="b">
-        <f>IF(B17+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
+        <f>IF(B17+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="B18" s="40">
@@ -47780,7 +48010,7 @@
     </row>
     <row r="19" spans="1:78" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="193" t="b">
-        <f>IF(B18+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
+        <f>IF(B18+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="B19" s="41">
@@ -48006,7 +48236,7 @@
     </row>
     <row r="20" spans="1:78" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="193" t="b">
-        <f>IF(B19+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
+        <f>IF(B19+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="B20" s="40">
@@ -48232,7 +48462,7 @@
     </row>
     <row r="21" spans="1:78" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="193" t="b">
-        <f>IF(B20+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
+        <f>IF(B20+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="B21" s="41">
@@ -48455,7 +48685,7 @@
     </row>
     <row r="22" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A22" s="193" t="b">
-        <f>IF(B21+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
+        <f>IF(B21+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="B22" s="40">
@@ -48683,7 +48913,7 @@
     </row>
     <row r="23" spans="1:78" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="193" t="b">
-        <f>IF(B22+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
+        <f>IF(B22+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="B23" s="41">
@@ -48906,7 +49136,7 @@
     </row>
     <row r="24" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A24" s="193" t="b">
-        <f>IF(B23+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
+        <f>IF(B23+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="B24" s="40">
@@ -49134,7 +49364,7 @@
     </row>
     <row r="25" spans="1:78" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="193" t="b">
-        <f>IF(B24+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
+        <f>IF(B24+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="B25" s="41">
@@ -49357,7 +49587,7 @@
     </row>
     <row r="26" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A26" s="193" t="b">
-        <f>IF(B25+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
+        <f>IF(B25+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="B26" s="40">
@@ -49585,7 +49815,7 @@
     </row>
     <row r="27" spans="1:78" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="193" t="b">
-        <f>IF(B26+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
+        <f>IF(B26+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="B27" s="41">
@@ -49808,7 +50038,7 @@
     </row>
     <row r="28" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A28" s="193" t="b">
-        <f>IF(B27+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
+        <f>IF(B27+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="B28" s="40">
@@ -50036,7 +50266,7 @@
     </row>
     <row r="29" spans="1:78" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="193" t="b">
-        <f>IF(B28+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
+        <f>IF(B28+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="B29" s="41">
@@ -50259,7 +50489,7 @@
     </row>
     <row r="30" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A30" s="193" t="b">
-        <f>IF(B29+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
+        <f>IF(B29+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="B30" s="40">
@@ -50492,7 +50722,7 @@
     </row>
     <row r="31" spans="1:78" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="193" t="b">
-        <f>IF(B30+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
+        <f>IF(B30+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="B31" s="41">
@@ -50720,7 +50950,7 @@
     </row>
     <row r="32" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A32" s="193" t="b">
-        <f>IF(B31+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
+        <f>IF(B31+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="B32" s="40">
@@ -50953,7 +51183,7 @@
     </row>
     <row r="33" spans="1:78" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="193" t="b">
-        <f>IF(B32+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
+        <f>IF(B32+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="B33" s="41">
@@ -51180,8 +51410,8 @@
     </row>
     <row r="34" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A34" s="193" t="b">
-        <f>IF(B33+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
-        <v>0</v>
+        <f>IF(B33+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
+        <v>1</v>
       </c>
       <c r="B34" s="40">
         <f t="shared" si="20"/>
@@ -51203,11 +51433,11 @@
         INDEX('10 YEAR PROJECTION'!$X$13:$AN$17, MATCH($I$1, '10 YEAR PROJECTION'!$X$13:$X$17, 0), MATCH(B34, '10 YEAR PROJECTION'!$X$12:$AN$12, 0))/1000000,
         0)
     ), 0)</f>
-        <v>0</v>
+        <v>1.6047739052097945</v>
       </c>
       <c r="E34" s="223">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="F34" s="223">
         <f t="shared" si="2"/>
@@ -51215,11 +51445,11 @@
       </c>
       <c r="G34" s="224">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.360040184813271</v>
       </c>
       <c r="H34" s="225">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.7514544697872372</v>
       </c>
       <c r="I34" s="223">
         <f t="shared" si="5"/>
@@ -51227,11 +51457,11 @@
       </c>
       <c r="J34" s="224">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.360040184813271</v>
       </c>
       <c r="K34" s="225">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.7514544697872372</v>
       </c>
       <c r="L34" s="223">
         <f t="shared" si="8"/>
@@ -51255,11 +51485,11 @@
       </c>
       <c r="Q34" s="231">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5.1114946546005084</v>
       </c>
       <c r="R34" s="232">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>274.75869219296987</v>
       </c>
       <c r="S34" s="158">
         <f>IF(A34,
@@ -51269,7 +51499,7 @@
              INDEX(MP_new!$A$4:$J$9, INDEX('Cost Analysis Input'!$B$2:$D$7, IF(MATCH(B34, 'Cost Analysis Input'!$C$2:$C$7, 1)&gt;$I$1, $I$1, MATCH(B34, 'Cost Analysis Input'!$C$2:$C$7, 1)), 3)+1, 7)-5000),
         INDEX(MP_new!$A$4:$J$9, $I$1+1, 7)),
     0)</f>
-        <v>0</v>
+        <v>59692.434433137103</v>
       </c>
       <c r="T34" s="157">
         <f>IF(A34, IF(EXACT($S$5, "Yes"),
@@ -51277,31 +51507,31 @@
         T33,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B34, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="U34" s="1">
         <f>IF(A34, (MP_new!$G$4-S34)+T34, 0)</f>
-        <v>0</v>
+        <v>13926.620720270636</v>
       </c>
       <c r="V34" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3618.2582296875007</v>
       </c>
       <c r="W34" s="233">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>50.390110032855695</v>
       </c>
       <c r="X34" s="230">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>750.59873334576412</v>
       </c>
       <c r="Y34" s="230">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>45.278615378255189</v>
       </c>
       <c r="Z34" s="230">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>475.84004115279424</v>
       </c>
       <c r="AA34" s="230">
         <f>IF(SUM(AA$9:AA33)&gt;0,0,IF(SUM(X34-R34)&gt;0,B34,0))</f>
@@ -51309,7 +51539,7 @@
       </c>
       <c r="AB34" s="230">
         <f>ABS(Z34)*1000000/SUM(U$9:U34)</f>
-        <v>0</v>
+        <v>1418.4743629710724</v>
       </c>
       <c r="AH34" s="19">
         <f t="shared" si="26"/>
@@ -51413,8 +51643,8 @@
     </row>
     <row r="35" spans="1:78" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="193" t="b">
-        <f>IF(B34+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
-        <v>0</v>
+        <f>IF(B34+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
+        <v>1</v>
       </c>
       <c r="B35" s="41">
         <f t="shared" si="20"/>
@@ -51436,11 +51666,11 @@
         INDEX('10 YEAR PROJECTION'!$X$13:$AN$17, MATCH($I$1, '10 YEAR PROJECTION'!$X$13:$X$17, 0), MATCH(B35, '10 YEAR PROJECTION'!$X$12:$AN$12, 0))/1000000,
         0)
     ), 0)</f>
-        <v>0</v>
+        <v>1.6047739052097945</v>
       </c>
       <c r="E35" s="223">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="F35" s="223">
         <f t="shared" si="2"/>
@@ -51448,11 +51678,11 @@
       </c>
       <c r="G35" s="224">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.4608413903576696</v>
       </c>
       <c r="H35" s="225">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.8215126485787265</v>
       </c>
       <c r="I35" s="223">
         <f t="shared" si="5"/>
@@ -51460,11 +51690,11 @@
       </c>
       <c r="J35" s="224">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.4608413903576696</v>
       </c>
       <c r="K35" s="225">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.8215126485787265</v>
       </c>
       <c r="L35" s="223">
         <f t="shared" si="8"/>
@@ -51488,11 +51718,11 @@
       </c>
       <c r="Q35" s="224">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5.2823540389363961</v>
       </c>
       <c r="R35" s="232">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>280.04104623190625</v>
       </c>
       <c r="S35" s="158">
         <f>IF(A35,
@@ -51502,7 +51732,7 @@
              INDEX(MP_new!$A$4:$J$9, INDEX('Cost Analysis Input'!$B$2:$D$7, IF(MATCH(B35, 'Cost Analysis Input'!$C$2:$C$7, 1)&gt;$I$1, $I$1, MATCH(B35, 'Cost Analysis Input'!$C$2:$C$7, 1)), 3)+1, 7)-5000),
         INDEX(MP_new!$A$4:$J$9, $I$1+1, 7)),
     0)</f>
-        <v>0</v>
+        <v>59692.434433137103</v>
       </c>
       <c r="T35" s="157">
         <f>IF(A35, IF(EXACT($S$5, "Yes"),
@@ -51510,31 +51740,31 @@
         T34,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B35, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="U35" s="1">
         <f>IF(A35, (MP_new!$G$4-S35)+T35, 0)</f>
-        <v>0</v>
+        <v>13926.620720270636</v>
       </c>
       <c r="V35" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3799.1711411718761</v>
       </c>
       <c r="W35" s="226">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>52.909615534498485</v>
       </c>
       <c r="X35" s="223">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>803.50834888026259</v>
       </c>
       <c r="Y35" s="223">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>47.627261495562088</v>
       </c>
       <c r="Z35" s="223">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>523.46730264835628</v>
       </c>
       <c r="AA35" s="223">
         <f>IF(SUM(AA$9:AA34)&gt;0,0,IF(SUM(X35-R35)&gt;0,B35,0))</f>
@@ -51542,7 +51772,7 @@
       </c>
       <c r="AB35" s="223">
         <f>ABS(Z35)*1000000/SUM(U$9:U35)</f>
-        <v>0</v>
+        <v>1498.2506977308649</v>
       </c>
       <c r="AH35" s="17">
         <f t="shared" si="26"/>
@@ -51641,8 +51871,8 @@
     </row>
     <row r="36" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A36" s="193" t="b">
-        <f>IF(B35+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
-        <v>0</v>
+        <f>IF(B35+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
+        <v>1</v>
       </c>
       <c r="B36" s="40">
         <f t="shared" si="20"/>
@@ -51664,11 +51894,11 @@
         INDEX('10 YEAR PROJECTION'!$X$13:$AN$17, MATCH($I$1, '10 YEAR PROJECTION'!$X$13:$X$17, 0), MATCH(B36, '10 YEAR PROJECTION'!$X$12:$AN$12, 0))/1000000,
         0)
     ), 0)</f>
-        <v>0</v>
+        <v>1.6047739052097945</v>
       </c>
       <c r="E36" s="223">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="F36" s="223">
         <f t="shared" si="2"/>
@@ -51676,11 +51906,11 @@
       </c>
       <c r="G36" s="224">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.5646666320683993</v>
       </c>
       <c r="H36" s="225">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.8943731545218756</v>
       </c>
       <c r="I36" s="223">
         <f t="shared" si="5"/>
@@ -51688,11 +51918,11 @@
       </c>
       <c r="J36" s="224">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5646666320683993</v>
       </c>
       <c r="K36" s="225">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.8943731545218756</v>
       </c>
       <c r="L36" s="223">
         <f t="shared" si="8"/>
@@ -51716,11 +51946,11 @@
       </c>
       <c r="Q36" s="231">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5.4590397865902744</v>
       </c>
       <c r="R36" s="232">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>285.50008601849652</v>
       </c>
       <c r="S36" s="158">
         <f>IF(A36,
@@ -51730,7 +51960,7 @@
              INDEX(MP_new!$A$4:$J$9, INDEX('Cost Analysis Input'!$B$2:$D$7, IF(MATCH(B36, 'Cost Analysis Input'!$C$2:$C$7, 1)&gt;$I$1, $I$1, MATCH(B36, 'Cost Analysis Input'!$C$2:$C$7, 1)), 3)+1, 7)-5000),
         INDEX(MP_new!$A$4:$J$9, $I$1+1, 7)),
     0)</f>
-        <v>0</v>
+        <v>59692.434433137103</v>
       </c>
       <c r="T36" s="157">
         <f>IF(A36, IF(EXACT($S$5, "Yes"),
@@ -51738,31 +51968,31 @@
         T35,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B36, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="U36" s="1">
         <f>IF(A36, (MP_new!$G$4-S36)+T36, 0)</f>
-        <v>0</v>
+        <v>13926.620720270636</v>
       </c>
       <c r="V36" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3989.1296982304702</v>
       </c>
       <c r="W36" s="233">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>55.555096311223416</v>
       </c>
       <c r="X36" s="230">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>859.06344519148604</v>
       </c>
       <c r="Y36" s="230">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>50.096056524633141</v>
       </c>
       <c r="Z36" s="230">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>573.56335917298952</v>
       </c>
       <c r="AA36" s="230">
         <f>IF(SUM(AA$9:AA35)&gt;0,0,IF(SUM(X36-R36)&gt;0,B36,0))</f>
@@ -51770,7 +52000,7 @@
       </c>
       <c r="AB36" s="230">
         <f>ABS(Z36)*1000000/SUM(U$9:U36)</f>
-        <v>0</v>
+        <v>1578.7062429982061</v>
       </c>
       <c r="AH36" s="19">
         <f t="shared" si="26"/>
@@ -51874,8 +52104,8 @@
     </row>
     <row r="37" spans="1:78" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="193" t="b">
-        <f>IF(B36+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
-        <v>0</v>
+        <f>IF(B36+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
+        <v>1</v>
       </c>
       <c r="B37" s="41">
         <f t="shared" si="20"/>
@@ -51897,11 +52127,11 @@
         INDEX('10 YEAR PROJECTION'!$X$13:$AN$17, MATCH($I$1, '10 YEAR PROJECTION'!$X$13:$X$17, 0), MATCH(B37, '10 YEAR PROJECTION'!$X$12:$AN$12, 0))/1000000,
         0)
     ), 0)</f>
-        <v>0</v>
+        <v>1.6047739052097945</v>
       </c>
       <c r="E37" s="223">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="F37" s="223">
         <f t="shared" si="2"/>
@@ -51909,11 +52139,11 @@
       </c>
       <c r="G37" s="224">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.6716066310304512</v>
       </c>
       <c r="H37" s="225">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.9701480807027512</v>
       </c>
       <c r="I37" s="223">
         <f t="shared" si="5"/>
@@ -51921,11 +52151,11 @@
       </c>
       <c r="J37" s="224">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.6716066310304512</v>
       </c>
       <c r="K37" s="225">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.9701480807027512</v>
       </c>
       <c r="L37" s="223">
         <f t="shared" si="8"/>
@@ -51949,11 +52179,11 @@
       </c>
       <c r="Q37" s="224">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5.6417547117332028</v>
       </c>
       <c r="R37" s="232">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>291.14184073022972</v>
       </c>
       <c r="S37" s="158">
         <f>IF(A37,
@@ -51963,7 +52193,7 @@
              INDEX(MP_new!$A$4:$J$9, INDEX('Cost Analysis Input'!$B$2:$D$7, IF(MATCH(B37, 'Cost Analysis Input'!$C$2:$C$7, 1)&gt;$I$1, $I$1, MATCH(B37, 'Cost Analysis Input'!$C$2:$C$7, 1)), 3)+1, 7)-5000),
         INDEX(MP_new!$A$4:$J$9, $I$1+1, 7)),
     0)</f>
-        <v>0</v>
+        <v>59692.434433137103</v>
       </c>
       <c r="T37" s="157">
         <f>IF(A37, IF(EXACT($S$5, "Yes"),
@@ -51971,31 +52201,31 @@
         T36,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B37, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="U37" s="1">
         <f>IF(A37, (MP_new!$G$4-S37)+T37, 0)</f>
-        <v>0</v>
+        <v>13926.620720270636</v>
       </c>
       <c r="V37" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4188.5861831419943</v>
       </c>
       <c r="W37" s="226">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>58.33285112678459</v>
       </c>
       <c r="X37" s="223">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>917.39629631827063</v>
       </c>
       <c r="Y37" s="223">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>52.691096415051391</v>
       </c>
       <c r="Z37" s="223">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>626.25445558804086</v>
       </c>
       <c r="AA37" s="223">
         <f>IF(SUM(AA$9:AA36)&gt;0,0,IF(SUM(X37-R37)&gt;0,B37,0))</f>
@@ -52003,7 +52233,7 @@
       </c>
       <c r="AB37" s="223">
         <f>ABS(Z37)*1000000/SUM(U$9:U37)</f>
-        <v>0</v>
+        <v>1660.1004299735034</v>
       </c>
       <c r="AH37" s="17">
         <f t="shared" si="26"/>
@@ -52105,8 +52335,8 @@
     </row>
     <row r="38" spans="1:78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="193" t="b">
-        <f>IF(B37+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
-        <v>0</v>
+        <f>IF(B37+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
+        <v>1</v>
       </c>
       <c r="B38" s="40">
         <f t="shared" si="20"/>
@@ -52128,11 +52358,11 @@
         INDEX('10 YEAR PROJECTION'!$X$13:$AN$17, MATCH($I$1, '10 YEAR PROJECTION'!$X$13:$X$17, 0), MATCH(B38, '10 YEAR PROJECTION'!$X$12:$AN$12, 0))/1000000,
         0)
     ), 0)</f>
-        <v>0</v>
+        <v>1.6047739052097945</v>
       </c>
       <c r="E38" s="223">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="F38" s="223">
         <f t="shared" si="2"/>
@@ -52140,11 +52370,11 @@
       </c>
       <c r="G38" s="224">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.7817548299613644</v>
       </c>
       <c r="H38" s="225">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.0489540039308611</v>
       </c>
       <c r="I38" s="223">
         <f t="shared" si="5"/>
@@ -52152,11 +52382,11 @@
       </c>
       <c r="J38" s="224">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.7817548299613644</v>
       </c>
       <c r="K38" s="225">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.0489540039308611</v>
       </c>
       <c r="L38" s="223">
         <f t="shared" si="8"/>
@@ -52180,11 +52410,11 @@
       </c>
       <c r="Q38" s="231">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5.8307088338922259</v>
       </c>
       <c r="R38" s="232">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>296.97254956412195</v>
       </c>
       <c r="S38" s="158">
         <f>IF(A38,
@@ -52194,7 +52424,7 @@
              INDEX(MP_new!$A$4:$J$9, INDEX('Cost Analysis Input'!$B$2:$D$7, IF(MATCH(B38, 'Cost Analysis Input'!$C$2:$C$7, 1)&gt;$I$1, $I$1, MATCH(B38, 'Cost Analysis Input'!$C$2:$C$7, 1)), 3)+1, 7)-5000),
         INDEX(MP_new!$A$4:$J$9, $I$1+1, 7)),
     0)</f>
-        <v>0</v>
+        <v>59692.434433137103</v>
       </c>
       <c r="T38" s="157">
         <f>IF(A38, IF(EXACT($S$5, "Yes"),
@@ -52202,31 +52432,31 @@
         T37,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B38, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="U38" s="1">
         <f>IF(A38, (MP_new!$G$4-S38)+T38, 0)</f>
-        <v>0</v>
+        <v>13926.620720270636</v>
       </c>
       <c r="V38" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4398.0154922990941</v>
       </c>
       <c r="W38" s="233">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>61.249493683123823</v>
       </c>
       <c r="X38" s="230">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>978.6457900013944</v>
       </c>
       <c r="Y38" s="230">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>55.418784849231599</v>
       </c>
       <c r="Z38" s="230">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>681.6732404372724</v>
       </c>
       <c r="AA38" s="230">
         <f>IF(SUM(AA$9:AA37)&gt;0,0,IF(SUM(X38-R38)&gt;0,B38,0))</f>
@@ -52234,7 +52464,7 @@
       </c>
       <c r="AB38" s="230">
         <f>ABS(Z38)*1000000/SUM(U$9:U38)</f>
-        <v>0</v>
+        <v>1742.6721146353241</v>
       </c>
       <c r="AC38" s="193"/>
       <c r="AD38" s="193"/>
@@ -52358,8 +52588,8 @@
     </row>
     <row r="39" spans="1:78" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="193" t="b">
-        <f>IF(B38+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
-        <v>0</v>
+        <f>IF(B38+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
+        <v>1</v>
       </c>
       <c r="B39" s="41">
         <f t="shared" si="20"/>
@@ -52381,11 +52611,11 @@
         INDEX('10 YEAR PROJECTION'!$X$13:$AN$17, MATCH($I$1, '10 YEAR PROJECTION'!$X$13:$X$17, 0), MATCH(B39, '10 YEAR PROJECTION'!$X$12:$AN$12, 0))/1000000,
         0)
     ), 0)</f>
-        <v>0</v>
+        <v>1.6047739052097945</v>
       </c>
       <c r="E39" s="223">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="F39" s="223">
         <f t="shared" si="2"/>
@@ -52393,11 +52623,11 @@
       </c>
       <c r="G39" s="224">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.8952074748602055</v>
       </c>
       <c r="H39" s="225">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.1309121640880955</v>
       </c>
       <c r="I39" s="223">
         <f t="shared" si="5"/>
@@ -52405,11 +52635,11 @@
       </c>
       <c r="J39" s="224">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.8952074748602055</v>
       </c>
       <c r="K39" s="225">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.1309121640880955</v>
       </c>
       <c r="L39" s="223">
         <f t="shared" si="8"/>
@@ -52433,11 +52663,11 @@
       </c>
       <c r="Q39" s="224">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>6.0261196389483009</v>
       </c>
       <c r="R39" s="232">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>302.99866920307022</v>
       </c>
       <c r="S39" s="158">
         <f>IF(A39,
@@ -52447,7 +52677,7 @@
              INDEX(MP_new!$A$4:$J$9, INDEX('Cost Analysis Input'!$B$2:$D$7, IF(MATCH(B39, 'Cost Analysis Input'!$C$2:$C$7, 1)&gt;$I$1, $I$1, MATCH(B39, 'Cost Analysis Input'!$C$2:$C$7, 1)), 3)+1, 7)-5000),
         INDEX(MP_new!$A$4:$J$9, $I$1+1, 7)),
     0)</f>
-        <v>0</v>
+        <v>59692.434433137103</v>
       </c>
       <c r="T39" s="157">
         <f>IF(A39, IF(EXACT($S$5, "Yes"),
@@ -52455,31 +52685,31 @@
         T38,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B39, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="U39" s="1">
         <f>IF(A39, (MP_new!$G$4-S39)+T39, 0)</f>
-        <v>0</v>
+        <v>13926.620720270636</v>
       </c>
       <c r="V39" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4617.9162669140487</v>
       </c>
       <c r="W39" s="226">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>64.311968367280016</v>
       </c>
       <c r="X39" s="223">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1042.9577583686744</v>
       </c>
       <c r="Y39" s="223">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>58.285848728331715</v>
       </c>
       <c r="Z39" s="223">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>739.95908916560415</v>
       </c>
       <c r="AA39" s="223">
         <f>IF(SUM(AA$9:AA38)&gt;0,0,IF(SUM(X39-R39)&gt;0,B39,0))</f>
@@ -52487,7 +52717,7 @@
       </c>
       <c r="AB39" s="223">
         <f>ABS(Z39)*1000000/SUM(U$9:U39)</f>
-        <v>0</v>
+        <v>1826.6439123969558</v>
       </c>
       <c r="AH39" s="17">
         <f t="shared" si="26"/>
@@ -52586,8 +52816,8 @@
     </row>
     <row r="40" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A40" s="193" t="b">
-        <f>IF(B39+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
-        <v>0</v>
+        <f>IF(B39+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
+        <v>1</v>
       </c>
       <c r="B40" s="40">
         <f t="shared" si="20"/>
@@ -52609,11 +52839,11 @@
         INDEX('10 YEAR PROJECTION'!$X$13:$AN$17, MATCH($I$1, '10 YEAR PROJECTION'!$X$13:$X$17, 0), MATCH(B40, '10 YEAR PROJECTION'!$X$12:$AN$12, 0))/1000000,
         0)
     ), 0)</f>
-        <v>0</v>
+        <v>1.6047739052097945</v>
       </c>
       <c r="E40" s="223">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="F40" s="223">
         <f t="shared" si="2"/>
@@ -52621,11 +52851,11 @@
       </c>
       <c r="G40" s="224">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.0120636991060126</v>
       </c>
       <c r="H40" s="225">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.2161486506516193</v>
       </c>
       <c r="I40" s="223">
         <f t="shared" si="5"/>
@@ -52633,11 +52863,11 @@
       </c>
       <c r="J40" s="224">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.0120636991060126</v>
       </c>
       <c r="K40" s="225">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.2161486506516193</v>
       </c>
       <c r="L40" s="223">
         <f t="shared" si="8"/>
@@ -52661,11 +52891,11 @@
       </c>
       <c r="Q40" s="231">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>6.2282123497576318</v>
       </c>
       <c r="R40" s="232">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>309.22688155282788</v>
       </c>
       <c r="S40" s="158">
         <f>IF(A40,
@@ -52675,7 +52905,7 @@
              INDEX(MP_new!$A$4:$J$9, INDEX('Cost Analysis Input'!$B$2:$D$7, IF(MATCH(B40, 'Cost Analysis Input'!$C$2:$C$7, 1)&gt;$I$1, $I$1, MATCH(B40, 'Cost Analysis Input'!$C$2:$C$7, 1)), 3)+1, 7)-5000),
         INDEX(MP_new!$A$4:$J$9, $I$1+1, 7)),
     0)</f>
-        <v>0</v>
+        <v>59692.434433137103</v>
       </c>
       <c r="T40" s="157">
         <f>IF(A40, IF(EXACT($S$5, "Yes"),
@@ -52683,31 +52913,31 @@
         T39,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B40, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="U40" s="1">
         <f>IF(A40, (MP_new!$G$4-S40)+T40, 0)</f>
-        <v>0</v>
+        <v>13926.620720270636</v>
       </c>
       <c r="V40" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4848.8120802597514</v>
       </c>
       <c r="W40" s="233">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>67.527566785644026</v>
       </c>
       <c r="X40" s="230">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1110.4853251543184</v>
       </c>
       <c r="Y40" s="230">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>61.299354435886393</v>
       </c>
       <c r="Z40" s="230">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>801.25844360149051</v>
       </c>
       <c r="AA40" s="230">
         <f>IF(SUM(AA$9:AA39)&gt;0,0,IF(SUM(X40-R40)&gt;0,B40,0))</f>
@@ -52715,7 +52945,7 @@
       </c>
       <c r="AB40" s="230">
         <f>ABS(Z40)*1000000/SUM(U$9:U40)</f>
-        <v>0</v>
+        <v>1912.2257071696845</v>
       </c>
       <c r="AH40" s="17">
         <f t="shared" si="26"/>
@@ -52819,8 +53049,8 @@
     </row>
     <row r="41" spans="1:78" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="193" t="b">
-        <f>IF(B40+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
-        <v>0</v>
+        <f>IF(B40+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
+        <v>1</v>
       </c>
       <c r="B41" s="41">
         <f t="shared" si="20"/>
@@ -52842,11 +53072,11 @@
         INDEX('10 YEAR PROJECTION'!$X$13:$AN$17, MATCH($I$1, '10 YEAR PROJECTION'!$X$13:$X$17, 0), MATCH(B41, '10 YEAR PROJECTION'!$X$12:$AN$12, 0))/1000000,
         0)
     ), 0)</f>
-        <v>0</v>
+        <v>1.6047739052097945</v>
       </c>
       <c r="E41" s="223">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="F41" s="223">
         <f t="shared" si="2"/>
@@ -52854,11 +53084,11 @@
       </c>
       <c r="G41" s="224">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.1324256100791921</v>
       </c>
       <c r="H41" s="225">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.3047945966776844</v>
       </c>
       <c r="I41" s="223">
         <f t="shared" si="5"/>
@@ -52866,11 +53096,11 @@
       </c>
       <c r="J41" s="224">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.1324256100791921</v>
       </c>
       <c r="K41" s="225">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.3047945966776844</v>
       </c>
       <c r="L41" s="223">
         <f t="shared" si="8"/>
@@ -52894,11 +53124,11 @@
       </c>
       <c r="Q41" s="224">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>6.4372202067568765</v>
       </c>
       <c r="R41" s="232">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>315.66410175958475</v>
       </c>
       <c r="S41" s="158">
         <f>IF(A41,
@@ -52908,7 +53138,7 @@
              INDEX(MP_new!$A$4:$J$9, INDEX('Cost Analysis Input'!$B$2:$D$7, IF(MATCH(B41, 'Cost Analysis Input'!$C$2:$C$7, 1)&gt;$I$1, $I$1, MATCH(B41, 'Cost Analysis Input'!$C$2:$C$7, 1)), 3)+1, 7)-5000),
         INDEX(MP_new!$A$4:$J$9, $I$1+1, 7)),
     0)</f>
-        <v>0</v>
+        <v>59692.434433137103</v>
       </c>
       <c r="T41" s="157">
         <f>IF(A41, IF(EXACT($S$5, "Yes"),
@@ -52916,31 +53146,31 @@
         T40,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B41, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="U41" s="1">
         <f>IF(A41, (MP_new!$G$4-S41)+T41, 0)</f>
-        <v>0</v>
+        <v>13926.620720270636</v>
       </c>
       <c r="V41" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5091.2526842727393</v>
       </c>
       <c r="W41" s="226">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>70.903945124926224</v>
       </c>
       <c r="X41" s="223">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1181.3892702792446</v>
       </c>
       <c r="Y41" s="223">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>64.466724918169348</v>
       </c>
       <c r="Z41" s="223">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>865.72516851965975</v>
       </c>
       <c r="AA41" s="223">
         <f>IF(SUM(AA$9:AA40)&gt;0,0,IF(SUM(X41-R41)&gt;0,B41,0))</f>
@@ -52948,7 +53178,7 @@
       </c>
       <c r="AB41" s="223">
         <f>ABS(Z41)*1000000/SUM(U$9:U41)</f>
-        <v>0</v>
+        <v>1999.6175226181388</v>
       </c>
       <c r="AH41" s="17">
         <f t="shared" si="26"/>
@@ -53047,8 +53277,8 @@
     </row>
     <row r="42" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A42" s="193" t="b">
-        <f>IF(B41+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
-        <v>0</v>
+        <f>IF(B41+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
+        <v>1</v>
       </c>
       <c r="B42" s="40">
         <f t="shared" si="20"/>
@@ -53070,11 +53300,11 @@
         INDEX('10 YEAR PROJECTION'!$X$13:$AN$17, MATCH($I$1, '10 YEAR PROJECTION'!$X$13:$X$17, 0), MATCH(B42, '10 YEAR PROJECTION'!$X$12:$AN$12, 0))/1000000,
         0)
     ), 0)</f>
-        <v>0</v>
+        <v>1.6047739052097945</v>
       </c>
       <c r="E42" s="223">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="F42" s="223">
         <f t="shared" si="2"/>
@@ -53082,11 +53312,11 @@
       </c>
       <c r="G42" s="224">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.2563983783815678</v>
       </c>
       <c r="H42" s="225">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.3969863805447917</v>
       </c>
       <c r="I42" s="223">
         <f t="shared" si="5"/>
@@ -53094,11 +53324,11 @@
       </c>
       <c r="J42" s="224">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.2563983783815678</v>
       </c>
       <c r="K42" s="225">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.3969863805447917</v>
       </c>
       <c r="L42" s="223">
         <f t="shared" si="8"/>
@@ -53122,11 +53352,11 @@
       </c>
       <c r="Q42" s="231">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>6.6533847589263591</v>
       </c>
       <c r="R42" s="232">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>322.31748651851109</v>
       </c>
       <c r="S42" s="158">
         <f>IF(A42,
@@ -53136,7 +53366,7 @@
              INDEX(MP_new!$A$4:$J$9, INDEX('Cost Analysis Input'!$B$2:$D$7, IF(MATCH(B42, 'Cost Analysis Input'!$C$2:$C$7, 1)&gt;$I$1, $I$1, MATCH(B42, 'Cost Analysis Input'!$C$2:$C$7, 1)), 3)+1, 7)-5000),
         INDEX(MP_new!$A$4:$J$9, $I$1+1, 7)),
     0)</f>
-        <v>0</v>
+        <v>59692.434433137103</v>
       </c>
       <c r="T42" s="157">
         <f>IF(A42, IF(EXACT($S$5, "Yes"),
@@ -53144,31 +53374,31 @@
         T41,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B42, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="U42" s="1">
         <f>IF(A42, (MP_new!$G$4-S42)+T42, 0)</f>
-        <v>0</v>
+        <v>13926.620720270636</v>
       </c>
       <c r="V42" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5345.8153184863768</v>
       </c>
       <c r="W42" s="233">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>74.449142381172535</v>
       </c>
       <c r="X42" s="230">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1255.8384126604171</v>
       </c>
       <c r="Y42" s="230">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>67.795757622246171</v>
       </c>
       <c r="Z42" s="230">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>933.5209261419061</v>
       </c>
       <c r="AA42" s="230">
         <f>IF(SUM(AA$9:AA41)&gt;0,0,IF(SUM(X42-R42)&gt;0,B42,0))</f>
@@ -53176,7 +53406,7 @@
       </c>
       <c r="AB42" s="230">
         <f>ABS(Z42)*1000000/SUM(U$9:U42)</f>
-        <v>0</v>
+        <v>2089.0118966665636</v>
       </c>
       <c r="AH42" s="17">
         <f t="shared" si="26"/>
@@ -53280,8 +53510,8 @@
     </row>
     <row r="43" spans="1:78" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="193" t="b">
-        <f>IF(B42+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
-        <v>0</v>
+        <f>IF(B42+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
+        <v>1</v>
       </c>
       <c r="B43" s="41">
         <f t="shared" si="20"/>
@@ -53303,11 +53533,11 @@
         INDEX('10 YEAR PROJECTION'!$X$13:$AN$17, MATCH($I$1, '10 YEAR PROJECTION'!$X$13:$X$17, 0), MATCH(B43, '10 YEAR PROJECTION'!$X$12:$AN$12, 0))/1000000,
         0)
     ), 0)</f>
-        <v>0</v>
+        <v>1.6047739052097945</v>
       </c>
       <c r="E43" s="223">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="F43" s="223">
         <f t="shared" si="2"/>
@@ -53315,11 +53545,11 @@
       </c>
       <c r="G43" s="224">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.3840903297330138</v>
       </c>
       <c r="H43" s="225">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.4928658357665836</v>
       </c>
       <c r="I43" s="223">
         <f t="shared" si="5"/>
@@ -53327,11 +53557,11 @@
       </c>
       <c r="J43" s="224">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.3840903297330138</v>
       </c>
       <c r="K43" s="225">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.4928658357665836</v>
       </c>
       <c r="L43" s="223">
         <f t="shared" si="8"/>
@@ -53355,11 +53585,11 @@
       </c>
       <c r="Q43" s="224">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>6.8769561654995979</v>
       </c>
       <c r="R43" s="232">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>329.19444268401071</v>
       </c>
       <c r="S43" s="158">
         <f>IF(A43,
@@ -53369,7 +53599,7 @@
              INDEX(MP_new!$A$4:$J$9, INDEX('Cost Analysis Input'!$B$2:$D$7, IF(MATCH(B43, 'Cost Analysis Input'!$C$2:$C$7, 1)&gt;$I$1, $I$1, MATCH(B43, 'Cost Analysis Input'!$C$2:$C$7, 1)), 3)+1, 7)-5000),
         INDEX(MP_new!$A$4:$J$9, $I$1+1, 7)),
     0)</f>
-        <v>0</v>
+        <v>59692.434433137103</v>
       </c>
       <c r="T43" s="157">
         <f>IF(A43, IF(EXACT($S$5, "Yes"),
@@ -53377,31 +53607,31 @@
         T42,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B43, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="U43" s="1">
         <f>IF(A43, (MP_new!$G$4-S43)+T43, 0)</f>
-        <v>0</v>
+        <v>13926.620720270636</v>
       </c>
       <c r="V43" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5613.106084410696</v>
       </c>
       <c r="W43" s="226">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>78.171599500231181</v>
       </c>
       <c r="X43" s="223">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1334.0100121606483</v>
       </c>
       <c r="Y43" s="223">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>71.294643334731589</v>
       </c>
       <c r="Z43" s="223">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1004.8155694766376</v>
       </c>
       <c r="AA43" s="223">
         <f>IF(SUM(AA$9:AA42)&gt;0,0,IF(SUM(X43-R43)&gt;0,B43,0))</f>
@@ -53409,7 +53639,7 @@
       </c>
       <c r="AB43" s="223">
         <f>ABS(Z43)*1000000/SUM(U$9:U43)</f>
-        <v>0</v>
+        <v>2180.5958663026818</v>
       </c>
       <c r="AH43" s="17">
         <f t="shared" si="26"/>
@@ -53508,8 +53738,8 @@
     </row>
     <row r="44" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A44" s="193" t="b">
-        <f>IF(B43+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
-        <v>0</v>
+        <f>IF(B43+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
+        <v>1</v>
       </c>
       <c r="B44" s="40">
         <f t="shared" si="20"/>
@@ -53531,11 +53761,11 @@
         INDEX('10 YEAR PROJECTION'!$X$13:$AN$17, MATCH($I$1, '10 YEAR PROJECTION'!$X$13:$X$17, 0), MATCH(B44, '10 YEAR PROJECTION'!$X$12:$AN$12, 0))/1000000,
         0)
     ), 0)</f>
-        <v>0</v>
+        <v>1.6047739052097945</v>
       </c>
       <c r="E44" s="223">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="F44" s="223">
         <f t="shared" si="2"/>
@@ -53543,11 +53773,11 @@
       </c>
       <c r="G44" s="224">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.5156130396250056</v>
       </c>
       <c r="H44" s="225">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.5925804691972472</v>
       </c>
       <c r="I44" s="223">
         <f t="shared" si="5"/>
@@ -53555,11 +53785,11 @@
       </c>
       <c r="J44" s="224">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.5156130396250056</v>
       </c>
       <c r="K44" s="225">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.5925804691972472</v>
       </c>
       <c r="L44" s="223">
         <f t="shared" si="8"/>
@@ -53583,11 +53813,11 @@
       </c>
       <c r="Q44" s="231">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>7.1081935088222528</v>
       </c>
       <c r="R44" s="232">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>336.30263619283295</v>
       </c>
       <c r="S44" s="158">
         <f>IF(A44,
@@ -53597,7 +53827,7 @@
              INDEX(MP_new!$A$4:$J$9, INDEX('Cost Analysis Input'!$B$2:$D$7, IF(MATCH(B44, 'Cost Analysis Input'!$C$2:$C$7, 1)&gt;$I$1, $I$1, MATCH(B44, 'Cost Analysis Input'!$C$2:$C$7, 1)), 3)+1, 7)-5000),
         INDEX(MP_new!$A$4:$J$9, $I$1+1, 7)),
     0)</f>
-        <v>0</v>
+        <v>59692.434433137103</v>
       </c>
       <c r="T44" s="157">
         <f>IF(A44, IF(EXACT($S$5, "Yes"),
@@ -53605,31 +53835,31 @@
         T43,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B44, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="U44" s="1">
         <f>IF(A44, (MP_new!$G$4-S44)+T44, 0)</f>
-        <v>0</v>
+        <v>13926.620720270636</v>
       </c>
       <c r="V44" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5893.7613886312311</v>
       </c>
       <c r="W44" s="233">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>82.08017947524273</v>
       </c>
       <c r="X44" s="230">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1416.090191635891</v>
       </c>
       <c r="Y44" s="230">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>74.971985966420476</v>
       </c>
       <c r="Z44" s="230">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1079.787555443058</v>
       </c>
       <c r="AA44" s="230">
         <f>IF(SUM(AA$9:AA43)&gt;0,0,IF(SUM(X44-R44)&gt;0,B44,0))</f>
@@ -53637,7 +53867,7 @@
       </c>
       <c r="AB44" s="230">
         <f>ABS(Z44)*1000000/SUM(U$9:U44)</f>
-        <v>0</v>
+        <v>2274.5526446982549</v>
       </c>
       <c r="AH44" s="17">
         <f t="shared" si="26"/>
@@ -53741,8 +53971,8 @@
     </row>
     <row r="45" spans="1:78" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="193" t="b">
-        <f>IF(B44+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
-        <v>0</v>
+        <f>IF(B44+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
+        <v>1</v>
       </c>
       <c r="B45" s="41">
         <f t="shared" si="20"/>
@@ -53764,11 +53994,11 @@
         INDEX('10 YEAR PROJECTION'!$X$13:$AN$17, MATCH($I$1, '10 YEAR PROJECTION'!$X$13:$X$17, 0), MATCH(B45, '10 YEAR PROJECTION'!$X$12:$AN$12, 0))/1000000,
         0)
     ), 0)</f>
-        <v>0</v>
+        <v>1.6047739052097945</v>
       </c>
       <c r="E45" s="223">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="F45" s="223">
         <f t="shared" si="2"/>
@@ -53776,11 +54006,11 @@
       </c>
       <c r="G45" s="224">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.6510814308137549</v>
       </c>
       <c r="H45" s="225">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.6962836879651366</v>
       </c>
       <c r="I45" s="223">
         <f t="shared" si="5"/>
@@ -53788,11 +54018,11 @@
       </c>
       <c r="J45" s="224">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.6510814308137549</v>
       </c>
       <c r="K45" s="225">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.6962836879651366</v>
       </c>
       <c r="L45" s="223">
         <f t="shared" si="8"/>
@@ -53816,11 +54046,11 @@
       </c>
       <c r="Q45" s="224">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>7.3473651187788915</v>
       </c>
       <c r="R45" s="232">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>343.65000131161185</v>
       </c>
       <c r="S45" s="158">
         <f>IF(A45,
@@ -53830,7 +54060,7 @@
              INDEX(MP_new!$A$4:$J$9, INDEX('Cost Analysis Input'!$B$2:$D$7, IF(MATCH(B45, 'Cost Analysis Input'!$C$2:$C$7, 1)&gt;$I$1, $I$1, MATCH(B45, 'Cost Analysis Input'!$C$2:$C$7, 1)), 3)+1, 7)-5000),
         INDEX(MP_new!$A$4:$J$9, $I$1+1, 7)),
     0)</f>
-        <v>0</v>
+        <v>59692.434433137103</v>
       </c>
       <c r="T45" s="157">
         <f>IF(A45, IF(EXACT($S$5, "Yes"),
@@ -53838,31 +54068,31 @@
         T44,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B45, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="U45" s="1">
         <f>IF(A45, (MP_new!$G$4-S45)+T45, 0)</f>
-        <v>0</v>
+        <v>13926.620720270636</v>
       </c>
       <c r="V45" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6188.4494580627925</v>
       </c>
       <c r="W45" s="226">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>86.184188449004878</v>
       </c>
       <c r="X45" s="223">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1502.2743800848959</v>
       </c>
       <c r="Y45" s="223">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>78.836823330225982</v>
       </c>
       <c r="Z45" s="223">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1158.6243787732842</v>
       </c>
       <c r="AA45" s="223">
         <f>IF(SUM(AA$9:AA44)&gt;0,0,IF(SUM(X45-R45)&gt;0,B45,0))</f>
@@ -53870,7 +54100,7 @@
       </c>
       <c r="AB45" s="223">
         <f>ABS(Z45)*1000000/SUM(U$9:U45)</f>
-        <v>0</v>
+        <v>2371.0630540620864</v>
       </c>
       <c r="AH45" s="17">
         <f t="shared" si="26"/>
@@ -53969,8 +54199,8 @@
     </row>
     <row r="46" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A46" s="193" t="b">
-        <f>IF(B45+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
-        <v>0</v>
+        <f>IF(B45+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
+        <v>1</v>
       </c>
       <c r="B46" s="40">
         <f t="shared" si="20"/>
@@ -53992,11 +54222,11 @@
         INDEX('10 YEAR PROJECTION'!$X$13:$AN$17, MATCH($I$1, '10 YEAR PROJECTION'!$X$13:$X$17, 0), MATCH(B46, '10 YEAR PROJECTION'!$X$12:$AN$12, 0))/1000000,
         0)
     ), 0)</f>
-        <v>0</v>
+        <v>1.6047739052097945</v>
       </c>
       <c r="E46" s="223">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="F46" s="223">
         <f t="shared" si="2"/>
@@ -54004,11 +54234,11 @@
       </c>
       <c r="G46" s="224">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.7906138737381667</v>
       </c>
       <c r="H46" s="225">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.8041350354837431</v>
       </c>
       <c r="I46" s="223">
         <f t="shared" si="5"/>
@@ -54016,11 +54246,11 @@
       </c>
       <c r="J46" s="224">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.7906138737381667</v>
       </c>
       <c r="K46" s="225">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.8041350354837431</v>
       </c>
       <c r="L46" s="223">
         <f t="shared" si="8"/>
@@ -54044,11 +54274,11 @@
       </c>
       <c r="Q46" s="231">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>7.5947489092219094</v>
       </c>
       <c r="R46" s="232">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>351.24475022083374</v>
       </c>
       <c r="S46" s="158">
         <f>IF(A46,
@@ -54058,7 +54288,7 @@
              INDEX(MP_new!$A$4:$J$9, INDEX('Cost Analysis Input'!$B$2:$D$7, IF(MATCH(B46, 'Cost Analysis Input'!$C$2:$C$7, 1)&gt;$I$1, $I$1, MATCH(B46, 'Cost Analysis Input'!$C$2:$C$7, 1)), 3)+1, 7)-5000),
         INDEX(MP_new!$A$4:$J$9, $I$1+1, 7)),
     0)</f>
-        <v>0</v>
+        <v>59692.434433137103</v>
       </c>
       <c r="T46" s="157">
         <f>IF(A46, IF(EXACT($S$5, "Yes"),
@@ -54066,31 +54296,31 @@
         T45,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B46, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="U46" s="1">
         <f>IF(A46, (MP_new!$G$4-S46)+T46, 0)</f>
-        <v>0</v>
+        <v>13926.620720270636</v>
       </c>
       <c r="V46" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6497.8719309659327</v>
       </c>
       <c r="W46" s="233">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>90.493397871455116</v>
       </c>
       <c r="X46" s="230">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1592.767777956351</v>
       </c>
       <c r="Y46" s="230">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>82.89864896223321</v>
       </c>
       <c r="Z46" s="230">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1241.5230277355172</v>
       </c>
       <c r="AA46" s="230">
         <f>IF(SUM(AA$9:AA45)&gt;0,0,IF(SUM(X46-R46)&gt;0,B46,0))</f>
@@ -54098,7 +54328,7 @@
       </c>
       <c r="AB46" s="230">
         <f>ABS(Z46)*1000000/SUM(U$9:U46)</f>
-        <v>0</v>
+        <v>2470.3067636821665</v>
       </c>
       <c r="AH46" s="17">
         <f t="shared" si="26"/>
@@ -54202,8 +54432,8 @@
     </row>
     <row r="47" spans="1:78" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="193" t="b">
-        <f>IF(B46+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
-        <v>0</v>
+        <f>IF(B46+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
+        <v>1</v>
       </c>
       <c r="B47" s="41">
         <f t="shared" si="20"/>
@@ -54225,11 +54455,11 @@
         INDEX('10 YEAR PROJECTION'!$X$13:$AN$17, MATCH($I$1, '10 YEAR PROJECTION'!$X$13:$X$17, 0), MATCH(B47, '10 YEAR PROJECTION'!$X$12:$AN$12, 0))/1000000,
         0)
     ), 0)</f>
-        <v>0</v>
+        <v>1.6047739052097945</v>
       </c>
       <c r="E47" s="223">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="F47" s="223">
         <f t="shared" si="2"/>
@@ -54237,11 +54467,11 @@
       </c>
       <c r="G47" s="224">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.9343322899503121</v>
       </c>
       <c r="H47" s="225">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.916300436903092</v>
       </c>
       <c r="I47" s="223">
         <f t="shared" si="5"/>
@@ -54249,11 +54479,11 @@
       </c>
       <c r="J47" s="224">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.9343322899503121</v>
       </c>
       <c r="K47" s="225">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.916300436903092</v>
       </c>
       <c r="L47" s="223">
         <f t="shared" si="8"/>
@@ -54277,11 +54507,11 @@
       </c>
       <c r="Q47" s="224">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>7.8506327268534042</v>
       </c>
       <c r="R47" s="232">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>359.09538294768714</v>
       </c>
       <c r="S47" s="158">
         <f>IF(A47,
@@ -54291,7 +54521,7 @@
              INDEX(MP_new!$A$4:$J$9, INDEX('Cost Analysis Input'!$B$2:$D$7, IF(MATCH(B47, 'Cost Analysis Input'!$C$2:$C$7, 1)&gt;$I$1, $I$1, MATCH(B47, 'Cost Analysis Input'!$C$2:$C$7, 1)), 3)+1, 7)-5000),
         INDEX(MP_new!$A$4:$J$9, $I$1+1, 7)),
     0)</f>
-        <v>0</v>
+        <v>59692.434433137103</v>
       </c>
       <c r="T47" s="157">
         <f>IF(A47, IF(EXACT($S$5, "Yes"),
@@ -54299,31 +54529,31 @@
         T46,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B47, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="U47" s="1">
         <f>IF(A47, (MP_new!$G$4-S47)+T47, 0)</f>
-        <v>0</v>
+        <v>13926.620720270636</v>
       </c>
       <c r="V47" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6822.7655275142297</v>
       </c>
       <c r="W47" s="226">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>95.01806776502788</v>
       </c>
       <c r="X47" s="223">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1687.7858457213788</v>
       </c>
       <c r="Y47" s="223">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>87.167435038174474</v>
       </c>
       <c r="Z47" s="223">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1328.6904627736917</v>
       </c>
       <c r="AA47" s="223">
         <f>IF(SUM(AA$9:AA46)&gt;0,0,IF(SUM(X47-R47)&gt;0,B47,0))</f>
@@ -54331,7 +54561,7 @@
       </c>
       <c r="AB47" s="223">
         <f>ABS(Z47)*1000000/SUM(U$9:U47)</f>
-        <v>0</v>
+        <v>2572.4633720468314</v>
       </c>
       <c r="AH47" s="17">
         <f t="shared" si="26"/>
@@ -54430,8 +54660,8 @@
     </row>
     <row r="48" spans="1:78" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="193" t="b">
-        <f>IF(B47+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
-        <v>0</v>
+        <f>IF(B47+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
+        <v>1</v>
       </c>
       <c r="B48" s="40">
         <f t="shared" si="20"/>
@@ -54453,11 +54683,11 @@
         INDEX('10 YEAR PROJECTION'!$X$13:$AN$17, MATCH($I$1, '10 YEAR PROJECTION'!$X$13:$X$17, 0), MATCH(B48, '10 YEAR PROJECTION'!$X$12:$AN$12, 0))/1000000,
         0)
     ), 0)</f>
-        <v>0</v>
+        <v>1.6047739052097945</v>
       </c>
       <c r="E48" s="223">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="F48" s="223">
         <f t="shared" si="2"/>
@@ -54465,11 +54695,11 @@
       </c>
       <c r="G48" s="224">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.0823622586488222</v>
       </c>
       <c r="H48" s="225">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.0329524543792159</v>
       </c>
       <c r="I48" s="223">
         <f t="shared" si="5"/>
@@ -54477,11 +54707,11 @@
       </c>
       <c r="J48" s="224">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5.0823622586488222</v>
       </c>
       <c r="K48" s="225">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.0329524543792159</v>
       </c>
       <c r="L48" s="223">
         <f t="shared" si="8"/>
@@ -54505,11 +54735,11 @@
       </c>
       <c r="Q48" s="231">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8.1153147130280381</v>
       </c>
       <c r="R48" s="232">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>367.2106976607152</v>
       </c>
       <c r="S48" s="158">
         <f>IF(A48,
@@ -54519,7 +54749,7 @@
              INDEX(MP_new!$A$4:$J$9, INDEX('Cost Analysis Input'!$B$2:$D$7, IF(MATCH(B48, 'Cost Analysis Input'!$C$2:$C$7, 1)&gt;$I$1, $I$1, MATCH(B48, 'Cost Analysis Input'!$C$2:$C$7, 1)), 3)+1, 7)-5000),
         INDEX(MP_new!$A$4:$J$9, $I$1+1, 7)),
     0)</f>
-        <v>0</v>
+        <v>59692.434433137103</v>
       </c>
       <c r="T48" s="157">
         <f>IF(A48, IF(EXACT($S$5, "Yes"),
@@ -54527,31 +54757,31 @@
         T47,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B48, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="U48" s="1">
         <f>IF(A48, (MP_new!$G$4-S48)+T48, 0)</f>
-        <v>0</v>
+        <v>13926.620720270636</v>
       </c>
       <c r="V48" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>7163.9038038899416</v>
       </c>
       <c r="W48" s="233">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>99.768971153279296</v>
       </c>
       <c r="X48" s="230">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1787.5548168746582</v>
       </c>
       <c r="Y48" s="230">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>91.653656440251254</v>
       </c>
       <c r="Z48" s="230">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1420.344119213943</v>
       </c>
       <c r="AA48" s="230">
         <f>IF(SUM(AA$9:AA47)&gt;0,0,IF(SUM(X48-R48)&gt;0,B48,0))</f>
@@ -54559,7 +54789,7 @@
       </c>
       <c r="AB48" s="230">
         <f>ABS(Z48)*1000000/SUM(U$9:U48)</f>
-        <v>0</v>
+        <v>2677.7133638698501</v>
       </c>
       <c r="AH48" s="17">
         <f t="shared" si="26"/>
@@ -54663,8 +54893,8 @@
     </row>
     <row r="49" spans="1:78" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="193" t="b">
-        <f>IF(B48+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
-        <v>0</v>
+        <f>IF(B48+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
+        <v>1</v>
       </c>
       <c r="B49" s="41">
         <f t="shared" si="20"/>
@@ -54686,11 +54916,11 @@
         INDEX('10 YEAR PROJECTION'!$X$13:$AN$17, MATCH($I$1, '10 YEAR PROJECTION'!$X$13:$X$17, 0), MATCH(B49, '10 YEAR PROJECTION'!$X$12:$AN$12, 0))/1000000,
         0)
     ), 0)</f>
-        <v>0</v>
+        <v>1.6047739052097945</v>
       </c>
       <c r="E49" s="223">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="F49" s="223">
         <f t="shared" si="2"/>
@@ -54698,11 +54928,11 @@
       </c>
       <c r="G49" s="224">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.2348331264082857</v>
       </c>
       <c r="H49" s="225">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.1542705525543853</v>
       </c>
       <c r="I49" s="223">
         <f t="shared" si="5"/>
@@ -54710,11 +54940,11 @@
       </c>
       <c r="J49" s="224">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5.2348331264082857</v>
       </c>
       <c r="K49" s="225">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.1542705525543853</v>
       </c>
       <c r="L49" s="223">
         <f t="shared" si="8"/>
@@ -54738,11 +54968,11 @@
       </c>
       <c r="Q49" s="224">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8.3891036789626714</v>
       </c>
       <c r="R49" s="232">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>375.59980133967787</v>
       </c>
       <c r="S49" s="158">
         <f>IF(A49,
@@ -54752,7 +54982,7 @@
              INDEX(MP_new!$A$4:$J$9, INDEX('Cost Analysis Input'!$B$2:$D$7, IF(MATCH(B49, 'Cost Analysis Input'!$C$2:$C$7, 1)&gt;$I$1, $I$1, MATCH(B49, 'Cost Analysis Input'!$C$2:$C$7, 1)), 3)+1, 7)-5000),
         INDEX(MP_new!$A$4:$J$9, $I$1+1, 7)),
     0)</f>
-        <v>0</v>
+        <v>59692.434433137103</v>
       </c>
       <c r="T49" s="157">
         <f>IF(A49, IF(EXACT($S$5, "Yes"),
@@ -54760,31 +54990,31 @@
         T48,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B49, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="U49" s="1">
         <f>IF(A49, (MP_new!$G$4-S49)+T49, 0)</f>
-        <v>0</v>
+        <v>13926.620720270636</v>
       </c>
       <c r="V49" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>7522.0989940844393</v>
       </c>
       <c r="W49" s="226">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>104.75741971094325</v>
       </c>
       <c r="X49" s="223">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1892.3122365856013</v>
       </c>
       <c r="Y49" s="223">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>96.368316031980584</v>
       </c>
       <c r="Z49" s="223">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1516.7124352459234</v>
       </c>
       <c r="AA49" s="223">
         <f>IF(SUM(AA$9:AA48)&gt;0,0,IF(SUM(X49-R49)&gt;0,B49,0))</f>
@@ -54792,7 +55022,7 @@
       </c>
       <c r="AB49" s="223">
         <f>ABS(Z49)*1000000/SUM(U$9:U49)</f>
-        <v>0</v>
+        <v>2786.2389666414292</v>
       </c>
       <c r="AH49" s="17">
         <f t="shared" si="26"/>
@@ -54891,8 +55121,8 @@
     </row>
     <row r="50" spans="1:78" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="193" t="b">
-        <f>IF(B49+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
-        <v>0</v>
+        <f>IF(B49+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
+        <v>1</v>
       </c>
       <c r="B50" s="40">
         <f t="shared" si="20"/>
@@ -54914,11 +55144,11 @@
         INDEX('10 YEAR PROJECTION'!$X$13:$AN$17, MATCH($I$1, '10 YEAR PROJECTION'!$X$13:$X$17, 0), MATCH(B50, '10 YEAR PROJECTION'!$X$12:$AN$12, 0))/1000000,
         0)
     ), 0)</f>
-        <v>0</v>
+        <v>1.6047739052097945</v>
       </c>
       <c r="E50" s="223">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="F50" s="223">
         <f t="shared" si="2"/>
@@ -54926,11 +55156,11 @@
       </c>
       <c r="G50" s="224">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.391878120200535</v>
       </c>
       <c r="H50" s="225">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.2804413746565606</v>
       </c>
       <c r="I50" s="223">
         <f t="shared" si="5"/>
@@ -54938,11 +55168,11 @@
       </c>
       <c r="J50" s="224">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5.391878120200535</v>
       </c>
       <c r="K50" s="225">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.2804413746565606</v>
       </c>
       <c r="L50" s="223">
         <f t="shared" si="8"/>
@@ -54966,11 +55196,11 @@
       </c>
       <c r="Q50" s="231">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8.6723194948570956</v>
       </c>
       <c r="R50" s="232">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>384.27212083453497</v>
       </c>
       <c r="S50" s="158">
         <f>IF(A50,
@@ -54980,7 +55210,7 @@
              INDEX(MP_new!$A$4:$J$9, INDEX('Cost Analysis Input'!$B$2:$D$7, IF(MATCH(B50, 'Cost Analysis Input'!$C$2:$C$7, 1)&gt;$I$1, $I$1, MATCH(B50, 'Cost Analysis Input'!$C$2:$C$7, 1)), 3)+1, 7)-5000),
         INDEX(MP_new!$A$4:$J$9, $I$1+1, 7)),
     0)</f>
-        <v>0</v>
+        <v>59692.434433137103</v>
       </c>
       <c r="T50" s="157">
         <f>IF(A50, IF(EXACT($S$5, "Yes"),
@@ -54988,31 +55218,31 @@
         T49,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B50, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="U50" s="1">
         <f>IF(A50, (MP_new!$G$4-S50)+T50, 0)</f>
-        <v>0</v>
+        <v>13926.620720270636</v>
       </c>
       <c r="V50" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>7898.2039437886615</v>
       </c>
       <c r="W50" s="233">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>109.99529069649043</v>
       </c>
       <c r="X50" s="230">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>2002.3075272820918</v>
       </c>
       <c r="Y50" s="230">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>101.32297120163334</v>
       </c>
       <c r="Z50" s="230">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1618.0354064475569</v>
       </c>
       <c r="AA50" s="230">
         <f>IF(SUM(AA$9:AA49)&gt;0,0,IF(SUM(X50-R50)&gt;0,B50,0))</f>
@@ -55020,7 +55250,7 @@
       </c>
       <c r="AB50" s="230">
         <f>ABS(Z50)*1000000/SUM(U$9:U50)</f>
-        <v>0</v>
+        <v>2898.224926521973</v>
       </c>
       <c r="AH50" s="17">
         <f t="shared" si="26"/>
@@ -55124,8 +55354,8 @@
     </row>
     <row r="51" spans="1:78" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="193" t="b">
-        <f>IF(B50+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+20, TRUE, FALSE)</f>
-        <v>0</v>
+        <f>IF(B50+1&lt;INDEX('Step Analysis'!$B$9:$B$51, MATCH(TRUE, INDEX('Step Analysis'!$C$9:$C$51=0,), 0))+100, TRUE, FALSE)</f>
+        <v>1</v>
       </c>
       <c r="B51" s="41">
         <f t="shared" si="20"/>
@@ -55147,11 +55377,11 @@
         INDEX('10 YEAR PROJECTION'!$X$13:$AN$17, MATCH($I$1, '10 YEAR PROJECTION'!$X$13:$X$17, 0), MATCH(B51, '10 YEAR PROJECTION'!$X$12:$AN$12, 0))/1000000,
         0)
     ), 0)</f>
-        <v>0</v>
+        <v>1.6047739052097945</v>
       </c>
       <c r="E51" s="223">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="F51" s="223">
         <f t="shared" si="2"/>
@@ -55159,11 +55389,11 @@
       </c>
       <c r="G51" s="224">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.5536344638065511</v>
       </c>
       <c r="H51" s="225">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.4116590296428231</v>
       </c>
       <c r="I51" s="223">
         <f t="shared" si="5"/>
@@ -55171,11 +55401,11 @@
       </c>
       <c r="J51" s="224">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5.5536344638065511</v>
       </c>
       <c r="K51" s="225">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.4116590296428231</v>
       </c>
       <c r="L51" s="223">
         <f t="shared" si="8"/>
@@ -55199,11 +55429,11 @@
       </c>
       <c r="Q51" s="224">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8.9652934934493747</v>
       </c>
       <c r="R51" s="232">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>393.23741432798437</v>
       </c>
       <c r="S51" s="158">
         <f>IF(A51,
@@ -55213,7 +55443,7 @@
              INDEX(MP_new!$A$4:$J$9, INDEX('Cost Analysis Input'!$B$2:$D$7, IF(MATCH(B51, 'Cost Analysis Input'!$C$2:$C$7, 1)&gt;$I$1, $I$1, MATCH(B51, 'Cost Analysis Input'!$C$2:$C$7, 1)), 3)+1, 7)-5000),
         INDEX(MP_new!$A$4:$J$9, $I$1+1, 7)),
     0)</f>
-        <v>0</v>
+        <v>59692.434433137103</v>
       </c>
       <c r="T51" s="157">
         <f>IF(A51, IF(EXACT($S$5, "Yes"),
@@ -55221,31 +55451,31 @@
         T50,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B51, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="U51" s="1">
         <f>IF(A51, (MP_new!$G$4-S51)+T51, 0)</f>
-        <v>0</v>
+        <v>13926.620720270636</v>
       </c>
       <c r="V51" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>8293.1141409780957</v>
       </c>
       <c r="W51" s="226">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>115.49505523131495</v>
       </c>
       <c r="X51" s="223">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>2117.8025825134068</v>
       </c>
       <c r="Y51" s="223">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>106.52976173786557</v>
       </c>
       <c r="Z51" s="223">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1724.5651681854224</v>
       </c>
       <c r="AA51" s="223">
         <f>IF(SUM(AA$9:AA50)&gt;0,0,IF(SUM(X51-R51)&gt;0,B51,0))</f>
@@ -55253,7 +55483,7 @@
       </c>
       <c r="AB51" s="223">
         <f>ABS(Z51)*1000000/SUM(U$9:U51)</f>
-        <v>0</v>
+        <v>3013.8592196481313</v>
       </c>
       <c r="AH51" s="17">
         <f t="shared" si="26"/>
@@ -55288,57 +55518,57 @@
       </c>
       <c r="Q52" s="236">
         <f>NPV($G$5,Q9:Q51)*(1+$G$5)^($F$5-($E$5-1))</f>
-        <v>212.1878797345567</v>
+        <v>242.42204202680256</v>
       </c>
       <c r="T52" s="66" t="s">
         <v>674</v>
       </c>
       <c r="U52" s="191">
         <f>SUM(U9:U51)</f>
-        <v>321532.41440541268</v>
+        <v>572211.5873702839</v>
       </c>
       <c r="X52" s="66" t="s">
         <v>675</v>
       </c>
       <c r="Y52" s="237">
         <f>NPV($G$5,W9:W51)*(1+$G$5)^($F$5-($E$5-1))</f>
-        <v>388.10667643641671</v>
+        <v>728.89054776022533</v>
       </c>
       <c r="Z52" s="22" t="s">
         <v>676</v>
       </c>
       <c r="AA52" s="23">
         <f>IFERROR(IRR(Y9:Y51), 0)</f>
-        <v>0.13664711696157017</v>
+        <v>0.15441987086386355</v>
       </c>
       <c r="AC52" s="138" t="s">
         <v>677</v>
       </c>
       <c r="AD52" s="238">
         <f>MAX(R9:R51)*1000000/U52</f>
-        <v>838.63145815954203</v>
+        <v>687.22378750697419</v>
       </c>
       <c r="BY52" s="193"/>
       <c r="BZ52" s="193"/>
     </row>
     <row r="53" spans="1:78" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="398"/>
-      <c r="D53" s="398"/>
-      <c r="E53" s="398"/>
-      <c r="F53" s="398"/>
-      <c r="G53" s="398"/>
-      <c r="H53" s="398"/>
-      <c r="I53" s="398"/>
-      <c r="J53" s="398"/>
-      <c r="K53" s="398"/>
-      <c r="L53" s="398"/>
-      <c r="M53" s="398"/>
+      <c r="C53" s="401"/>
+      <c r="D53" s="401"/>
+      <c r="E53" s="401"/>
+      <c r="F53" s="401"/>
+      <c r="G53" s="401"/>
+      <c r="H53" s="401"/>
+      <c r="I53" s="401"/>
+      <c r="J53" s="401"/>
+      <c r="K53" s="401"/>
+      <c r="L53" s="401"/>
+      <c r="M53" s="401"/>
       <c r="AC53" s="138" t="s">
         <v>678</v>
       </c>
       <c r="AD53" s="239">
         <f>Y52-Q52</f>
-        <v>175.91879670186</v>
+        <v>486.46850573342277</v>
       </c>
       <c r="BY53" s="193"/>
       <c r="BZ53" s="193"/>
